--- a/Schedules.xlsx
+++ b/Schedules.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD59FA4-C6A7-4770-B19B-96397F016C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A543F0-C2E8-42D6-90FD-C8638197D633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" activeTab="3" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Timer schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Sun Data Raw" sheetId="2" r:id="rId2"/>
+    <sheet name="Sun Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Presure Sensors" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1104">
   <si>
     <t>Mon, Aug 1</t>
   </si>
@@ -3320,6 +3321,33 @@
   </si>
   <si>
     <t>8:55:12AM</t>
+  </si>
+  <si>
+    <t>150 - 1</t>
+  </si>
+  <si>
+    <t>80 - 3</t>
+  </si>
+  <si>
+    <t>80 - 2</t>
+  </si>
+  <si>
+    <t>80 - 1</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>10.3 bar</t>
+  </si>
+  <si>
+    <t>150 psi</t>
+  </si>
+  <si>
+    <t>5.5 bar</t>
+  </si>
+  <si>
+    <t>80 psi</t>
   </si>
 </sst>
 </file>
@@ -3398,7 +3426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3433,11 +3461,14 @@
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3454,6 +3485,1178 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Presure Sensors'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80 - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-912B-45CF-B70E-6A7E684BE299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Presure Sensors'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80 - 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-912B-45CF-B70E-6A7E684BE299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Presure Sensors'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80 - 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-912B-45CF-B70E-6A7E684BE299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Presure Sensors'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150 - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-912B-45CF-B70E-6A7E684BE299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="613312552"/>
+        <c:axId val="613302384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="613312552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613302384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613302384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613312552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DAC685-457F-44F7-9655-279C1DE31E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3783,38 +4986,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36">
         <v>2</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36">
         <v>4</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36">
         <v>1</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34">
+      <c r="N2" s="36"/>
+      <c r="O2" s="36">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -3955,7 +5158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6A1333-2472-4017-A011-3455D2E105FA}">
   <dimension ref="A1:U383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1:U1048576"/>
     </sheetView>
@@ -3999,14 +5202,14 @@
       <c r="H1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="36"/>
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4064,14 +5267,14 @@
         <f t="shared" ref="M3:M5" si="0">C4-C3</f>
         <v>6.94444444444553E-5</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="35"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34">
         <v>1</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3" s="34">
         <v>1</v>
       </c>
       <c r="T3" s="32">
@@ -4122,14 +5325,14 @@
         <f t="shared" si="0"/>
         <v>4.6296296296266526E-5</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34">
         <v>2</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="34">
         <v>1</v>
       </c>
       <c r="T4" s="32">
@@ -4180,14 +5383,14 @@
         <f t="shared" si="0"/>
         <v>1.1574074074094387E-5</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34">
         <v>3</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="34">
         <v>1</v>
       </c>
       <c r="T5" s="32">
@@ -4238,14 +5441,14 @@
         <f>-1*(C7-C6)</f>
         <v>1.1574074074094387E-5</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34">
         <v>4</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="34">
         <v>1</v>
       </c>
       <c r="T6" s="32">
@@ -4296,14 +5499,14 @@
         <f t="shared" ref="M7:M70" si="2">-1*(C8-C7)</f>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="N7" s="36"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34">
         <v>5</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="34">
         <v>1</v>
       </c>
       <c r="T7" s="32">
@@ -4354,14 +5557,14 @@
         <f t="shared" si="2"/>
         <v>5.7870370370360913E-5</v>
       </c>
-      <c r="N8" s="36"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34">
         <v>6</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="34">
         <v>1</v>
       </c>
       <c r="T8" s="32">
@@ -4414,14 +5617,14 @@
         <f t="shared" si="2"/>
         <v>9.2592592592588563E-5</v>
       </c>
-      <c r="N9" s="36"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34">
         <v>7</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="34">
         <v>1</v>
       </c>
       <c r="T9" s="32">
@@ -4474,14 +5677,14 @@
         <f t="shared" si="2"/>
         <v>1.0416666666668295E-4</v>
       </c>
-      <c r="N10" s="36"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34">
         <v>8</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10" s="34">
         <v>1</v>
       </c>
       <c r="T10" s="32">
@@ -4534,14 +5737,14 @@
         <f t="shared" si="2"/>
         <v>1.3888888888885509E-4</v>
       </c>
-      <c r="N11" s="36"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34">
         <v>9</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11" s="34">
         <v>1</v>
       </c>
       <c r="T11" s="32">
@@ -4594,14 +5797,14 @@
         <f t="shared" si="2"/>
         <v>1.7361111111108274E-4</v>
       </c>
-      <c r="N12" s="36"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34">
         <v>10</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="34">
         <v>1</v>
       </c>
       <c r="T12" s="32">
@@ -4654,14 +5857,14 @@
         <f t="shared" si="2"/>
         <v>1.8518518518523264E-4</v>
       </c>
-      <c r="N13" s="36"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35">
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34">
         <v>11</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="34">
         <v>1</v>
       </c>
       <c r="T13" s="32">
@@ -4714,14 +5917,14 @@
         <f t="shared" si="2"/>
         <v>2.1990740740740478E-4</v>
       </c>
-      <c r="N14" s="36"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35">
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34">
         <v>12</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="34">
         <v>1</v>
       </c>
       <c r="T14" s="32">
@@ -4774,14 +5977,14 @@
         <f t="shared" si="2"/>
         <v>2.4305555555553804E-4</v>
       </c>
-      <c r="N15" s="36"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35">
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34">
         <v>13</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="34">
         <v>1</v>
       </c>
       <c r="T15" s="32">
@@ -4834,14 +6037,14 @@
         <f t="shared" si="2"/>
         <v>2.7777777777776569E-4</v>
       </c>
-      <c r="N16" s="36"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35">
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34">
         <v>14</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="34">
         <v>1</v>
       </c>
       <c r="T16" s="32">
@@ -4894,14 +6097,14 @@
         <f t="shared" si="2"/>
         <v>2.8935185185186008E-4</v>
       </c>
-      <c r="N17" s="36"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35">
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34">
         <v>15</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17" s="34">
         <v>1</v>
       </c>
       <c r="T17" s="32">
@@ -4954,14 +6157,14 @@
         <f t="shared" si="2"/>
         <v>3.2407407407408773E-4</v>
       </c>
-      <c r="N18" s="36"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35">
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34">
         <v>16</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18" s="34">
         <v>1</v>
       </c>
       <c r="T18" s="32">
@@ -5014,14 +6217,14 @@
         <f t="shared" si="2"/>
         <v>3.4722222222222099E-4</v>
       </c>
-      <c r="N19" s="36"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35">
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34">
         <v>17</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S19" s="34">
         <v>1</v>
       </c>
       <c r="T19" s="32">
@@ -5074,14 +6277,14 @@
         <f t="shared" si="2"/>
         <v>3.7037037037035425E-4</v>
       </c>
-      <c r="N20" s="36"/>
+      <c r="N20" s="35"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35">
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34">
         <v>18</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20" s="34">
         <v>1</v>
       </c>
       <c r="T20" s="32">
@@ -5134,14 +6337,14 @@
         <f t="shared" si="2"/>
         <v>3.9351851851854303E-4</v>
       </c>
-      <c r="N21" s="36"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35">
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34">
         <v>19</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21" s="34">
         <v>1</v>
       </c>
       <c r="T21" s="32">
@@ -5194,14 +6397,14 @@
         <f t="shared" si="2"/>
         <v>4.1666666666662078E-4</v>
       </c>
-      <c r="N22" s="36"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35">
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34">
         <v>20</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="34">
         <v>1</v>
       </c>
       <c r="T22" s="32">
@@ -5254,14 +6457,14 @@
         <f t="shared" si="2"/>
         <v>4.3981481481486506E-4</v>
       </c>
-      <c r="N23" s="36"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35">
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34">
         <v>21</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23" s="34">
         <v>1</v>
       </c>
       <c r="T23" s="32">
@@ -5314,14 +6517,14 @@
         <f t="shared" si="2"/>
         <v>4.745370370370372E-4</v>
       </c>
-      <c r="N24" s="36"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35">
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34">
         <v>22</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24" s="34">
         <v>1</v>
       </c>
       <c r="T24" s="32">
@@ -5374,14 +6577,14 @@
         <f t="shared" si="2"/>
         <v>4.8611111111113159E-4</v>
       </c>
-      <c r="N25" s="36"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35">
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34">
         <v>23</v>
       </c>
-      <c r="S25" s="35">
+      <c r="S25" s="34">
         <v>1</v>
       </c>
       <c r="T25" s="32">
@@ -5434,14 +6637,14 @@
         <f t="shared" si="2"/>
         <v>5.2083333333330373E-4</v>
       </c>
-      <c r="N26" s="36"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35">
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34">
         <v>24</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26" s="34">
         <v>1</v>
       </c>
       <c r="T26" s="32">
@@ -5494,14 +6697,14 @@
         <f t="shared" si="2"/>
         <v>5.3240740740739811E-4</v>
       </c>
-      <c r="N27" s="36"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35">
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34">
         <v>25</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="34">
         <v>1</v>
       </c>
       <c r="T27" s="32">
@@ -5554,14 +6757,14 @@
         <f t="shared" si="2"/>
         <v>5.6712962962962576E-4</v>
       </c>
-      <c r="N28" s="36"/>
+      <c r="N28" s="35"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35">
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34">
         <v>26</v>
       </c>
-      <c r="S28" s="35">
+      <c r="S28" s="34">
         <v>1</v>
       </c>
       <c r="T28" s="32">
@@ -5614,14 +6817,14 @@
         <f t="shared" si="2"/>
         <v>5.7870370370372015E-4</v>
       </c>
-      <c r="N29" s="36"/>
+      <c r="N29" s="35"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35">
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34">
         <v>27</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S29" s="34">
         <v>1</v>
       </c>
       <c r="T29" s="32">
@@ -5674,14 +6877,14 @@
         <f t="shared" si="2"/>
         <v>6.0185185185185341E-4</v>
       </c>
-      <c r="N30" s="36"/>
+      <c r="N30" s="35"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35">
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34">
         <v>28</v>
       </c>
-      <c r="S30" s="35">
+      <c r="S30" s="34">
         <v>1</v>
       </c>
       <c r="T30" s="32">
@@ -5734,14 +6937,14 @@
         <f t="shared" si="2"/>
         <v>6.2499999999998668E-4</v>
       </c>
-      <c r="N31" s="36"/>
+      <c r="N31" s="35"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35">
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34">
         <v>29</v>
       </c>
-      <c r="S31" s="35">
+      <c r="S31" s="34">
         <v>1</v>
       </c>
       <c r="T31" s="32">
@@ -5794,14 +6997,14 @@
         <f t="shared" si="2"/>
         <v>6.4814814814811994E-4</v>
       </c>
-      <c r="N32" s="36"/>
+      <c r="N32" s="35"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35">
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34">
         <v>30</v>
       </c>
-      <c r="S32" s="35">
+      <c r="S32" s="34">
         <v>1</v>
       </c>
       <c r="T32" s="32">
@@ -5854,14 +7057,14 @@
         <f t="shared" si="2"/>
         <v>6.7129629629630871E-4</v>
       </c>
-      <c r="N33" s="36"/>
+      <c r="N33" s="35"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35">
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34">
         <v>31</v>
       </c>
-      <c r="S33" s="35">
+      <c r="S33" s="34">
         <v>1</v>
       </c>
       <c r="T33" s="32">
@@ -5914,14 +7117,14 @@
         <f t="shared" si="2"/>
         <v>6.9444444444449749E-4</v>
       </c>
-      <c r="N34" s="36"/>
+      <c r="N34" s="35"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35">
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34">
         <v>1</v>
       </c>
-      <c r="S34" s="35">
+      <c r="S34" s="34">
         <v>2</v>
       </c>
       <c r="T34" s="32">
@@ -5974,14 +7177,14 @@
         <f t="shared" si="2"/>
         <v>7.0601851851848085E-4</v>
       </c>
-      <c r="N35" s="36"/>
+      <c r="N35" s="35"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35">
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34">
         <v>2</v>
       </c>
-      <c r="S35" s="35">
+      <c r="S35" s="34">
         <v>2</v>
       </c>
       <c r="T35" s="32">
@@ -6034,14 +7237,14 @@
         <f t="shared" si="2"/>
         <v>7.2916666666666963E-4</v>
       </c>
-      <c r="N36" s="36"/>
+      <c r="N36" s="35"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35">
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34">
         <v>3</v>
       </c>
-      <c r="S36" s="35">
+      <c r="S36" s="34">
         <v>2</v>
       </c>
       <c r="T36" s="32">
@@ -6094,14 +7297,14 @@
         <f t="shared" si="2"/>
         <v>7.5231481481480289E-4</v>
       </c>
-      <c r="N37" s="36"/>
+      <c r="N37" s="35"/>
       <c r="O37" s="10"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35">
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34">
         <v>4</v>
       </c>
-      <c r="S37" s="35">
+      <c r="S37" s="34">
         <v>2</v>
       </c>
       <c r="T37" s="32">
@@ -6154,14 +7357,14 @@
         <f t="shared" si="2"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N38" s="36"/>
+      <c r="N38" s="35"/>
       <c r="O38" s="10"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35">
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34">
         <v>5</v>
       </c>
-      <c r="S38" s="35">
+      <c r="S38" s="34">
         <v>2</v>
       </c>
       <c r="T38" s="32">
@@ -6214,14 +7417,14 @@
         <f t="shared" si="2"/>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N39" s="36"/>
+      <c r="N39" s="35"/>
       <c r="O39" s="10"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35">
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34">
         <v>6</v>
       </c>
-      <c r="S39" s="35">
+      <c r="S39" s="34">
         <v>2</v>
       </c>
       <c r="T39" s="32">
@@ -6274,14 +7477,14 @@
         <f t="shared" si="2"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N40" s="36"/>
+      <c r="N40" s="35"/>
       <c r="O40" s="10"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35">
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34">
         <v>7</v>
       </c>
-      <c r="S40" s="35">
+      <c r="S40" s="34">
         <v>2</v>
       </c>
       <c r="T40" s="32">
@@ -6334,14 +7537,14 @@
         <f t="shared" si="2"/>
         <v>8.217592592593137E-4</v>
       </c>
-      <c r="N41" s="36"/>
+      <c r="N41" s="35"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35">
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34">
         <v>8</v>
       </c>
-      <c r="S41" s="35">
+      <c r="S41" s="34">
         <v>2</v>
       </c>
       <c r="T41" s="32">
@@ -6394,14 +7597,14 @@
         <f t="shared" si="2"/>
         <v>8.4490740740739145E-4</v>
       </c>
-      <c r="N42" s="36"/>
+      <c r="N42" s="35"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35">
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34">
         <v>9</v>
       </c>
-      <c r="S42" s="35">
+      <c r="S42" s="34">
         <v>2</v>
       </c>
       <c r="T42" s="32">
@@ -6454,14 +7657,14 @@
         <f t="shared" si="2"/>
         <v>8.5648148148148584E-4</v>
       </c>
-      <c r="N43" s="36"/>
+      <c r="N43" s="35"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35">
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34">
         <v>10</v>
       </c>
-      <c r="S43" s="35">
+      <c r="S43" s="34">
         <v>2</v>
       </c>
       <c r="T43" s="32">
@@ -6514,14 +7717,14 @@
         <f t="shared" si="2"/>
         <v>8.796296296296191E-4</v>
       </c>
-      <c r="N44" s="36"/>
+      <c r="N44" s="35"/>
       <c r="O44" s="10"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35">
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34">
         <v>11</v>
       </c>
-      <c r="S44" s="35">
+      <c r="S44" s="34">
         <v>2</v>
       </c>
       <c r="T44" s="32">
@@ -6574,14 +7777,14 @@
         <f t="shared" si="2"/>
         <v>8.9120370370371349E-4</v>
       </c>
-      <c r="N45" s="36"/>
+      <c r="N45" s="35"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35">
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34">
         <v>12</v>
       </c>
-      <c r="S45" s="35">
+      <c r="S45" s="34">
         <v>2</v>
       </c>
       <c r="T45" s="32">
@@ -6634,14 +7837,14 @@
         <f t="shared" si="2"/>
         <v>9.0277777777775237E-4</v>
       </c>
-      <c r="N46" s="36"/>
+      <c r="N46" s="35"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35">
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34">
         <v>13</v>
       </c>
-      <c r="S46" s="35">
+      <c r="S46" s="34">
         <v>2</v>
       </c>
       <c r="T46" s="32">
@@ -6694,14 +7897,14 @@
         <f t="shared" si="2"/>
         <v>9.2592592592594114E-4</v>
       </c>
-      <c r="N47" s="36"/>
+      <c r="N47" s="35"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35">
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34">
         <v>14</v>
       </c>
-      <c r="S47" s="35">
+      <c r="S47" s="34">
         <v>2</v>
       </c>
       <c r="T47" s="32">
@@ -6754,14 +7957,14 @@
         <f t="shared" si="2"/>
         <v>9.3750000000003553E-4</v>
       </c>
-      <c r="N48" s="36"/>
+      <c r="N48" s="35"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35">
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34">
         <v>15</v>
       </c>
-      <c r="S48" s="35">
+      <c r="S48" s="34">
         <v>2</v>
       </c>
       <c r="T48" s="32">
@@ -6814,14 +8017,14 @@
         <f t="shared" si="2"/>
         <v>9.490740740740744E-4</v>
       </c>
-      <c r="N49" s="36"/>
+      <c r="N49" s="35"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35">
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34">
         <v>16</v>
       </c>
-      <c r="S49" s="35">
+      <c r="S49" s="34">
         <v>2</v>
       </c>
       <c r="T49" s="32">
@@ -6874,14 +8077,14 @@
         <f t="shared" si="2"/>
         <v>9.7222222222215215E-4</v>
       </c>
-      <c r="N50" s="36"/>
+      <c r="N50" s="35"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35">
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34">
         <v>17</v>
       </c>
-      <c r="S50" s="35">
+      <c r="S50" s="34">
         <v>2</v>
       </c>
       <c r="T50" s="32">
@@ -6934,14 +8137,14 @@
         <f t="shared" si="2"/>
         <v>9.8379629629630205E-4</v>
       </c>
-      <c r="N51" s="36"/>
+      <c r="N51" s="35"/>
       <c r="O51" s="10"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35">
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34">
         <v>18</v>
       </c>
-      <c r="S51" s="35">
+      <c r="S51" s="34">
         <v>2</v>
       </c>
       <c r="T51" s="32">
@@ -6994,14 +8197,14 @@
         <f t="shared" si="2"/>
         <v>9.9537037037039644E-4</v>
       </c>
-      <c r="N52" s="36"/>
+      <c r="N52" s="35"/>
       <c r="O52" s="10"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35">
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34">
         <v>19</v>
       </c>
-      <c r="S52" s="35">
+      <c r="S52" s="34">
         <v>2</v>
       </c>
       <c r="T52" s="32">
@@ -7054,14 +8257,14 @@
         <f t="shared" si="2"/>
         <v>1.0069444444444353E-3</v>
       </c>
-      <c r="N53" s="36"/>
+      <c r="N53" s="35"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35">
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34">
         <v>20</v>
       </c>
-      <c r="S53" s="35">
+      <c r="S53" s="34">
         <v>2</v>
       </c>
       <c r="T53" s="32">
@@ -7114,14 +8317,14 @@
         <f t="shared" si="2"/>
         <v>1.0300925925926241E-3</v>
       </c>
-      <c r="N54" s="36"/>
+      <c r="N54" s="35"/>
       <c r="O54" s="10"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35">
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34">
         <v>21</v>
       </c>
-      <c r="S54" s="35">
+      <c r="S54" s="34">
         <v>2</v>
       </c>
       <c r="T54" s="32">
@@ -7174,14 +8377,14 @@
         <f t="shared" si="2"/>
         <v>1.0300925925925686E-3</v>
       </c>
-      <c r="N55" s="36"/>
+      <c r="N55" s="35"/>
       <c r="O55" s="10"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35">
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34">
         <v>22</v>
       </c>
-      <c r="S55" s="35">
+      <c r="S55" s="34">
         <v>2</v>
       </c>
       <c r="T55" s="32">
@@ -7234,14 +8437,14 @@
         <f t="shared" si="2"/>
         <v>1.041666666666663E-3</v>
       </c>
-      <c r="N56" s="36"/>
+      <c r="N56" s="35"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35">
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34">
         <v>23</v>
       </c>
-      <c r="S56" s="35">
+      <c r="S56" s="34">
         <v>2</v>
       </c>
       <c r="T56" s="32">
@@ -7294,14 +8497,14 @@
         <f t="shared" si="2"/>
         <v>1.0648148148147962E-3</v>
       </c>
-      <c r="N57" s="36"/>
+      <c r="N57" s="35"/>
       <c r="O57" s="10"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35">
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34">
         <v>24</v>
       </c>
-      <c r="S57" s="35">
+      <c r="S57" s="34">
         <v>2</v>
       </c>
       <c r="T57" s="32">
@@ -7354,14 +8557,14 @@
         <f t="shared" si="2"/>
         <v>1.0648148148148517E-3</v>
       </c>
-      <c r="N58" s="36"/>
+      <c r="N58" s="35"/>
       <c r="O58" s="10"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35">
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34">
         <v>25</v>
       </c>
-      <c r="S58" s="35">
+      <c r="S58" s="34">
         <v>2</v>
       </c>
       <c r="T58" s="32">
@@ -7414,14 +8617,14 @@
         <f t="shared" si="2"/>
         <v>1.0879629629629295E-3</v>
       </c>
-      <c r="N59" s="36"/>
+      <c r="N59" s="35"/>
       <c r="O59" s="10"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35">
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34">
         <v>26</v>
       </c>
-      <c r="S59" s="35">
+      <c r="S59" s="34">
         <v>2</v>
       </c>
       <c r="T59" s="32">
@@ -7474,14 +8677,14 @@
         <f t="shared" si="2"/>
         <v>1.087962962962985E-3</v>
       </c>
-      <c r="N60" s="36"/>
+      <c r="N60" s="35"/>
       <c r="O60" s="10"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35">
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34">
         <v>27</v>
       </c>
-      <c r="S60" s="35">
+      <c r="S60" s="34">
         <v>2</v>
       </c>
       <c r="T60" s="32">
@@ -7534,14 +8737,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N61" s="36"/>
+      <c r="N61" s="35"/>
       <c r="O61" s="10"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35">
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34">
         <v>28</v>
       </c>
-      <c r="S61" s="35">
+      <c r="S61" s="34">
         <v>2</v>
       </c>
       <c r="T61" s="32">
@@ -7592,14 +8795,14 @@
         <f t="shared" si="2"/>
         <v>1.0995370370370239E-3</v>
       </c>
-      <c r="N62" s="36"/>
+      <c r="N62" s="35"/>
       <c r="O62" s="10"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35">
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34">
         <v>29</v>
       </c>
-      <c r="S62" s="35">
+      <c r="S62" s="34">
         <v>2</v>
       </c>
       <c r="T62" s="32">
@@ -7652,14 +8855,14 @@
         <f t="shared" si="2"/>
         <v>1.1226851851852127E-3</v>
       </c>
-      <c r="N63" s="36"/>
+      <c r="N63" s="35"/>
       <c r="O63" s="10"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35">
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34">
         <v>1</v>
       </c>
-      <c r="S63" s="35">
+      <c r="S63" s="34">
         <v>3</v>
       </c>
       <c r="T63" s="32">
@@ -7712,14 +8915,14 @@
         <f t="shared" si="2"/>
         <v>1.1111111111110628E-3</v>
       </c>
-      <c r="N64" s="36"/>
+      <c r="N64" s="35"/>
       <c r="O64" s="10"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35">
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34">
         <v>2</v>
       </c>
-      <c r="S64" s="35">
+      <c r="S64" s="34">
         <v>3</v>
       </c>
       <c r="T64" s="32">
@@ -7772,14 +8975,14 @@
         <f t="shared" si="2"/>
         <v>1.134259259259307E-3</v>
       </c>
-      <c r="N65" s="36"/>
+      <c r="N65" s="35"/>
       <c r="O65" s="10"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35">
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34">
         <v>3</v>
       </c>
-      <c r="S65" s="35">
+      <c r="S65" s="34">
         <v>3</v>
       </c>
       <c r="T65" s="32">
@@ -7832,14 +9035,14 @@
         <f t="shared" si="2"/>
         <v>1.1458333333333459E-3</v>
       </c>
-      <c r="N66" s="36"/>
+      <c r="N66" s="35"/>
       <c r="O66" s="10"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35">
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34">
         <v>4</v>
       </c>
-      <c r="S66" s="35">
+      <c r="S66" s="34">
         <v>3</v>
       </c>
       <c r="T66" s="32">
@@ -7892,14 +9095,14 @@
         <f t="shared" si="2"/>
         <v>1.1458333333332904E-3</v>
       </c>
-      <c r="N67" s="36"/>
+      <c r="N67" s="35"/>
       <c r="O67" s="10"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35">
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34">
         <v>5</v>
       </c>
-      <c r="S67" s="35">
+      <c r="S67" s="34">
         <v>3</v>
       </c>
       <c r="T67" s="32">
@@ -7952,14 +9155,14 @@
         <f t="shared" si="2"/>
         <v>1.1574074074074403E-3</v>
       </c>
-      <c r="N68" s="36"/>
+      <c r="N68" s="35"/>
       <c r="O68" s="10"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35">
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34">
         <v>6</v>
       </c>
-      <c r="S68" s="35">
+      <c r="S68" s="34">
         <v>3</v>
       </c>
       <c r="T68" s="32">
@@ -8012,14 +9215,14 @@
         <f t="shared" si="2"/>
         <v>1.1574074074073848E-3</v>
       </c>
-      <c r="N69" s="36"/>
+      <c r="N69" s="35"/>
       <c r="O69" s="10"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35">
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34">
         <v>7</v>
       </c>
-      <c r="S69" s="35">
+      <c r="S69" s="34">
         <v>3</v>
       </c>
       <c r="T69" s="32">
@@ -8072,14 +9275,14 @@
         <f t="shared" si="2"/>
         <v>1.1689814814814792E-3</v>
       </c>
-      <c r="N70" s="36"/>
+      <c r="N70" s="35"/>
       <c r="O70" s="10"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35">
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34">
         <v>8</v>
       </c>
-      <c r="S70" s="35">
+      <c r="S70" s="34">
         <v>3</v>
       </c>
       <c r="T70" s="32">
@@ -8132,14 +9335,14 @@
         <f t="shared" ref="M71:M134" si="4">-1*(C72-C71)</f>
         <v>1.1805555555555736E-3</v>
       </c>
-      <c r="N71" s="36"/>
+      <c r="N71" s="35"/>
       <c r="O71" s="10"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35">
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34">
         <v>9</v>
       </c>
-      <c r="S71" s="35">
+      <c r="S71" s="34">
         <v>3</v>
       </c>
       <c r="T71" s="32">
@@ -8192,14 +9395,14 @@
         <f t="shared" si="4"/>
         <v>1.1805555555555181E-3</v>
       </c>
-      <c r="N72" s="36"/>
+      <c r="N72" s="35"/>
       <c r="O72" s="10"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35">
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34">
         <v>10</v>
       </c>
-      <c r="S72" s="35">
+      <c r="S72" s="34">
         <v>3</v>
       </c>
       <c r="T72" s="32">
@@ -8252,14 +9455,14 @@
         <f t="shared" si="4"/>
         <v>1.192129629629668E-3</v>
       </c>
-      <c r="N73" s="36"/>
+      <c r="N73" s="35"/>
       <c r="O73" s="10"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35">
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34">
         <v>11</v>
       </c>
-      <c r="S73" s="35">
+      <c r="S73" s="34">
         <v>3</v>
       </c>
       <c r="T73" s="32">
@@ -8312,14 +9515,14 @@
         <f t="shared" si="4"/>
         <v>1.1921296296296124E-3</v>
       </c>
-      <c r="N74" s="36"/>
+      <c r="N74" s="35"/>
       <c r="O74" s="10"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35">
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34">
         <v>12</v>
       </c>
-      <c r="S74" s="35">
+      <c r="S74" s="34">
         <v>3</v>
       </c>
       <c r="T74" s="32">
@@ -8372,14 +9575,14 @@
         <f t="shared" si="4"/>
         <v>1.2037037037037068E-3</v>
       </c>
-      <c r="N75" s="36"/>
+      <c r="N75" s="35"/>
       <c r="O75" s="10"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35">
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34">
         <v>13</v>
       </c>
-      <c r="S75" s="35">
+      <c r="S75" s="34">
         <v>3</v>
       </c>
       <c r="T75" s="32">
@@ -8432,14 +9635,14 @@
         <f t="shared" si="4"/>
         <v>1.2037037037037068E-3</v>
       </c>
-      <c r="N76" s="36"/>
+      <c r="N76" s="35"/>
       <c r="O76" s="10"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35">
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34">
         <v>14</v>
       </c>
-      <c r="S76" s="35">
+      <c r="S76" s="34">
         <v>3</v>
       </c>
       <c r="T76" s="32">
@@ -8492,14 +9695,14 @@
         <f t="shared" si="4"/>
         <v>1.2152777777778012E-3</v>
       </c>
-      <c r="N77" s="36"/>
+      <c r="N77" s="35"/>
       <c r="O77" s="10"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35">
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34">
         <v>15</v>
       </c>
-      <c r="S77" s="35">
+      <c r="S77" s="34">
         <v>3</v>
       </c>
       <c r="T77" s="32">
@@ -8552,14 +9755,14 @@
         <f t="shared" si="4"/>
         <v>1.2152777777777457E-3</v>
       </c>
-      <c r="N78" s="36"/>
+      <c r="N78" s="35"/>
       <c r="O78" s="10"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35">
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34">
         <v>16</v>
       </c>
-      <c r="S78" s="35">
+      <c r="S78" s="34">
         <v>3</v>
       </c>
       <c r="T78" s="32">
@@ -8612,14 +9815,14 @@
         <f t="shared" si="4"/>
         <v>1.2268518518518956E-3</v>
       </c>
-      <c r="N79" s="36"/>
+      <c r="N79" s="35"/>
       <c r="O79" s="10"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35">
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34">
         <v>17</v>
       </c>
-      <c r="S79" s="35">
+      <c r="S79" s="34">
         <v>3</v>
       </c>
       <c r="T79" s="32">
@@ -8672,14 +9875,14 @@
         <f t="shared" si="4"/>
         <v>1.2152777777777457E-3</v>
       </c>
-      <c r="N80" s="36"/>
+      <c r="N80" s="35"/>
       <c r="O80" s="10"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35">
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34">
         <v>18</v>
       </c>
-      <c r="S80" s="35">
+      <c r="S80" s="34">
         <v>3</v>
       </c>
       <c r="T80" s="32">
@@ -8732,14 +9935,14 @@
         <f t="shared" si="4"/>
         <v>1.2268518518518401E-3</v>
       </c>
-      <c r="N81" s="36"/>
+      <c r="N81" s="35"/>
       <c r="O81" s="10"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35">
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34">
         <v>19</v>
       </c>
-      <c r="S81" s="35">
+      <c r="S81" s="34">
         <v>3</v>
       </c>
       <c r="T81" s="32">
@@ -8792,14 +9995,14 @@
         <f t="shared" si="4"/>
         <v>1.2268518518518401E-3</v>
       </c>
-      <c r="N82" s="36"/>
+      <c r="N82" s="35"/>
       <c r="O82" s="10"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35">
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34">
         <v>20</v>
       </c>
-      <c r="S82" s="35">
+      <c r="S82" s="34">
         <v>3</v>
       </c>
       <c r="T82" s="32">
@@ -8852,14 +10055,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259622E-3</v>
       </c>
-      <c r="N83" s="36"/>
+      <c r="N83" s="35"/>
       <c r="O83" s="10"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35">
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34">
         <v>21</v>
       </c>
-      <c r="S83" s="35">
+      <c r="S83" s="34">
         <v>3</v>
       </c>
       <c r="T83" s="32">
@@ -8912,14 +10115,14 @@
         <f t="shared" si="4"/>
         <v>1.238425925925879E-3</v>
       </c>
-      <c r="N84" s="36"/>
+      <c r="N84" s="35"/>
       <c r="O84" s="10"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35">
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34">
         <v>22</v>
       </c>
-      <c r="S84" s="35">
+      <c r="S84" s="34">
         <v>3</v>
       </c>
       <c r="T84" s="32">
@@ -8972,14 +10175,14 @@
         <f t="shared" si="4"/>
         <v>1.2268518518518956E-3</v>
       </c>
-      <c r="N85" s="36"/>
+      <c r="N85" s="35"/>
       <c r="O85" s="10"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35">
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34">
         <v>23</v>
       </c>
-      <c r="S85" s="35">
+      <c r="S85" s="34">
         <v>3</v>
       </c>
       <c r="T85" s="32">
@@ -9032,14 +10235,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259067E-3</v>
       </c>
-      <c r="N86" s="36"/>
+      <c r="N86" s="35"/>
       <c r="O86" s="10"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35">
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34">
         <v>24</v>
       </c>
-      <c r="S86" s="35">
+      <c r="S86" s="34">
         <v>3</v>
       </c>
       <c r="T86" s="32">
@@ -9092,14 +10295,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259345E-3</v>
       </c>
-      <c r="N87" s="36"/>
+      <c r="N87" s="35"/>
       <c r="O87" s="10"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35">
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34">
         <v>25</v>
       </c>
-      <c r="S87" s="35">
+      <c r="S87" s="34">
         <v>3</v>
       </c>
       <c r="T87" s="32">
@@ -9152,14 +10355,14 @@
         <f t="shared" si="4"/>
         <v>-4.0416666666666656E-2</v>
       </c>
-      <c r="N88" s="36"/>
+      <c r="N88" s="35"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35">
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34">
         <v>26</v>
       </c>
-      <c r="S88" s="35">
+      <c r="S88" s="34">
         <v>3</v>
       </c>
       <c r="T88" s="32">
@@ -9212,14 +10415,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259345E-3</v>
       </c>
-      <c r="N89" s="36"/>
+      <c r="N89" s="35"/>
       <c r="O89" s="10"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35">
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34">
         <v>27</v>
       </c>
-      <c r="S89" s="35">
+      <c r="S89" s="34">
         <v>3</v>
       </c>
       <c r="T89" s="33">
@@ -9272,14 +10475,14 @@
         <f t="shared" si="4"/>
         <v>1.238425925925879E-3</v>
       </c>
-      <c r="N90" s="36"/>
+      <c r="N90" s="35"/>
       <c r="O90" s="10"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35">
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34">
         <v>28</v>
       </c>
-      <c r="S90" s="35">
+      <c r="S90" s="34">
         <v>3</v>
       </c>
       <c r="T90" s="33">
@@ -9332,14 +10535,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259345E-3</v>
       </c>
-      <c r="N91" s="36"/>
+      <c r="N91" s="35"/>
       <c r="O91" s="10"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35">
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="34">
         <v>29</v>
       </c>
-      <c r="S91" s="35">
+      <c r="S91" s="34">
         <v>3</v>
       </c>
       <c r="T91" s="33">
@@ -9392,14 +10595,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259345E-3</v>
       </c>
-      <c r="N92" s="36"/>
+      <c r="N92" s="35"/>
       <c r="O92" s="10"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35">
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34">
         <v>30</v>
       </c>
-      <c r="S92" s="35">
+      <c r="S92" s="34">
         <v>3</v>
       </c>
       <c r="T92" s="33">
@@ -9452,14 +10655,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259345E-3</v>
       </c>
-      <c r="N93" s="36"/>
+      <c r="N93" s="35"/>
       <c r="O93" s="10"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35">
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34">
         <v>31</v>
       </c>
-      <c r="S93" s="35">
+      <c r="S93" s="34">
         <v>3</v>
       </c>
       <c r="T93" s="33">
@@ -9512,14 +10715,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259345E-3</v>
       </c>
-      <c r="N94" s="36"/>
+      <c r="N94" s="35"/>
       <c r="O94" s="10"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35">
+      <c r="P94" s="34"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34">
         <v>1</v>
       </c>
-      <c r="S94" s="35">
+      <c r="S94" s="34">
         <v>4</v>
       </c>
       <c r="T94" s="33">
@@ -9572,14 +10775,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259345E-3</v>
       </c>
-      <c r="N95" s="36"/>
+      <c r="N95" s="35"/>
       <c r="O95" s="10"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35">
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34">
         <v>2</v>
       </c>
-      <c r="S95" s="35">
+      <c r="S95" s="34">
         <v>4</v>
       </c>
       <c r="T95" s="33">
@@ -9632,14 +10835,14 @@
         <f t="shared" si="4"/>
         <v>1.2268518518518401E-3</v>
       </c>
-      <c r="N96" s="36"/>
+      <c r="N96" s="35"/>
       <c r="O96" s="10"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35">
+      <c r="P96" s="34"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="34">
         <v>3</v>
       </c>
-      <c r="S96" s="35">
+      <c r="S96" s="34">
         <v>4</v>
       </c>
       <c r="T96" s="33">
@@ -9692,14 +10895,14 @@
         <f t="shared" si="4"/>
         <v>1.2384259259259345E-3</v>
       </c>
-      <c r="N97" s="36"/>
+      <c r="N97" s="35"/>
       <c r="O97" s="10"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35">
+      <c r="P97" s="34"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="34">
         <v>4</v>
       </c>
-      <c r="S97" s="35">
+      <c r="S97" s="34">
         <v>4</v>
       </c>
       <c r="T97" s="33">
@@ -9752,14 +10955,14 @@
         <f t="shared" si="4"/>
         <v>1.2268518518518401E-3</v>
       </c>
-      <c r="N98" s="36"/>
+      <c r="N98" s="35"/>
       <c r="O98" s="10"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
-      <c r="R98" s="35">
+      <c r="P98" s="34"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="34">
         <v>5</v>
       </c>
-      <c r="S98" s="35">
+      <c r="S98" s="34">
         <v>4</v>
       </c>
       <c r="T98" s="33">
@@ -9812,14 +11015,14 @@
         <f t="shared" si="4"/>
         <v>1.2268518518518401E-3</v>
       </c>
-      <c r="N99" s="36"/>
+      <c r="N99" s="35"/>
       <c r="O99" s="10"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35">
+      <c r="P99" s="34"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="34">
         <v>6</v>
       </c>
-      <c r="S99" s="35">
+      <c r="S99" s="34">
         <v>4</v>
       </c>
       <c r="T99" s="33">
@@ -9872,14 +11075,14 @@
         <f t="shared" si="4"/>
         <v>1.2152777777778012E-3</v>
       </c>
-      <c r="N100" s="36"/>
+      <c r="N100" s="35"/>
       <c r="O100" s="10"/>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="35"/>
-      <c r="R100" s="35">
+      <c r="P100" s="34"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="34">
         <v>7</v>
       </c>
-      <c r="S100" s="35">
+      <c r="S100" s="34">
         <v>4</v>
       </c>
       <c r="T100" s="33">
@@ -9932,14 +11135,14 @@
         <f t="shared" si="4"/>
         <v>1.2152777777777457E-3</v>
       </c>
-      <c r="N101" s="36"/>
+      <c r="N101" s="35"/>
       <c r="O101" s="10"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35">
+      <c r="P101" s="34"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="34">
         <v>8</v>
       </c>
-      <c r="S101" s="35">
+      <c r="S101" s="34">
         <v>4</v>
       </c>
       <c r="T101" s="33">
@@ -9992,14 +11195,14 @@
         <f t="shared" si="4"/>
         <v>1.2152777777778012E-3</v>
       </c>
-      <c r="N102" s="36"/>
+      <c r="N102" s="35"/>
       <c r="O102" s="10"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="35">
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="34">
         <v>9</v>
       </c>
-      <c r="S102" s="35">
+      <c r="S102" s="34">
         <v>4</v>
       </c>
       <c r="T102" s="33">
@@ -10052,14 +11255,14 @@
         <f t="shared" si="4"/>
         <v>1.2152777777778012E-3</v>
       </c>
-      <c r="N103" s="36"/>
+      <c r="N103" s="35"/>
       <c r="O103" s="10"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35">
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34">
         <v>10</v>
       </c>
-      <c r="S103" s="35">
+      <c r="S103" s="34">
         <v>4</v>
       </c>
       <c r="T103" s="33">
@@ -10112,14 +11315,14 @@
         <f t="shared" si="4"/>
         <v>1.2037037037037068E-3</v>
       </c>
-      <c r="N104" s="36"/>
+      <c r="N104" s="35"/>
       <c r="O104" s="10"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35">
+      <c r="P104" s="34"/>
+      <c r="Q104" s="34"/>
+      <c r="R104" s="34">
         <v>11</v>
       </c>
-      <c r="S104" s="35">
+      <c r="S104" s="34">
         <v>4</v>
       </c>
       <c r="T104" s="33">
@@ -10172,14 +11375,14 @@
         <f t="shared" si="4"/>
         <v>1.1921296296296124E-3</v>
       </c>
-      <c r="N105" s="36"/>
+      <c r="N105" s="35"/>
       <c r="O105" s="10"/>
-      <c r="P105" s="35"/>
-      <c r="Q105" s="35"/>
-      <c r="R105" s="35">
+      <c r="P105" s="34"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34">
         <v>12</v>
       </c>
-      <c r="S105" s="35">
+      <c r="S105" s="34">
         <v>4</v>
       </c>
       <c r="T105" s="33">
@@ -10232,14 +11435,14 @@
         <f t="shared" si="4"/>
         <v>1.1921296296296124E-3</v>
       </c>
-      <c r="N106" s="36"/>
+      <c r="N106" s="35"/>
       <c r="O106" s="10"/>
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35"/>
-      <c r="R106" s="35">
+      <c r="P106" s="34"/>
+      <c r="Q106" s="34"/>
+      <c r="R106" s="34">
         <v>13</v>
       </c>
-      <c r="S106" s="35">
+      <c r="S106" s="34">
         <v>4</v>
       </c>
       <c r="T106" s="33">
@@ -10292,14 +11495,14 @@
         <f t="shared" si="4"/>
         <v>1.192129629629668E-3</v>
       </c>
-      <c r="N107" s="36"/>
+      <c r="N107" s="35"/>
       <c r="O107" s="10"/>
-      <c r="P107" s="35"/>
-      <c r="Q107" s="35"/>
-      <c r="R107" s="35">
+      <c r="P107" s="34"/>
+      <c r="Q107" s="34"/>
+      <c r="R107" s="34">
         <v>14</v>
       </c>
-      <c r="S107" s="35">
+      <c r="S107" s="34">
         <v>4</v>
       </c>
       <c r="T107" s="33">
@@ -10352,14 +11555,14 @@
         <f t="shared" si="4"/>
         <v>1.1689814814814792E-3</v>
       </c>
-      <c r="N108" s="36"/>
+      <c r="N108" s="35"/>
       <c r="O108" s="10"/>
-      <c r="P108" s="35"/>
-      <c r="Q108" s="35"/>
-      <c r="R108" s="35">
+      <c r="P108" s="34"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="34">
         <v>15</v>
       </c>
-      <c r="S108" s="35">
+      <c r="S108" s="34">
         <v>4</v>
       </c>
       <c r="T108" s="33">
@@ -10412,14 +11615,14 @@
         <f t="shared" si="4"/>
         <v>1.1805555555555181E-3</v>
       </c>
-      <c r="N109" s="36"/>
+      <c r="N109" s="35"/>
       <c r="O109" s="10"/>
-      <c r="P109" s="35"/>
-      <c r="Q109" s="35"/>
-      <c r="R109" s="35">
+      <c r="P109" s="34"/>
+      <c r="Q109" s="34"/>
+      <c r="R109" s="34">
         <v>16</v>
       </c>
-      <c r="S109" s="35">
+      <c r="S109" s="34">
         <v>4</v>
       </c>
       <c r="T109" s="33">
@@ -10472,14 +11675,14 @@
         <f t="shared" si="4"/>
         <v>1.1574074074074403E-3</v>
       </c>
-      <c r="N110" s="36"/>
+      <c r="N110" s="35"/>
       <c r="O110" s="10"/>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="35"/>
-      <c r="R110" s="35">
+      <c r="P110" s="34"/>
+      <c r="Q110" s="34"/>
+      <c r="R110" s="34">
         <v>17</v>
       </c>
-      <c r="S110" s="35">
+      <c r="S110" s="34">
         <v>4</v>
       </c>
       <c r="T110" s="33">
@@ -10532,14 +11735,14 @@
         <f t="shared" si="4"/>
         <v>1.1574074074073848E-3</v>
       </c>
-      <c r="N111" s="36"/>
+      <c r="N111" s="35"/>
       <c r="O111" s="10"/>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="35"/>
-      <c r="R111" s="35">
+      <c r="P111" s="34"/>
+      <c r="Q111" s="34"/>
+      <c r="R111" s="34">
         <v>18</v>
       </c>
-      <c r="S111" s="35">
+      <c r="S111" s="34">
         <v>4</v>
       </c>
       <c r="T111" s="33">
@@ -10592,14 +11795,14 @@
         <f t="shared" si="4"/>
         <v>1.1574074074073848E-3</v>
       </c>
-      <c r="N112" s="36"/>
+      <c r="N112" s="35"/>
       <c r="O112" s="10"/>
-      <c r="P112" s="35"/>
-      <c r="Q112" s="35"/>
-      <c r="R112" s="35">
+      <c r="P112" s="34"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="34">
         <v>19</v>
       </c>
-      <c r="S112" s="35">
+      <c r="S112" s="34">
         <v>4</v>
       </c>
       <c r="T112" s="33">
@@ -10652,14 +11855,14 @@
         <f t="shared" si="4"/>
         <v>1.1342592592592515E-3</v>
       </c>
-      <c r="N113" s="36"/>
+      <c r="N113" s="35"/>
       <c r="O113" s="10"/>
-      <c r="P113" s="35"/>
-      <c r="Q113" s="35"/>
-      <c r="R113" s="35">
+      <c r="P113" s="34"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="34">
         <v>20</v>
       </c>
-      <c r="S113" s="35">
+      <c r="S113" s="34">
         <v>4</v>
       </c>
       <c r="T113" s="33">
@@ -10712,14 +11915,14 @@
         <f t="shared" si="4"/>
         <v>1.1342592592592515E-3</v>
       </c>
-      <c r="N114" s="36"/>
+      <c r="N114" s="35"/>
       <c r="O114" s="10"/>
-      <c r="P114" s="35"/>
-      <c r="Q114" s="35"/>
-      <c r="R114" s="35">
+      <c r="P114" s="34"/>
+      <c r="Q114" s="34"/>
+      <c r="R114" s="34">
         <v>21</v>
       </c>
-      <c r="S114" s="35">
+      <c r="S114" s="34">
         <v>4</v>
       </c>
       <c r="T114" s="33">
@@ -10772,14 +11975,14 @@
         <f t="shared" si="4"/>
         <v>1.1226851851852127E-3</v>
       </c>
-      <c r="N115" s="36"/>
+      <c r="N115" s="35"/>
       <c r="O115" s="10"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
-      <c r="R115" s="35">
+      <c r="P115" s="34"/>
+      <c r="Q115" s="34"/>
+      <c r="R115" s="34">
         <v>22</v>
       </c>
-      <c r="S115" s="35">
+      <c r="S115" s="34">
         <v>4</v>
       </c>
       <c r="T115" s="33">
@@ -10832,14 +12035,14 @@
         <f t="shared" si="4"/>
         <v>1.1111111111111183E-3</v>
       </c>
-      <c r="N116" s="36"/>
+      <c r="N116" s="35"/>
       <c r="O116" s="10"/>
-      <c r="P116" s="35"/>
-      <c r="Q116" s="35"/>
-      <c r="R116" s="35">
+      <c r="P116" s="34"/>
+      <c r="Q116" s="34"/>
+      <c r="R116" s="34">
         <v>23</v>
       </c>
-      <c r="S116" s="35">
+      <c r="S116" s="34">
         <v>4</v>
       </c>
       <c r="T116" s="33">
@@ -10892,14 +12095,14 @@
         <f t="shared" si="4"/>
         <v>1.0995370370370239E-3</v>
       </c>
-      <c r="N117" s="36"/>
+      <c r="N117" s="35"/>
       <c r="O117" s="10"/>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35">
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34">
         <v>24</v>
       </c>
-      <c r="S117" s="35">
+      <c r="S117" s="34">
         <v>4</v>
       </c>
       <c r="T117" s="33">
@@ -10952,14 +12155,14 @@
         <f t="shared" si="4"/>
         <v>1.087962962962985E-3</v>
       </c>
-      <c r="N118" s="36"/>
+      <c r="N118" s="35"/>
       <c r="O118" s="10"/>
-      <c r="P118" s="35"/>
-      <c r="Q118" s="35"/>
-      <c r="R118" s="35">
+      <c r="P118" s="34"/>
+      <c r="Q118" s="34"/>
+      <c r="R118" s="34">
         <v>25</v>
       </c>
-      <c r="S118" s="35">
+      <c r="S118" s="34">
         <v>4</v>
       </c>
       <c r="T118" s="33">
@@ -11012,14 +12215,14 @@
         <f t="shared" si="4"/>
         <v>1.0763888888888629E-3</v>
       </c>
-      <c r="N119" s="36"/>
+      <c r="N119" s="35"/>
       <c r="O119" s="10"/>
-      <c r="P119" s="35"/>
-      <c r="Q119" s="35"/>
-      <c r="R119" s="35">
+      <c r="P119" s="34"/>
+      <c r="Q119" s="34"/>
+      <c r="R119" s="34">
         <v>26</v>
       </c>
-      <c r="S119" s="35">
+      <c r="S119" s="34">
         <v>4</v>
       </c>
       <c r="T119" s="33">
@@ -11072,14 +12275,14 @@
         <f t="shared" si="4"/>
         <v>1.0763888888889184E-3</v>
       </c>
-      <c r="N120" s="36"/>
+      <c r="N120" s="35"/>
       <c r="O120" s="10"/>
-      <c r="P120" s="35"/>
-      <c r="Q120" s="35"/>
-      <c r="R120" s="35">
+      <c r="P120" s="34"/>
+      <c r="Q120" s="34"/>
+      <c r="R120" s="34">
         <v>27</v>
       </c>
-      <c r="S120" s="35">
+      <c r="S120" s="34">
         <v>4</v>
       </c>
       <c r="T120" s="33">
@@ -11132,14 +12335,14 @@
         <f t="shared" si="4"/>
         <v>1.0532407407407296E-3</v>
       </c>
-      <c r="N121" s="36"/>
+      <c r="N121" s="35"/>
       <c r="O121" s="10"/>
-      <c r="P121" s="35"/>
-      <c r="Q121" s="35"/>
-      <c r="R121" s="35">
+      <c r="P121" s="34"/>
+      <c r="Q121" s="34"/>
+      <c r="R121" s="34">
         <v>28</v>
       </c>
-      <c r="S121" s="35">
+      <c r="S121" s="34">
         <v>4</v>
       </c>
       <c r="T121" s="33">
@@ -11192,14 +12395,14 @@
         <f t="shared" si="4"/>
         <v>1.041666666666663E-3</v>
       </c>
-      <c r="N122" s="36"/>
+      <c r="N122" s="35"/>
       <c r="O122" s="10"/>
-      <c r="P122" s="35"/>
-      <c r="Q122" s="35"/>
-      <c r="R122" s="35">
+      <c r="P122" s="34"/>
+      <c r="Q122" s="34"/>
+      <c r="R122" s="34">
         <v>29</v>
       </c>
-      <c r="S122" s="35">
+      <c r="S122" s="34">
         <v>4</v>
       </c>
       <c r="T122" s="33">
@@ -11252,14 +12455,14 @@
         <f t="shared" si="4"/>
         <v>1.0300925925925686E-3</v>
       </c>
-      <c r="N123" s="36"/>
+      <c r="N123" s="35"/>
       <c r="O123" s="10"/>
-      <c r="P123" s="35"/>
-      <c r="Q123" s="35"/>
-      <c r="R123" s="35">
+      <c r="P123" s="34"/>
+      <c r="Q123" s="34"/>
+      <c r="R123" s="34">
         <v>30</v>
       </c>
-      <c r="S123" s="35">
+      <c r="S123" s="34">
         <v>4</v>
       </c>
       <c r="T123" s="33">
@@ -11312,14 +12515,14 @@
         <f t="shared" si="4"/>
         <v>1.0185185185185297E-3</v>
       </c>
-      <c r="N124" s="36"/>
+      <c r="N124" s="35"/>
       <c r="O124" s="10"/>
-      <c r="P124" s="35"/>
-      <c r="Q124" s="35"/>
-      <c r="R124" s="35">
+      <c r="P124" s="34"/>
+      <c r="Q124" s="34"/>
+      <c r="R124" s="34">
         <v>1</v>
       </c>
-      <c r="S124" s="35">
+      <c r="S124" s="34">
         <v>5</v>
       </c>
       <c r="T124" s="33">
@@ -11372,14 +12575,14 @@
         <f t="shared" si="4"/>
         <v>9.9537037037039644E-4</v>
       </c>
-      <c r="N125" s="36"/>
+      <c r="N125" s="35"/>
       <c r="O125" s="10"/>
-      <c r="P125" s="35"/>
-      <c r="Q125" s="35"/>
-      <c r="R125" s="35">
+      <c r="P125" s="34"/>
+      <c r="Q125" s="34"/>
+      <c r="R125" s="34">
         <v>2</v>
       </c>
-      <c r="S125" s="35">
+      <c r="S125" s="34">
         <v>5</v>
       </c>
       <c r="T125" s="33">
@@ -11432,14 +12635,14 @@
         <f t="shared" si="4"/>
         <v>9.9537037037036868E-4</v>
       </c>
-      <c r="N126" s="36"/>
+      <c r="N126" s="35"/>
       <c r="O126" s="10"/>
-      <c r="P126" s="35"/>
-      <c r="Q126" s="35"/>
-      <c r="R126" s="35">
+      <c r="P126" s="34"/>
+      <c r="Q126" s="34"/>
+      <c r="R126" s="34">
         <v>3</v>
       </c>
-      <c r="S126" s="35">
+      <c r="S126" s="34">
         <v>5</v>
       </c>
       <c r="T126" s="33">
@@ -11492,14 +12695,14 @@
         <f t="shared" si="4"/>
         <v>9.7222222222223542E-4</v>
       </c>
-      <c r="N127" s="36"/>
+      <c r="N127" s="35"/>
       <c r="O127" s="10"/>
-      <c r="P127" s="35"/>
-      <c r="Q127" s="35"/>
-      <c r="R127" s="35">
+      <c r="P127" s="34"/>
+      <c r="Q127" s="34"/>
+      <c r="R127" s="34">
         <v>4</v>
       </c>
-      <c r="S127" s="35">
+      <c r="S127" s="34">
         <v>5</v>
       </c>
       <c r="T127" s="33">
@@ -11552,14 +12755,14 @@
         <f t="shared" si="4"/>
         <v>9.490740740740744E-4</v>
       </c>
-      <c r="N128" s="36"/>
+      <c r="N128" s="35"/>
       <c r="O128" s="10"/>
-      <c r="P128" s="35"/>
-      <c r="Q128" s="35"/>
-      <c r="R128" s="35">
+      <c r="P128" s="34"/>
+      <c r="Q128" s="34"/>
+      <c r="R128" s="34">
         <v>5</v>
       </c>
-      <c r="S128" s="35">
+      <c r="S128" s="34">
         <v>5</v>
       </c>
       <c r="T128" s="33">
@@ -11612,14 +12815,14 @@
         <f t="shared" si="4"/>
         <v>9.490740740740744E-4</v>
       </c>
-      <c r="N129" s="36"/>
+      <c r="N129" s="35"/>
       <c r="O129" s="10"/>
-      <c r="P129" s="35"/>
-      <c r="Q129" s="35"/>
-      <c r="R129" s="35">
+      <c r="P129" s="34"/>
+      <c r="Q129" s="34"/>
+      <c r="R129" s="34">
         <v>6</v>
       </c>
-      <c r="S129" s="35">
+      <c r="S129" s="34">
         <v>5</v>
       </c>
       <c r="T129" s="33">
@@ -11672,14 +12875,14 @@
         <f t="shared" si="4"/>
         <v>9.2592592592591338E-4</v>
       </c>
-      <c r="N130" s="36"/>
+      <c r="N130" s="35"/>
       <c r="O130" s="10"/>
-      <c r="P130" s="35"/>
-      <c r="Q130" s="35"/>
-      <c r="R130" s="35">
+      <c r="P130" s="34"/>
+      <c r="Q130" s="34"/>
+      <c r="R130" s="34">
         <v>7</v>
       </c>
-      <c r="S130" s="35">
+      <c r="S130" s="34">
         <v>5</v>
       </c>
       <c r="T130" s="33">
@@ -11732,14 +12935,14 @@
         <f t="shared" si="4"/>
         <v>9.0277777777778012E-4</v>
       </c>
-      <c r="N131" s="36"/>
+      <c r="N131" s="35"/>
       <c r="O131" s="10"/>
-      <c r="P131" s="35"/>
-      <c r="Q131" s="35"/>
-      <c r="R131" s="35">
+      <c r="P131" s="34"/>
+      <c r="Q131" s="34"/>
+      <c r="R131" s="34">
         <v>8</v>
       </c>
-      <c r="S131" s="35">
+      <c r="S131" s="34">
         <v>5</v>
       </c>
       <c r="T131" s="33">
@@ -11792,14 +12995,14 @@
         <f t="shared" si="4"/>
         <v>9.0277777777775237E-4</v>
       </c>
-      <c r="N132" s="36"/>
+      <c r="N132" s="35"/>
       <c r="O132" s="10"/>
-      <c r="P132" s="35"/>
-      <c r="Q132" s="35"/>
-      <c r="R132" s="35">
+      <c r="P132" s="34"/>
+      <c r="Q132" s="34"/>
+      <c r="R132" s="34">
         <v>9</v>
       </c>
-      <c r="S132" s="35">
+      <c r="S132" s="34">
         <v>5</v>
       </c>
       <c r="T132" s="33">
@@ -11852,14 +13055,14 @@
         <f t="shared" si="4"/>
         <v>8.6805555555555247E-4</v>
       </c>
-      <c r="N133" s="36"/>
+      <c r="N133" s="35"/>
       <c r="O133" s="10"/>
-      <c r="P133" s="35"/>
-      <c r="Q133" s="35"/>
-      <c r="R133" s="35">
+      <c r="P133" s="34"/>
+      <c r="Q133" s="34"/>
+      <c r="R133" s="34">
         <v>10</v>
       </c>
-      <c r="S133" s="35">
+      <c r="S133" s="34">
         <v>5</v>
       </c>
       <c r="T133" s="33">
@@ -11912,14 +13115,14 @@
         <f t="shared" si="4"/>
         <v>8.564814814815136E-4</v>
       </c>
-      <c r="N134" s="36"/>
+      <c r="N134" s="35"/>
       <c r="O134" s="10"/>
-      <c r="P134" s="35"/>
-      <c r="Q134" s="35"/>
-      <c r="R134" s="35">
+      <c r="P134" s="34"/>
+      <c r="Q134" s="34"/>
+      <c r="R134" s="34">
         <v>11</v>
       </c>
-      <c r="S134" s="35">
+      <c r="S134" s="34">
         <v>5</v>
       </c>
       <c r="T134" s="33">
@@ -11972,14 +13175,14 @@
         <f t="shared" ref="M135:M168" si="7">-1*(C136-C135)</f>
         <v>8.4490740740739145E-4</v>
       </c>
-      <c r="N135" s="36"/>
+      <c r="N135" s="35"/>
       <c r="O135" s="10"/>
-      <c r="P135" s="35"/>
-      <c r="Q135" s="35"/>
-      <c r="R135" s="35">
+      <c r="P135" s="34"/>
+      <c r="Q135" s="34"/>
+      <c r="R135" s="34">
         <v>12</v>
       </c>
-      <c r="S135" s="35">
+      <c r="S135" s="34">
         <v>5</v>
       </c>
       <c r="T135" s="33">
@@ -12032,14 +13235,14 @@
         <f t="shared" si="7"/>
         <v>8.1018518518519156E-4</v>
       </c>
-      <c r="N136" s="36"/>
+      <c r="N136" s="35"/>
       <c r="O136" s="10"/>
-      <c r="P136" s="35"/>
-      <c r="Q136" s="35"/>
-      <c r="R136" s="35">
+      <c r="P136" s="34"/>
+      <c r="Q136" s="34"/>
+      <c r="R136" s="34">
         <v>13</v>
       </c>
-      <c r="S136" s="35">
+      <c r="S136" s="34">
         <v>5</v>
       </c>
       <c r="T136" s="33">
@@ -12092,14 +13295,14 @@
         <f t="shared" si="7"/>
         <v>7.9861111111109717E-4</v>
       </c>
-      <c r="N137" s="36"/>
+      <c r="N137" s="35"/>
       <c r="O137" s="10"/>
-      <c r="P137" s="35"/>
-      <c r="Q137" s="35"/>
-      <c r="R137" s="35">
+      <c r="P137" s="34"/>
+      <c r="Q137" s="34"/>
+      <c r="R137" s="34">
         <v>14</v>
       </c>
-      <c r="S137" s="35">
+      <c r="S137" s="34">
         <v>5</v>
       </c>
       <c r="T137" s="33">
@@ -12152,14 +13355,14 @@
         <f t="shared" si="7"/>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N138" s="36"/>
+      <c r="N138" s="35"/>
       <c r="O138" s="10"/>
-      <c r="P138" s="35"/>
-      <c r="Q138" s="35"/>
-      <c r="R138" s="35">
+      <c r="P138" s="34"/>
+      <c r="Q138" s="34"/>
+      <c r="R138" s="34">
         <v>15</v>
       </c>
-      <c r="S138" s="35">
+      <c r="S138" s="34">
         <v>5</v>
       </c>
       <c r="T138" s="33">
@@ -12212,14 +13415,14 @@
         <f t="shared" si="7"/>
         <v>7.5231481481483065E-4</v>
       </c>
-      <c r="N139" s="36"/>
+      <c r="N139" s="35"/>
       <c r="O139" s="10"/>
-      <c r="P139" s="35"/>
-      <c r="Q139" s="35"/>
-      <c r="R139" s="35">
+      <c r="P139" s="34"/>
+      <c r="Q139" s="34"/>
+      <c r="R139" s="34">
         <v>16</v>
       </c>
-      <c r="S139" s="35">
+      <c r="S139" s="34">
         <v>5</v>
       </c>
       <c r="T139" s="33">
@@ -12272,14 +13475,14 @@
         <f t="shared" si="7"/>
         <v>7.4074074074073626E-4</v>
       </c>
-      <c r="N140" s="36"/>
+      <c r="N140" s="35"/>
       <c r="O140" s="10"/>
-      <c r="P140" s="35"/>
-      <c r="Q140" s="35"/>
-      <c r="R140" s="35">
+      <c r="P140" s="34"/>
+      <c r="Q140" s="34"/>
+      <c r="R140" s="34">
         <v>17</v>
       </c>
-      <c r="S140" s="35">
+      <c r="S140" s="34">
         <v>5</v>
       </c>
       <c r="T140" s="33">
@@ -12332,14 +13535,14 @@
         <f t="shared" si="7"/>
         <v>7.17592592592603E-4</v>
       </c>
-      <c r="N141" s="36"/>
+      <c r="N141" s="35"/>
       <c r="O141" s="10"/>
-      <c r="P141" s="35"/>
-      <c r="Q141" s="35"/>
-      <c r="R141" s="35">
+      <c r="P141" s="34"/>
+      <c r="Q141" s="34"/>
+      <c r="R141" s="34">
         <v>18</v>
       </c>
-      <c r="S141" s="35">
+      <c r="S141" s="34">
         <v>5</v>
       </c>
       <c r="T141" s="33">
@@ -12392,14 +13595,14 @@
         <f t="shared" si="7"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="N142" s="36"/>
+      <c r="N142" s="35"/>
       <c r="O142" s="10"/>
-      <c r="P142" s="35"/>
-      <c r="Q142" s="35"/>
-      <c r="R142" s="35">
+      <c r="P142" s="34"/>
+      <c r="Q142" s="34"/>
+      <c r="R142" s="34">
         <v>19</v>
       </c>
-      <c r="S142" s="35">
+      <c r="S142" s="34">
         <v>5</v>
       </c>
       <c r="T142" s="33">
@@ -12452,14 +13655,14 @@
         <f t="shared" si="7"/>
         <v>6.8287037037037535E-4</v>
       </c>
-      <c r="N143" s="36"/>
+      <c r="N143" s="35"/>
       <c r="O143" s="10"/>
-      <c r="P143" s="35"/>
-      <c r="Q143" s="35"/>
-      <c r="R143" s="35">
+      <c r="P143" s="34"/>
+      <c r="Q143" s="34"/>
+      <c r="R143" s="34">
         <v>20</v>
       </c>
-      <c r="S143" s="35">
+      <c r="S143" s="34">
         <v>5</v>
       </c>
       <c r="T143" s="33">
@@ -12512,14 +13715,14 @@
         <f t="shared" si="7"/>
         <v>6.4814814814811994E-4</v>
       </c>
-      <c r="N144" s="36"/>
+      <c r="N144" s="35"/>
       <c r="O144" s="10"/>
-      <c r="P144" s="35"/>
-      <c r="Q144" s="35"/>
-      <c r="R144" s="35">
+      <c r="P144" s="34"/>
+      <c r="Q144" s="34"/>
+      <c r="R144" s="34">
         <v>21</v>
       </c>
-      <c r="S144" s="35">
+      <c r="S144" s="34">
         <v>5</v>
       </c>
       <c r="T144" s="33">
@@ -12572,14 +13775,14 @@
         <f t="shared" si="7"/>
         <v>6.2500000000004219E-4</v>
       </c>
-      <c r="N145" s="36"/>
+      <c r="N145" s="35"/>
       <c r="O145" s="10"/>
-      <c r="P145" s="35"/>
-      <c r="Q145" s="35"/>
-      <c r="R145" s="35">
+      <c r="P145" s="34"/>
+      <c r="Q145" s="34"/>
+      <c r="R145" s="34">
         <v>22</v>
       </c>
-      <c r="S145" s="35">
+      <c r="S145" s="34">
         <v>5</v>
       </c>
       <c r="T145" s="33">
@@ -12632,14 +13835,14 @@
         <f t="shared" si="7"/>
         <v>6.1342592592589229E-4</v>
       </c>
-      <c r="N146" s="36"/>
+      <c r="N146" s="35"/>
       <c r="O146" s="10"/>
-      <c r="P146" s="35"/>
-      <c r="Q146" s="35"/>
-      <c r="R146" s="35">
+      <c r="P146" s="34"/>
+      <c r="Q146" s="34"/>
+      <c r="R146" s="34">
         <v>23</v>
       </c>
-      <c r="S146" s="35">
+      <c r="S146" s="34">
         <v>5</v>
       </c>
       <c r="T146" s="33">
@@ -12692,14 +13895,14 @@
         <f t="shared" si="7"/>
         <v>5.787037037036924E-4</v>
       </c>
-      <c r="N147" s="36"/>
+      <c r="N147" s="35"/>
       <c r="O147" s="10"/>
-      <c r="P147" s="35"/>
-      <c r="Q147" s="35"/>
-      <c r="R147" s="35">
+      <c r="P147" s="34"/>
+      <c r="Q147" s="34"/>
+      <c r="R147" s="34">
         <v>24</v>
       </c>
-      <c r="S147" s="35">
+      <c r="S147" s="34">
         <v>5</v>
       </c>
       <c r="T147" s="33">
@@ -12752,14 +13955,14 @@
         <f t="shared" si="7"/>
         <v>5.5555555555555913E-4</v>
       </c>
-      <c r="N148" s="36"/>
+      <c r="N148" s="35"/>
       <c r="O148" s="10"/>
-      <c r="P148" s="35"/>
-      <c r="Q148" s="35"/>
-      <c r="R148" s="35">
+      <c r="P148" s="34"/>
+      <c r="Q148" s="34"/>
+      <c r="R148" s="34">
         <v>25</v>
       </c>
-      <c r="S148" s="35">
+      <c r="S148" s="34">
         <v>5</v>
       </c>
       <c r="T148" s="33">
@@ -12812,14 +14015,14 @@
         <f t="shared" si="7"/>
         <v>5.3240740740742587E-4</v>
       </c>
-      <c r="N149" s="36"/>
+      <c r="N149" s="35"/>
       <c r="O149" s="10"/>
-      <c r="P149" s="35"/>
-      <c r="Q149" s="35"/>
-      <c r="R149" s="35">
+      <c r="P149" s="34"/>
+      <c r="Q149" s="34"/>
+      <c r="R149" s="34">
         <v>26</v>
       </c>
-      <c r="S149" s="35">
+      <c r="S149" s="34">
         <v>5</v>
       </c>
       <c r="T149" s="33">
@@ -12872,14 +14075,14 @@
         <f t="shared" si="7"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="N150" s="36"/>
+      <c r="N150" s="35"/>
       <c r="O150" s="10"/>
-      <c r="P150" s="35"/>
-      <c r="Q150" s="35"/>
-      <c r="R150" s="35">
+      <c r="P150" s="34"/>
+      <c r="Q150" s="34"/>
+      <c r="R150" s="34">
         <v>27</v>
       </c>
-      <c r="S150" s="35">
+      <c r="S150" s="34">
         <v>5</v>
       </c>
       <c r="T150" s="33">
@@ -12932,14 +14135,14 @@
         <f t="shared" si="7"/>
         <v>4.8611111111110383E-4</v>
       </c>
-      <c r="N151" s="36"/>
+      <c r="N151" s="35"/>
       <c r="O151" s="10"/>
-      <c r="P151" s="35"/>
-      <c r="Q151" s="35"/>
-      <c r="R151" s="35">
+      <c r="P151" s="34"/>
+      <c r="Q151" s="34"/>
+      <c r="R151" s="34">
         <v>28</v>
       </c>
-      <c r="S151" s="35">
+      <c r="S151" s="34">
         <v>5</v>
       </c>
       <c r="T151" s="33">
@@ -12992,14 +14195,14 @@
         <f t="shared" si="7"/>
         <v>4.5138888888890394E-4</v>
       </c>
-      <c r="N152" s="36"/>
+      <c r="N152" s="35"/>
       <c r="O152" s="10"/>
-      <c r="P152" s="35"/>
-      <c r="Q152" s="35"/>
-      <c r="R152" s="35">
+      <c r="P152" s="34"/>
+      <c r="Q152" s="34"/>
+      <c r="R152" s="34">
         <v>29</v>
       </c>
-      <c r="S152" s="35">
+      <c r="S152" s="34">
         <v>5</v>
       </c>
       <c r="T152" s="33">
@@ -13052,14 +14255,14 @@
         <f t="shared" si="7"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="N153" s="36"/>
+      <c r="N153" s="35"/>
       <c r="O153" s="10"/>
-      <c r="P153" s="35"/>
-      <c r="Q153" s="35"/>
-      <c r="R153" s="35">
+      <c r="P153" s="34"/>
+      <c r="Q153" s="34"/>
+      <c r="R153" s="34">
         <v>30</v>
       </c>
-      <c r="S153" s="35">
+      <c r="S153" s="34">
         <v>5</v>
       </c>
       <c r="T153" s="33">
@@ -13112,14 +14315,14 @@
         <f t="shared" si="7"/>
         <v>4.050925925925819E-4</v>
       </c>
-      <c r="N154" s="36"/>
+      <c r="N154" s="35"/>
       <c r="O154" s="10"/>
-      <c r="P154" s="35"/>
-      <c r="Q154" s="35"/>
-      <c r="R154" s="35">
+      <c r="P154" s="34"/>
+      <c r="Q154" s="34"/>
+      <c r="R154" s="34">
         <v>31</v>
       </c>
-      <c r="S154" s="35">
+      <c r="S154" s="34">
         <v>5</v>
       </c>
       <c r="T154" s="33">
@@ -13172,14 +14375,14 @@
         <f t="shared" si="7"/>
         <v>3.8194444444444864E-4</v>
       </c>
-      <c r="N155" s="36"/>
+      <c r="N155" s="35"/>
       <c r="O155" s="10"/>
-      <c r="P155" s="35"/>
-      <c r="Q155" s="35"/>
-      <c r="R155" s="35">
+      <c r="P155" s="34"/>
+      <c r="Q155" s="34"/>
+      <c r="R155" s="34">
         <v>1</v>
       </c>
-      <c r="S155" s="35">
+      <c r="S155" s="34">
         <v>6</v>
       </c>
       <c r="T155" s="33">
@@ -13232,14 +14435,14 @@
         <f t="shared" si="7"/>
         <v>3.4722222222222099E-4</v>
       </c>
-      <c r="N156" s="36"/>
+      <c r="N156" s="35"/>
       <c r="O156" s="10"/>
-      <c r="P156" s="35"/>
-      <c r="Q156" s="35"/>
-      <c r="R156" s="35">
+      <c r="P156" s="34"/>
+      <c r="Q156" s="34"/>
+      <c r="R156" s="34">
         <v>2</v>
       </c>
-      <c r="S156" s="35">
+      <c r="S156" s="34">
         <v>6</v>
       </c>
       <c r="T156" s="33">
@@ -13292,14 +14495,14 @@
         <f t="shared" si="7"/>
         <v>3.2407407407408773E-4</v>
       </c>
-      <c r="N157" s="36"/>
+      <c r="N157" s="35"/>
       <c r="O157" s="10"/>
-      <c r="P157" s="35"/>
-      <c r="Q157" s="35"/>
-      <c r="R157" s="35">
+      <c r="P157" s="34"/>
+      <c r="Q157" s="34"/>
+      <c r="R157" s="34">
         <v>3</v>
       </c>
-      <c r="S157" s="35">
+      <c r="S157" s="34">
         <v>6</v>
       </c>
       <c r="T157" s="33">
@@ -13352,14 +14555,14 @@
         <f t="shared" si="7"/>
         <v>3.0092592592589895E-4</v>
       </c>
-      <c r="N158" s="36"/>
+      <c r="N158" s="35"/>
       <c r="O158" s="10"/>
-      <c r="P158" s="35"/>
-      <c r="Q158" s="35"/>
-      <c r="R158" s="35">
+      <c r="P158" s="34"/>
+      <c r="Q158" s="34"/>
+      <c r="R158" s="34">
         <v>4</v>
       </c>
-      <c r="S158" s="35">
+      <c r="S158" s="34">
         <v>6</v>
       </c>
       <c r="T158" s="33">
@@ -13412,14 +14615,14 @@
         <f t="shared" si="7"/>
         <v>2.7777777777776569E-4</v>
       </c>
-      <c r="N159" s="36"/>
+      <c r="N159" s="35"/>
       <c r="O159" s="10"/>
-      <c r="P159" s="35"/>
-      <c r="Q159" s="35"/>
-      <c r="R159" s="35">
+      <c r="P159" s="34"/>
+      <c r="Q159" s="34"/>
+      <c r="R159" s="34">
         <v>5</v>
       </c>
-      <c r="S159" s="35">
+      <c r="S159" s="34">
         <v>6</v>
       </c>
       <c r="T159" s="33">
@@ -13472,14 +14675,14 @@
         <f t="shared" si="7"/>
         <v>2.4305555555556579E-4</v>
       </c>
-      <c r="N160" s="36"/>
+      <c r="N160" s="35"/>
       <c r="O160" s="10"/>
-      <c r="P160" s="35"/>
-      <c r="Q160" s="35"/>
-      <c r="R160" s="35">
+      <c r="P160" s="34"/>
+      <c r="Q160" s="34"/>
+      <c r="R160" s="34">
         <v>6</v>
       </c>
-      <c r="S160" s="35">
+      <c r="S160" s="34">
         <v>6</v>
       </c>
       <c r="T160" s="33">
@@ -13532,14 +14735,14 @@
         <f t="shared" si="7"/>
         <v>2.0833333333333814E-4</v>
       </c>
-      <c r="N161" s="36"/>
+      <c r="N161" s="35"/>
       <c r="O161" s="10"/>
-      <c r="P161" s="35"/>
-      <c r="Q161" s="35"/>
-      <c r="R161" s="35">
+      <c r="P161" s="34"/>
+      <c r="Q161" s="34"/>
+      <c r="R161" s="34">
         <v>7</v>
       </c>
-      <c r="S161" s="35">
+      <c r="S161" s="34">
         <v>6</v>
       </c>
       <c r="T161" s="33">
@@ -13592,14 +14795,14 @@
         <f t="shared" si="7"/>
         <v>1.9675925925927151E-4</v>
       </c>
-      <c r="N162" s="36"/>
+      <c r="N162" s="35"/>
       <c r="O162" s="10"/>
-      <c r="P162" s="35"/>
-      <c r="Q162" s="35"/>
-      <c r="R162" s="35">
+      <c r="P162" s="34"/>
+      <c r="Q162" s="34"/>
+      <c r="R162" s="34">
         <v>8</v>
       </c>
-      <c r="S162" s="35">
+      <c r="S162" s="34">
         <v>6</v>
       </c>
       <c r="T162" s="33">
@@ -13652,14 +14855,14 @@
         <f t="shared" si="7"/>
         <v>1.6203703703704386E-4</v>
       </c>
-      <c r="N163" s="36"/>
+      <c r="N163" s="35"/>
       <c r="O163" s="10"/>
-      <c r="P163" s="35"/>
-      <c r="Q163" s="35"/>
-      <c r="R163" s="35">
+      <c r="P163" s="34"/>
+      <c r="Q163" s="34"/>
+      <c r="R163" s="34">
         <v>9</v>
       </c>
-      <c r="S163" s="35">
+      <c r="S163" s="34">
         <v>6</v>
       </c>
       <c r="T163" s="33">
@@ -13712,14 +14915,14 @@
         <f t="shared" si="7"/>
         <v>1.2731481481478846E-4</v>
       </c>
-      <c r="N164" s="36"/>
+      <c r="N164" s="35"/>
       <c r="O164" s="10"/>
-      <c r="P164" s="35"/>
-      <c r="Q164" s="35"/>
-      <c r="R164" s="35">
+      <c r="P164" s="34"/>
+      <c r="Q164" s="34"/>
+      <c r="R164" s="34">
         <v>10</v>
       </c>
-      <c r="S164" s="35">
+      <c r="S164" s="34">
         <v>6</v>
       </c>
       <c r="T164" s="33">
@@ -13772,14 +14975,14 @@
         <f t="shared" si="7"/>
         <v>1.1574074074074958E-4</v>
       </c>
-      <c r="N165" s="36"/>
+      <c r="N165" s="35"/>
       <c r="O165" s="10"/>
-      <c r="P165" s="35"/>
-      <c r="Q165" s="35"/>
-      <c r="R165" s="35">
+      <c r="P165" s="34"/>
+      <c r="Q165" s="34"/>
+      <c r="R165" s="34">
         <v>11</v>
       </c>
-      <c r="S165" s="35">
+      <c r="S165" s="34">
         <v>6</v>
       </c>
       <c r="T165" s="33">
@@ -13832,14 +15035,14 @@
         <f t="shared" si="7"/>
         <v>6.94444444444553E-5</v>
       </c>
-      <c r="N166" s="36"/>
+      <c r="N166" s="35"/>
       <c r="O166" s="10"/>
-      <c r="P166" s="35"/>
-      <c r="Q166" s="35"/>
-      <c r="R166" s="35">
+      <c r="P166" s="34"/>
+      <c r="Q166" s="34"/>
+      <c r="R166" s="34">
         <v>12</v>
       </c>
-      <c r="S166" s="35">
+      <c r="S166" s="34">
         <v>6</v>
       </c>
       <c r="T166" s="33">
@@ -13892,14 +15095,14 @@
         <f t="shared" si="7"/>
         <v>5.7870370370360913E-5</v>
       </c>
-      <c r="N167" s="36"/>
+      <c r="N167" s="35"/>
       <c r="O167" s="10"/>
-      <c r="P167" s="35"/>
-      <c r="Q167" s="35"/>
-      <c r="R167" s="35">
+      <c r="P167" s="34"/>
+      <c r="Q167" s="34"/>
+      <c r="R167" s="34">
         <v>13</v>
       </c>
-      <c r="S167" s="35">
+      <c r="S167" s="34">
         <v>6</v>
       </c>
       <c r="T167" s="33">
@@ -13952,14 +15155,14 @@
         <f t="shared" si="7"/>
         <v>2.3148148148133263E-5</v>
       </c>
-      <c r="N168" s="36"/>
+      <c r="N168" s="35"/>
       <c r="O168" s="10"/>
-      <c r="P168" s="35"/>
-      <c r="Q168" s="35"/>
-      <c r="R168" s="35">
+      <c r="P168" s="34"/>
+      <c r="Q168" s="34"/>
+      <c r="R168" s="34">
         <v>14</v>
       </c>
-      <c r="S168" s="35">
+      <c r="S168" s="34">
         <v>6</v>
       </c>
       <c r="T168" s="33">
@@ -14012,14 +15215,14 @@
         <f t="shared" ref="M169:M194" si="9">C170-C169</f>
         <v>0</v>
       </c>
-      <c r="N169" s="36"/>
+      <c r="N169" s="35"/>
       <c r="O169" s="10"/>
-      <c r="P169" s="35"/>
-      <c r="Q169" s="35"/>
-      <c r="R169" s="35">
+      <c r="P169" s="34"/>
+      <c r="Q169" s="34"/>
+      <c r="R169" s="34">
         <v>15</v>
       </c>
-      <c r="S169" s="35">
+      <c r="S169" s="34">
         <v>6</v>
       </c>
       <c r="T169" s="33">
@@ -14072,14 +15275,14 @@
         <f t="shared" si="9"/>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="N170" s="36"/>
+      <c r="N170" s="35"/>
       <c r="O170" s="10"/>
-      <c r="P170" s="35"/>
-      <c r="Q170" s="35"/>
-      <c r="R170" s="35">
+      <c r="P170" s="34"/>
+      <c r="Q170" s="34"/>
+      <c r="R170" s="34">
         <v>16</v>
       </c>
-      <c r="S170" s="35">
+      <c r="S170" s="34">
         <v>6</v>
       </c>
       <c r="T170" s="33">
@@ -14132,14 +15335,14 @@
         <f t="shared" si="9"/>
         <v>5.7870370370333157E-5</v>
       </c>
-      <c r="N171" s="36"/>
+      <c r="N171" s="35"/>
       <c r="O171" s="10"/>
-      <c r="P171" s="35"/>
-      <c r="Q171" s="35"/>
-      <c r="R171" s="35">
+      <c r="P171" s="34"/>
+      <c r="Q171" s="34"/>
+      <c r="R171" s="34">
         <v>17</v>
       </c>
-      <c r="S171" s="35">
+      <c r="S171" s="34">
         <v>6</v>
       </c>
       <c r="T171" s="33">
@@ -14192,14 +15395,14 @@
         <f t="shared" si="9"/>
         <v>9.2592592592616318E-5</v>
       </c>
-      <c r="N172" s="36"/>
+      <c r="N172" s="35"/>
       <c r="O172" s="10"/>
-      <c r="P172" s="35"/>
-      <c r="Q172" s="35"/>
-      <c r="R172" s="35">
+      <c r="P172" s="34"/>
+      <c r="Q172" s="34"/>
+      <c r="R172" s="34">
         <v>18</v>
       </c>
-      <c r="S172" s="35">
+      <c r="S172" s="34">
         <v>6</v>
       </c>
       <c r="T172" s="33">
@@ -14252,14 +15455,14 @@
         <f t="shared" si="9"/>
         <v>1.0416666666668295E-4</v>
       </c>
-      <c r="N173" s="36"/>
+      <c r="N173" s="35"/>
       <c r="O173" s="10"/>
-      <c r="P173" s="35"/>
-      <c r="Q173" s="35"/>
-      <c r="R173" s="35">
+      <c r="P173" s="34"/>
+      <c r="Q173" s="34"/>
+      <c r="R173" s="34">
         <v>19</v>
       </c>
-      <c r="S173" s="35">
+      <c r="S173" s="34">
         <v>6</v>
       </c>
       <c r="T173" s="33">
@@ -14312,14 +15515,14 @@
         <f t="shared" si="9"/>
         <v>1.3888888888885509E-4</v>
       </c>
-      <c r="N174" s="36"/>
+      <c r="N174" s="35"/>
       <c r="O174" s="10"/>
-      <c r="P174" s="35"/>
-      <c r="Q174" s="35"/>
-      <c r="R174" s="35">
+      <c r="P174" s="34"/>
+      <c r="Q174" s="34"/>
+      <c r="R174" s="34">
         <v>20</v>
       </c>
-      <c r="S174" s="35">
+      <c r="S174" s="34">
         <v>6</v>
       </c>
       <c r="T174" s="33">
@@ -14372,14 +15575,14 @@
         <f t="shared" si="9"/>
         <v>1.7361111111111049E-4</v>
       </c>
-      <c r="N175" s="36"/>
+      <c r="N175" s="35"/>
       <c r="O175" s="10"/>
-      <c r="P175" s="35"/>
-      <c r="Q175" s="35"/>
-      <c r="R175" s="35">
+      <c r="P175" s="34"/>
+      <c r="Q175" s="34"/>
+      <c r="R175" s="34">
         <v>21</v>
       </c>
-      <c r="S175" s="35">
+      <c r="S175" s="34">
         <v>6</v>
       </c>
       <c r="T175" s="33">
@@ -14432,14 +15635,14 @@
         <f t="shared" si="9"/>
         <v>1.8518518518517713E-4</v>
       </c>
-      <c r="N176" s="36"/>
+      <c r="N176" s="35"/>
       <c r="O176" s="10"/>
-      <c r="P176" s="35"/>
-      <c r="Q176" s="35"/>
-      <c r="R176" s="35">
+      <c r="P176" s="34"/>
+      <c r="Q176" s="34"/>
+      <c r="R176" s="34">
         <v>22</v>
       </c>
-      <c r="S176" s="35">
+      <c r="S176" s="34">
         <v>6</v>
       </c>
       <c r="T176" s="33">
@@ -14492,14 +15695,14 @@
         <f t="shared" si="9"/>
         <v>2.1990740740740478E-4</v>
       </c>
-      <c r="N177" s="36"/>
+      <c r="N177" s="35"/>
       <c r="O177" s="10"/>
-      <c r="P177" s="35"/>
-      <c r="Q177" s="35"/>
-      <c r="R177" s="35">
+      <c r="P177" s="34"/>
+      <c r="Q177" s="34"/>
+      <c r="R177" s="34">
         <v>23</v>
       </c>
-      <c r="S177" s="35">
+      <c r="S177" s="34">
         <v>6</v>
       </c>
       <c r="T177" s="33">
@@ -14552,14 +15755,14 @@
         <f t="shared" si="9"/>
         <v>2.4305555555556579E-4</v>
       </c>
-      <c r="N178" s="36"/>
+      <c r="N178" s="35"/>
       <c r="O178" s="10"/>
-      <c r="P178" s="35"/>
-      <c r="Q178" s="35"/>
-      <c r="R178" s="35">
+      <c r="P178" s="34"/>
+      <c r="Q178" s="34"/>
+      <c r="R178" s="34">
         <v>24</v>
       </c>
-      <c r="S178" s="35">
+      <c r="S178" s="34">
         <v>6</v>
       </c>
       <c r="T178" s="33">
@@ -14612,14 +15815,14 @@
         <f t="shared" si="9"/>
         <v>2.6620370370369906E-4</v>
       </c>
-      <c r="N179" s="36"/>
+      <c r="N179" s="35"/>
       <c r="O179" s="10"/>
-      <c r="P179" s="35"/>
-      <c r="Q179" s="35"/>
-      <c r="R179" s="35">
+      <c r="P179" s="34"/>
+      <c r="Q179" s="34"/>
+      <c r="R179" s="34">
         <v>25</v>
       </c>
-      <c r="S179" s="35">
+      <c r="S179" s="34">
         <v>6</v>
       </c>
       <c r="T179" s="33">
@@ -14672,14 +15875,14 @@
         <f t="shared" si="9"/>
         <v>3.0092592592592671E-4</v>
       </c>
-      <c r="N180" s="36"/>
+      <c r="N180" s="35"/>
       <c r="O180" s="10"/>
-      <c r="P180" s="35"/>
-      <c r="Q180" s="35"/>
-      <c r="R180" s="35">
+      <c r="P180" s="34"/>
+      <c r="Q180" s="34"/>
+      <c r="R180" s="34">
         <v>26</v>
       </c>
-      <c r="S180" s="35">
+      <c r="S180" s="34">
         <v>6</v>
       </c>
       <c r="T180" s="33">
@@ -14732,14 +15935,14 @@
         <f t="shared" si="9"/>
         <v>3.1250000000002109E-4</v>
       </c>
-      <c r="N181" s="36"/>
+      <c r="N181" s="35"/>
       <c r="O181" s="10"/>
-      <c r="P181" s="35"/>
-      <c r="Q181" s="35"/>
-      <c r="R181" s="35">
+      <c r="P181" s="34"/>
+      <c r="Q181" s="34"/>
+      <c r="R181" s="34">
         <v>27</v>
       </c>
-      <c r="S181" s="35">
+      <c r="S181" s="34">
         <v>6</v>
       </c>
       <c r="T181" s="33">
@@ -14792,14 +15995,14 @@
         <f t="shared" si="9"/>
         <v>3.356481481481266E-4</v>
       </c>
-      <c r="N182" s="36"/>
+      <c r="N182" s="35"/>
       <c r="O182" s="10"/>
-      <c r="P182" s="35"/>
-      <c r="Q182" s="35"/>
-      <c r="R182" s="35">
+      <c r="P182" s="34"/>
+      <c r="Q182" s="34"/>
+      <c r="R182" s="34">
         <v>28</v>
       </c>
-      <c r="S182" s="35">
+      <c r="S182" s="34">
         <v>6</v>
       </c>
       <c r="T182" s="33">
@@ -14852,14 +16055,14 @@
         <f t="shared" si="9"/>
         <v>3.7037037037038201E-4</v>
       </c>
-      <c r="N183" s="36"/>
+      <c r="N183" s="35"/>
       <c r="O183" s="10"/>
-      <c r="P183" s="35"/>
-      <c r="Q183" s="35"/>
-      <c r="R183" s="35">
+      <c r="P183" s="34"/>
+      <c r="Q183" s="34"/>
+      <c r="R183" s="34">
         <v>29</v>
       </c>
-      <c r="S183" s="35">
+      <c r="S183" s="34">
         <v>6</v>
       </c>
       <c r="T183" s="33">
@@ -14912,14 +16115,14 @@
         <f t="shared" si="9"/>
         <v>3.8194444444444864E-4</v>
       </c>
-      <c r="N184" s="36"/>
+      <c r="N184" s="35"/>
       <c r="O184" s="10"/>
-      <c r="P184" s="35"/>
-      <c r="Q184" s="35"/>
-      <c r="R184" s="35">
+      <c r="P184" s="34"/>
+      <c r="Q184" s="34"/>
+      <c r="R184" s="34">
         <v>30</v>
       </c>
-      <c r="S184" s="35">
+      <c r="S184" s="34">
         <v>6</v>
       </c>
       <c r="T184" s="33">
@@ -14972,14 +16175,14 @@
         <f t="shared" si="9"/>
         <v>4.1666666666664853E-4</v>
       </c>
-      <c r="N185" s="36"/>
+      <c r="N185" s="35"/>
       <c r="O185" s="10"/>
-      <c r="P185" s="35"/>
-      <c r="Q185" s="35"/>
-      <c r="R185" s="35">
+      <c r="P185" s="34"/>
+      <c r="Q185" s="34"/>
+      <c r="R185" s="34">
         <v>1</v>
       </c>
-      <c r="S185" s="35">
+      <c r="S185" s="34">
         <v>7</v>
       </c>
       <c r="T185" s="33">
@@ -15032,14 +16235,14 @@
         <f t="shared" si="9"/>
         <v>4.2824074074077068E-4</v>
       </c>
-      <c r="N186" s="36"/>
+      <c r="N186" s="35"/>
       <c r="O186" s="10"/>
-      <c r="P186" s="35"/>
-      <c r="Q186" s="35"/>
-      <c r="R186" s="35">
+      <c r="P186" s="34"/>
+      <c r="Q186" s="34"/>
+      <c r="R186" s="34">
         <v>2</v>
       </c>
-      <c r="S186" s="35">
+      <c r="S186" s="34">
         <v>7</v>
       </c>
       <c r="T186" s="33">
@@ -15092,14 +16295,14 @@
         <f t="shared" si="9"/>
         <v>4.5138888888887618E-4</v>
       </c>
-      <c r="N187" s="36"/>
+      <c r="N187" s="35"/>
       <c r="O187" s="10"/>
-      <c r="P187" s="35"/>
-      <c r="Q187" s="35"/>
-      <c r="R187" s="35">
+      <c r="P187" s="34"/>
+      <c r="Q187" s="34"/>
+      <c r="R187" s="34">
         <v>3</v>
       </c>
-      <c r="S187" s="35">
+      <c r="S187" s="34">
         <v>7</v>
       </c>
       <c r="T187" s="33">
@@ -15152,14 +16355,14 @@
         <f t="shared" si="9"/>
         <v>4.6296296296297057E-4</v>
       </c>
-      <c r="N188" s="36"/>
+      <c r="N188" s="35"/>
       <c r="O188" s="10"/>
-      <c r="P188" s="35"/>
-      <c r="Q188" s="35"/>
-      <c r="R188" s="35">
+      <c r="P188" s="34"/>
+      <c r="Q188" s="34"/>
+      <c r="R188" s="34">
         <v>4</v>
       </c>
-      <c r="S188" s="35">
+      <c r="S188" s="34">
         <v>7</v>
       </c>
       <c r="T188" s="33">
@@ -15212,14 +16415,14 @@
         <f t="shared" si="9"/>
         <v>4.9768518518519822E-4</v>
       </c>
-      <c r="N189" s="36"/>
+      <c r="N189" s="35"/>
       <c r="O189" s="10"/>
-      <c r="P189" s="35"/>
-      <c r="Q189" s="35"/>
-      <c r="R189" s="35">
+      <c r="P189" s="34"/>
+      <c r="Q189" s="34"/>
+      <c r="R189" s="34">
         <v>5</v>
       </c>
-      <c r="S189" s="35">
+      <c r="S189" s="34">
         <v>7</v>
       </c>
       <c r="T189" s="33">
@@ -15272,14 +16475,14 @@
         <f t="shared" si="9"/>
         <v>5.0925925925920934E-4</v>
       </c>
-      <c r="N190" s="36"/>
+      <c r="N190" s="35"/>
       <c r="O190" s="10"/>
-      <c r="P190" s="35"/>
-      <c r="Q190" s="35"/>
-      <c r="R190" s="35">
+      <c r="P190" s="34"/>
+      <c r="Q190" s="34"/>
+      <c r="R190" s="34">
         <v>6</v>
       </c>
-      <c r="S190" s="35">
+      <c r="S190" s="34">
         <v>7</v>
       </c>
       <c r="T190" s="33">
@@ -15332,14 +16535,14 @@
         <f t="shared" si="9"/>
         <v>5.3240740740742587E-4</v>
       </c>
-      <c r="N191" s="36"/>
+      <c r="N191" s="35"/>
       <c r="O191" s="10"/>
-      <c r="P191" s="35"/>
-      <c r="Q191" s="35"/>
-      <c r="R191" s="35">
+      <c r="P191" s="34"/>
+      <c r="Q191" s="34"/>
+      <c r="R191" s="34">
         <v>7</v>
       </c>
-      <c r="S191" s="35">
+      <c r="S191" s="34">
         <v>7</v>
       </c>
       <c r="T191" s="33">
@@ -15392,14 +16595,14 @@
         <f t="shared" si="9"/>
         <v>5.439814814814925E-4</v>
       </c>
-      <c r="N192" s="36"/>
+      <c r="N192" s="35"/>
       <c r="O192" s="10"/>
-      <c r="P192" s="35"/>
-      <c r="Q192" s="35"/>
-      <c r="R192" s="35">
+      <c r="P192" s="34"/>
+      <c r="Q192" s="34"/>
+      <c r="R192" s="34">
         <v>8</v>
       </c>
-      <c r="S192" s="35">
+      <c r="S192" s="34">
         <v>7</v>
       </c>
       <c r="T192" s="33">
@@ -15452,14 +16655,14 @@
         <f t="shared" si="9"/>
         <v>5.6712962962965352E-4</v>
       </c>
-      <c r="N193" s="36"/>
+      <c r="N193" s="35"/>
       <c r="O193" s="10"/>
-      <c r="P193" s="35"/>
-      <c r="Q193" s="35"/>
-      <c r="R193" s="35">
+      <c r="P193" s="34"/>
+      <c r="Q193" s="34"/>
+      <c r="R193" s="34">
         <v>9</v>
       </c>
-      <c r="S193" s="35">
+      <c r="S193" s="34">
         <v>7</v>
       </c>
       <c r="T193" s="33">
@@ -15512,14 +16715,14 @@
         <f t="shared" si="9"/>
         <v>5.7870370370366464E-4</v>
       </c>
-      <c r="N194" s="36"/>
+      <c r="N194" s="35"/>
       <c r="O194" s="10"/>
-      <c r="P194" s="35"/>
-      <c r="Q194" s="35"/>
-      <c r="R194" s="35">
+      <c r="P194" s="34"/>
+      <c r="Q194" s="34"/>
+      <c r="R194" s="34">
         <v>10</v>
       </c>
-      <c r="S194" s="35">
+      <c r="S194" s="34">
         <v>7</v>
       </c>
       <c r="T194" s="33">
@@ -15572,14 +16775,14 @@
         <f t="shared" ref="M195:M215" si="10">C196-C195</f>
         <v>6.0185185185188117E-4</v>
       </c>
-      <c r="N195" s="36"/>
+      <c r="N195" s="35"/>
       <c r="O195" s="10"/>
-      <c r="P195" s="35"/>
-      <c r="Q195" s="35"/>
-      <c r="R195" s="35">
+      <c r="P195" s="34"/>
+      <c r="Q195" s="34"/>
+      <c r="R195" s="34">
         <v>11</v>
       </c>
-      <c r="S195" s="35">
+      <c r="S195" s="34">
         <v>7</v>
       </c>
       <c r="T195" s="33">
@@ -15632,14 +16835,14 @@
         <f t="shared" si="10"/>
         <v>6.1342592592592005E-4</v>
       </c>
-      <c r="N196" s="36"/>
+      <c r="N196" s="35"/>
       <c r="O196" s="10"/>
-      <c r="P196" s="35"/>
-      <c r="Q196" s="35"/>
-      <c r="R196" s="35">
+      <c r="P196" s="34"/>
+      <c r="Q196" s="34"/>
+      <c r="R196" s="34">
         <v>12</v>
       </c>
-      <c r="S196" s="35">
+      <c r="S196" s="34">
         <v>7</v>
       </c>
       <c r="T196" s="33">
@@ -15692,14 +16895,14 @@
         <f t="shared" si="10"/>
         <v>6.2499999999998668E-4</v>
       </c>
-      <c r="N197" s="36"/>
+      <c r="N197" s="35"/>
       <c r="O197" s="10"/>
-      <c r="P197" s="35"/>
-      <c r="Q197" s="35"/>
-      <c r="R197" s="35">
+      <c r="P197" s="34"/>
+      <c r="Q197" s="34"/>
+      <c r="R197" s="34">
         <v>13</v>
       </c>
-      <c r="S197" s="35">
+      <c r="S197" s="34">
         <v>7</v>
       </c>
       <c r="T197" s="33">
@@ -15752,14 +16955,14 @@
         <f t="shared" si="10"/>
         <v>6.4814814814817545E-4</v>
       </c>
-      <c r="N198" s="36"/>
+      <c r="N198" s="35"/>
       <c r="O198" s="10"/>
-      <c r="P198" s="35"/>
-      <c r="Q198" s="35"/>
-      <c r="R198" s="35">
+      <c r="P198" s="34"/>
+      <c r="Q198" s="34"/>
+      <c r="R198" s="34">
         <v>14</v>
       </c>
-      <c r="S198" s="35">
+      <c r="S198" s="34">
         <v>7</v>
       </c>
       <c r="T198" s="33">
@@ -15812,14 +17015,14 @@
         <f t="shared" si="10"/>
         <v>6.5972222222221433E-4</v>
       </c>
-      <c r="N199" s="36"/>
+      <c r="N199" s="35"/>
       <c r="O199" s="10"/>
-      <c r="P199" s="35"/>
-      <c r="Q199" s="35"/>
-      <c r="R199" s="35">
+      <c r="P199" s="34"/>
+      <c r="Q199" s="34"/>
+      <c r="R199" s="34">
         <v>15</v>
       </c>
-      <c r="S199" s="35">
+      <c r="S199" s="34">
         <v>7</v>
       </c>
       <c r="T199" s="33">
@@ -15872,14 +17075,14 @@
         <f t="shared" si="10"/>
         <v>6.7129629629628096E-4</v>
       </c>
-      <c r="N200" s="36"/>
+      <c r="N200" s="35"/>
       <c r="O200" s="10"/>
-      <c r="P200" s="35"/>
-      <c r="Q200" s="35"/>
-      <c r="R200" s="35">
+      <c r="P200" s="34"/>
+      <c r="Q200" s="34"/>
+      <c r="R200" s="34">
         <v>16</v>
       </c>
-      <c r="S200" s="35">
+      <c r="S200" s="34">
         <v>7</v>
       </c>
       <c r="T200" s="33">
@@ -15932,14 +17135,14 @@
         <f t="shared" si="10"/>
         <v>6.8287037037037535E-4</v>
       </c>
-      <c r="N201" s="36"/>
+      <c r="N201" s="35"/>
       <c r="O201" s="10"/>
-      <c r="P201" s="35"/>
-      <c r="Q201" s="35"/>
-      <c r="R201" s="35">
+      <c r="P201" s="34"/>
+      <c r="Q201" s="34"/>
+      <c r="R201" s="34">
         <v>17</v>
       </c>
-      <c r="S201" s="35">
+      <c r="S201" s="34">
         <v>7</v>
       </c>
       <c r="T201" s="33">
@@ -15992,14 +17195,14 @@
         <f t="shared" si="10"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="N202" s="36"/>
+      <c r="N202" s="35"/>
       <c r="O202" s="10"/>
-      <c r="P202" s="35"/>
-      <c r="Q202" s="35"/>
-      <c r="R202" s="35">
+      <c r="P202" s="34"/>
+      <c r="Q202" s="34"/>
+      <c r="R202" s="34">
         <v>18</v>
       </c>
-      <c r="S202" s="35">
+      <c r="S202" s="34">
         <v>7</v>
       </c>
       <c r="T202" s="33">
@@ -16052,14 +17255,14 @@
         <f t="shared" si="10"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="N203" s="36"/>
+      <c r="N203" s="35"/>
       <c r="O203" s="10"/>
-      <c r="P203" s="35"/>
-      <c r="Q203" s="35"/>
-      <c r="R203" s="35">
+      <c r="P203" s="34"/>
+      <c r="Q203" s="34"/>
+      <c r="R203" s="34">
         <v>19</v>
       </c>
-      <c r="S203" s="35">
+      <c r="S203" s="34">
         <v>7</v>
       </c>
       <c r="T203" s="33">
@@ -16112,14 +17315,14 @@
         <f t="shared" si="10"/>
         <v>7.1759259259257524E-4</v>
       </c>
-      <c r="N204" s="36"/>
+      <c r="N204" s="35"/>
       <c r="O204" s="10"/>
-      <c r="P204" s="35"/>
-      <c r="Q204" s="35"/>
-      <c r="R204" s="35">
+      <c r="P204" s="34"/>
+      <c r="Q204" s="34"/>
+      <c r="R204" s="34">
         <v>20</v>
       </c>
-      <c r="S204" s="35">
+      <c r="S204" s="34">
         <v>7</v>
       </c>
       <c r="T204" s="33">
@@ -16172,14 +17375,14 @@
         <f t="shared" si="10"/>
         <v>7.2916666666666963E-4</v>
       </c>
-      <c r="N205" s="36"/>
+      <c r="N205" s="35"/>
       <c r="O205" s="10"/>
-      <c r="P205" s="35"/>
-      <c r="Q205" s="35"/>
-      <c r="R205" s="35">
+      <c r="P205" s="34"/>
+      <c r="Q205" s="34"/>
+      <c r="R205" s="34">
         <v>21</v>
       </c>
-      <c r="S205" s="35">
+      <c r="S205" s="34">
         <v>7</v>
       </c>
       <c r="T205" s="33">
@@ -16232,14 +17435,14 @@
         <f t="shared" si="10"/>
         <v>7.2916666666666963E-4</v>
       </c>
-      <c r="N206" s="36"/>
+      <c r="N206" s="35"/>
       <c r="O206" s="10"/>
-      <c r="P206" s="35"/>
-      <c r="Q206" s="35"/>
-      <c r="R206" s="35">
+      <c r="P206" s="34"/>
+      <c r="Q206" s="34"/>
+      <c r="R206" s="34">
         <v>22</v>
       </c>
-      <c r="S206" s="35">
+      <c r="S206" s="34">
         <v>7</v>
       </c>
       <c r="T206" s="33">
@@ -16292,14 +17495,14 @@
         <f t="shared" si="10"/>
         <v>7.5231481481483065E-4</v>
       </c>
-      <c r="N207" s="36"/>
+      <c r="N207" s="35"/>
       <c r="O207" s="10"/>
-      <c r="P207" s="35"/>
-      <c r="Q207" s="35"/>
-      <c r="R207" s="35">
+      <c r="P207" s="34"/>
+      <c r="Q207" s="34"/>
+      <c r="R207" s="34">
         <v>23</v>
       </c>
-      <c r="S207" s="35">
+      <c r="S207" s="34">
         <v>7</v>
       </c>
       <c r="T207" s="33">
@@ -16352,14 +17555,14 @@
         <f t="shared" si="10"/>
         <v>7.4074074074073626E-4</v>
       </c>
-      <c r="N208" s="36"/>
+      <c r="N208" s="35"/>
       <c r="O208" s="10"/>
-      <c r="P208" s="35"/>
-      <c r="Q208" s="35"/>
-      <c r="R208" s="35">
+      <c r="P208" s="34"/>
+      <c r="Q208" s="34"/>
+      <c r="R208" s="34">
         <v>24</v>
       </c>
-      <c r="S208" s="35">
+      <c r="S208" s="34">
         <v>7</v>
       </c>
       <c r="T208" s="33">
@@ -16412,14 +17615,14 @@
         <f t="shared" si="10"/>
         <v>7.6388888888886952E-4</v>
       </c>
-      <c r="N209" s="36"/>
+      <c r="N209" s="35"/>
       <c r="O209" s="10"/>
-      <c r="P209" s="35"/>
-      <c r="Q209" s="35"/>
-      <c r="R209" s="35">
+      <c r="P209" s="34"/>
+      <c r="Q209" s="34"/>
+      <c r="R209" s="34">
         <v>25</v>
       </c>
-      <c r="S209" s="35">
+      <c r="S209" s="34">
         <v>7</v>
       </c>
       <c r="T209" s="33">
@@ -16472,14 +17675,14 @@
         <f t="shared" si="10"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N210" s="36"/>
+      <c r="N210" s="35"/>
       <c r="O210" s="10"/>
-      <c r="P210" s="35"/>
-      <c r="Q210" s="35"/>
-      <c r="R210" s="35">
+      <c r="P210" s="34"/>
+      <c r="Q210" s="34"/>
+      <c r="R210" s="34">
         <v>26</v>
       </c>
-      <c r="S210" s="35">
+      <c r="S210" s="34">
         <v>7</v>
       </c>
       <c r="T210" s="33">
@@ -16532,14 +17735,14 @@
         <f t="shared" si="10"/>
         <v>7.7546296296296391E-4</v>
       </c>
-      <c r="N211" s="36"/>
+      <c r="N211" s="35"/>
       <c r="O211" s="10"/>
-      <c r="P211" s="35"/>
-      <c r="Q211" s="35"/>
-      <c r="R211" s="35">
+      <c r="P211" s="34"/>
+      <c r="Q211" s="34"/>
+      <c r="R211" s="34">
         <v>27</v>
       </c>
-      <c r="S211" s="35">
+      <c r="S211" s="34">
         <v>7</v>
       </c>
       <c r="T211" s="33">
@@ -16592,14 +17795,14 @@
         <f t="shared" si="10"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N212" s="36"/>
+      <c r="N212" s="35"/>
       <c r="O212" s="10"/>
-      <c r="P212" s="35"/>
-      <c r="Q212" s="35"/>
-      <c r="R212" s="35">
+      <c r="P212" s="34"/>
+      <c r="Q212" s="34"/>
+      <c r="R212" s="34">
         <v>28</v>
       </c>
-      <c r="S212" s="35">
+      <c r="S212" s="34">
         <v>7</v>
       </c>
       <c r="T212" s="33">
@@ -16652,14 +17855,14 @@
         <f t="shared" si="10"/>
         <v>7.8703703703700278E-4</v>
       </c>
-      <c r="N213" s="36"/>
+      <c r="N213" s="35"/>
       <c r="O213" s="10"/>
-      <c r="P213" s="35"/>
-      <c r="Q213" s="35"/>
-      <c r="R213" s="35">
+      <c r="P213" s="34"/>
+      <c r="Q213" s="34"/>
+      <c r="R213" s="34">
         <v>29</v>
       </c>
-      <c r="S213" s="35">
+      <c r="S213" s="34">
         <v>7</v>
       </c>
       <c r="T213" s="33">
@@ -16712,14 +17915,14 @@
         <f t="shared" si="10"/>
         <v>7.870370370370583E-4</v>
       </c>
-      <c r="N214" s="36"/>
+      <c r="N214" s="35"/>
       <c r="O214" s="10"/>
-      <c r="P214" s="35"/>
-      <c r="Q214" s="35"/>
-      <c r="R214" s="35">
+      <c r="P214" s="34"/>
+      <c r="Q214" s="34"/>
+      <c r="R214" s="34">
         <v>30</v>
       </c>
-      <c r="S214" s="35">
+      <c r="S214" s="34">
         <v>7</v>
       </c>
       <c r="T214" s="33">
@@ -16772,14 +17975,14 @@
         <f t="shared" si="10"/>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N215" s="36"/>
+      <c r="N215" s="35"/>
       <c r="O215" s="10"/>
-      <c r="P215" s="35"/>
-      <c r="Q215" s="35"/>
-      <c r="R215" s="35">
+      <c r="P215" s="34"/>
+      <c r="Q215" s="34"/>
+      <c r="R215" s="34">
         <v>31</v>
       </c>
-      <c r="S215" s="35">
+      <c r="S215" s="34">
         <v>7</v>
       </c>
       <c r="T215" s="33">
@@ -16832,14 +18035,14 @@
         <f t="shared" ref="M216:M244" si="11">C217-C216</f>
         <v>7.9861111111109717E-4</v>
       </c>
-      <c r="N216" s="36"/>
+      <c r="N216" s="35"/>
       <c r="O216" s="10"/>
-      <c r="P216" s="35"/>
-      <c r="Q216" s="35"/>
-      <c r="R216" s="35">
+      <c r="P216" s="34"/>
+      <c r="Q216" s="34"/>
+      <c r="R216" s="34">
         <v>1</v>
       </c>
-      <c r="S216" s="35">
+      <c r="S216" s="34">
         <v>8</v>
       </c>
       <c r="T216" s="33">
@@ -16892,14 +18095,14 @@
         <f t="shared" si="11"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N217" s="36"/>
+      <c r="N217" s="35"/>
       <c r="O217" s="10"/>
-      <c r="P217" s="35"/>
-      <c r="Q217" s="35"/>
-      <c r="R217" s="35">
+      <c r="P217" s="34"/>
+      <c r="Q217" s="34"/>
+      <c r="R217" s="34">
         <v>2</v>
       </c>
-      <c r="S217" s="35">
+      <c r="S217" s="34">
         <v>8</v>
       </c>
       <c r="T217" s="33">
@@ -16952,14 +18155,14 @@
         <f t="shared" si="11"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N218" s="36"/>
+      <c r="N218" s="35"/>
       <c r="O218" s="10"/>
-      <c r="P218" s="35"/>
-      <c r="Q218" s="35"/>
-      <c r="R218" s="35">
+      <c r="P218" s="34"/>
+      <c r="Q218" s="34"/>
+      <c r="R218" s="34">
         <v>3</v>
       </c>
-      <c r="S218" s="35">
+      <c r="S218" s="34">
         <v>8</v>
       </c>
       <c r="T218" s="33">
@@ -17012,14 +18215,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518519156E-4</v>
       </c>
-      <c r="N219" s="36"/>
+      <c r="N219" s="35"/>
       <c r="O219" s="10"/>
-      <c r="P219" s="35"/>
-      <c r="Q219" s="35"/>
-      <c r="R219" s="35">
+      <c r="P219" s="34"/>
+      <c r="Q219" s="34"/>
+      <c r="R219" s="34">
         <v>4</v>
       </c>
-      <c r="S219" s="35">
+      <c r="S219" s="34">
         <v>8</v>
       </c>
       <c r="T219" s="33">
@@ -17072,14 +18275,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N220" s="36"/>
+      <c r="N220" s="35"/>
       <c r="O220" s="10"/>
-      <c r="P220" s="35"/>
-      <c r="Q220" s="35"/>
-      <c r="R220" s="35">
+      <c r="P220" s="34"/>
+      <c r="Q220" s="34"/>
+      <c r="R220" s="34">
         <v>5</v>
       </c>
-      <c r="S220" s="35">
+      <c r="S220" s="34">
         <v>8</v>
       </c>
       <c r="T220" s="33">
@@ -17132,14 +18335,14 @@
         <f t="shared" si="11"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N221" s="36"/>
+      <c r="N221" s="35"/>
       <c r="O221" s="10"/>
-      <c r="P221" s="35"/>
-      <c r="Q221" s="35"/>
-      <c r="R221" s="35">
+      <c r="P221" s="34"/>
+      <c r="Q221" s="34"/>
+      <c r="R221" s="34">
         <v>6</v>
       </c>
-      <c r="S221" s="35">
+      <c r="S221" s="34">
         <v>8</v>
       </c>
       <c r="T221" s="33">
@@ -17192,14 +18395,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518519156E-4</v>
       </c>
-      <c r="N222" s="36"/>
+      <c r="N222" s="35"/>
       <c r="O222" s="10"/>
-      <c r="P222" s="35"/>
-      <c r="Q222" s="35"/>
-      <c r="R222" s="35">
+      <c r="P222" s="34"/>
+      <c r="Q222" s="34"/>
+      <c r="R222" s="34">
         <v>7</v>
       </c>
-      <c r="S222" s="35">
+      <c r="S222" s="34">
         <v>8</v>
       </c>
       <c r="T222" s="33">
@@ -17252,14 +18455,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518519156E-4</v>
       </c>
-      <c r="N223" s="36"/>
+      <c r="N223" s="35"/>
       <c r="O223" s="10"/>
-      <c r="P223" s="35"/>
-      <c r="Q223" s="35"/>
-      <c r="R223" s="35">
+      <c r="P223" s="34"/>
+      <c r="Q223" s="34"/>
+      <c r="R223" s="34">
         <v>8</v>
       </c>
-      <c r="S223" s="35">
+      <c r="S223" s="34">
         <v>8</v>
       </c>
       <c r="T223" s="33">
@@ -17312,14 +18515,14 @@
         <f t="shared" si="11"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N224" s="36"/>
+      <c r="N224" s="35"/>
       <c r="O224" s="10"/>
-      <c r="P224" s="35"/>
-      <c r="Q224" s="35"/>
-      <c r="R224" s="35">
+      <c r="P224" s="34"/>
+      <c r="Q224" s="34"/>
+      <c r="R224" s="34">
         <v>9</v>
       </c>
-      <c r="S224" s="35">
+      <c r="S224" s="34">
         <v>8</v>
       </c>
       <c r="T224" s="33">
@@ -17372,14 +18575,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518519156E-4</v>
       </c>
-      <c r="N225" s="36"/>
+      <c r="N225" s="35"/>
       <c r="O225" s="10"/>
-      <c r="P225" s="35"/>
-      <c r="Q225" s="35"/>
-      <c r="R225" s="35">
+      <c r="P225" s="34"/>
+      <c r="Q225" s="34"/>
+      <c r="R225" s="34">
         <v>10</v>
       </c>
-      <c r="S225" s="35">
+      <c r="S225" s="34">
         <v>8</v>
       </c>
       <c r="T225" s="33">
@@ -17432,14 +18635,14 @@
         <f t="shared" si="11"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N226" s="36"/>
+      <c r="N226" s="35"/>
       <c r="O226" s="10"/>
-      <c r="P226" s="35"/>
-      <c r="Q226" s="35"/>
-      <c r="R226" s="35">
+      <c r="P226" s="34"/>
+      <c r="Q226" s="34"/>
+      <c r="R226" s="34">
         <v>11</v>
       </c>
-      <c r="S226" s="35">
+      <c r="S226" s="34">
         <v>8</v>
       </c>
       <c r="T226" s="33">
@@ -17492,14 +18695,14 @@
         <f t="shared" si="11"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N227" s="36"/>
+      <c r="N227" s="35"/>
       <c r="O227" s="10"/>
-      <c r="P227" s="35"/>
-      <c r="Q227" s="35"/>
-      <c r="R227" s="35">
+      <c r="P227" s="34"/>
+      <c r="Q227" s="34"/>
+      <c r="R227" s="34">
         <v>12</v>
       </c>
-      <c r="S227" s="35">
+      <c r="S227" s="34">
         <v>8</v>
       </c>
       <c r="T227" s="33">
@@ -17552,14 +18755,14 @@
         <f t="shared" si="11"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N228" s="36"/>
+      <c r="N228" s="35"/>
       <c r="O228" s="10"/>
-      <c r="P228" s="35"/>
-      <c r="Q228" s="35"/>
-      <c r="R228" s="35">
+      <c r="P228" s="34"/>
+      <c r="Q228" s="34"/>
+      <c r="R228" s="34">
         <v>13</v>
       </c>
-      <c r="S228" s="35">
+      <c r="S228" s="34">
         <v>8</v>
       </c>
       <c r="T228" s="33">
@@ -17612,14 +18815,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N229" s="36"/>
+      <c r="N229" s="35"/>
       <c r="O229" s="10"/>
-      <c r="P229" s="35"/>
-      <c r="Q229" s="35"/>
-      <c r="R229" s="35">
+      <c r="P229" s="34"/>
+      <c r="Q229" s="34"/>
+      <c r="R229" s="34">
         <v>14</v>
       </c>
-      <c r="S229" s="35">
+      <c r="S229" s="34">
         <v>8</v>
       </c>
       <c r="T229" s="33">
@@ -17672,14 +18875,14 @@
         <f t="shared" si="11"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N230" s="36"/>
+      <c r="N230" s="35"/>
       <c r="O230" s="10"/>
-      <c r="P230" s="35"/>
-      <c r="Q230" s="35"/>
-      <c r="R230" s="35">
+      <c r="P230" s="34"/>
+      <c r="Q230" s="34"/>
+      <c r="R230" s="34">
         <v>15</v>
       </c>
-      <c r="S230" s="35">
+      <c r="S230" s="34">
         <v>8</v>
       </c>
       <c r="T230" s="33">
@@ -17732,14 +18935,14 @@
         <f t="shared" si="11"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N231" s="36"/>
+      <c r="N231" s="35"/>
       <c r="O231" s="10"/>
-      <c r="P231" s="35"/>
-      <c r="Q231" s="35"/>
-      <c r="R231" s="35">
+      <c r="P231" s="34"/>
+      <c r="Q231" s="34"/>
+      <c r="R231" s="34">
         <v>16</v>
       </c>
-      <c r="S231" s="35">
+      <c r="S231" s="34">
         <v>8</v>
       </c>
       <c r="T231" s="33">
@@ -17792,14 +18995,14 @@
         <f t="shared" si="11"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N232" s="36"/>
+      <c r="N232" s="35"/>
       <c r="O232" s="10"/>
-      <c r="P232" s="35"/>
-      <c r="Q232" s="35"/>
-      <c r="R232" s="35">
+      <c r="P232" s="34"/>
+      <c r="Q232" s="34"/>
+      <c r="R232" s="34">
         <v>17</v>
       </c>
-      <c r="S232" s="35">
+      <c r="S232" s="34">
         <v>8</v>
       </c>
       <c r="T232" s="33">
@@ -17852,14 +19055,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N233" s="36"/>
+      <c r="N233" s="35"/>
       <c r="O233" s="10"/>
-      <c r="P233" s="35"/>
-      <c r="Q233" s="35"/>
-      <c r="R233" s="35">
+      <c r="P233" s="34"/>
+      <c r="Q233" s="34"/>
+      <c r="R233" s="34">
         <v>18</v>
       </c>
-      <c r="S233" s="35">
+      <c r="S233" s="34">
         <v>8</v>
       </c>
       <c r="T233" s="33">
@@ -17912,14 +19115,14 @@
         <f t="shared" si="11"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N234" s="36"/>
+      <c r="N234" s="35"/>
       <c r="O234" s="10"/>
-      <c r="P234" s="35"/>
-      <c r="Q234" s="35"/>
-      <c r="R234" s="35">
+      <c r="P234" s="34"/>
+      <c r="Q234" s="34"/>
+      <c r="R234" s="34">
         <v>19</v>
       </c>
-      <c r="S234" s="35">
+      <c r="S234" s="34">
         <v>8</v>
       </c>
       <c r="T234" s="33">
@@ -17972,14 +19175,14 @@
         <f t="shared" si="11"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N235" s="36"/>
+      <c r="N235" s="35"/>
       <c r="O235" s="10"/>
-      <c r="P235" s="35"/>
-      <c r="Q235" s="35"/>
-      <c r="R235" s="35">
+      <c r="P235" s="34"/>
+      <c r="Q235" s="34"/>
+      <c r="R235" s="34">
         <v>20</v>
       </c>
-      <c r="S235" s="35">
+      <c r="S235" s="34">
         <v>8</v>
       </c>
       <c r="T235" s="33">
@@ -18032,14 +19235,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N236" s="36"/>
+      <c r="N236" s="35"/>
       <c r="O236" s="10"/>
-      <c r="P236" s="35"/>
-      <c r="Q236" s="35"/>
-      <c r="R236" s="35">
+      <c r="P236" s="34"/>
+      <c r="Q236" s="34"/>
+      <c r="R236" s="34">
         <v>21</v>
       </c>
-      <c r="S236" s="35">
+      <c r="S236" s="34">
         <v>8</v>
       </c>
       <c r="T236" s="33">
@@ -18092,14 +19295,14 @@
         <f t="shared" si="11"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N237" s="36"/>
+      <c r="N237" s="35"/>
       <c r="O237" s="10"/>
-      <c r="P237" s="35"/>
-      <c r="Q237" s="35"/>
-      <c r="R237" s="35">
+      <c r="P237" s="34"/>
+      <c r="Q237" s="34"/>
+      <c r="R237" s="34">
         <v>22</v>
       </c>
-      <c r="S237" s="35">
+      <c r="S237" s="34">
         <v>8</v>
       </c>
       <c r="T237" s="33">
@@ -18152,14 +19355,14 @@
         <f t="shared" si="11"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N238" s="36"/>
+      <c r="N238" s="35"/>
       <c r="O238" s="10"/>
-      <c r="P238" s="35"/>
-      <c r="Q238" s="35"/>
-      <c r="R238" s="35">
+      <c r="P238" s="34"/>
+      <c r="Q238" s="34"/>
+      <c r="R238" s="34">
         <v>23</v>
       </c>
-      <c r="S238" s="35">
+      <c r="S238" s="34">
         <v>8</v>
       </c>
       <c r="T238" s="33">
@@ -18212,14 +19415,14 @@
         <f t="shared" si="11"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N239" s="36"/>
+      <c r="N239" s="35"/>
       <c r="O239" s="10"/>
-      <c r="P239" s="35"/>
-      <c r="Q239" s="35"/>
-      <c r="R239" s="35">
+      <c r="P239" s="34"/>
+      <c r="Q239" s="34"/>
+      <c r="R239" s="34">
         <v>24</v>
       </c>
-      <c r="S239" s="35">
+      <c r="S239" s="34">
         <v>8</v>
       </c>
       <c r="T239" s="33">
@@ -18272,14 +19475,14 @@
         <f t="shared" si="11"/>
         <v>7.9861111111106942E-4</v>
       </c>
-      <c r="N240" s="36"/>
+      <c r="N240" s="35"/>
       <c r="O240" s="10"/>
-      <c r="P240" s="35"/>
-      <c r="Q240" s="35"/>
-      <c r="R240" s="35">
+      <c r="P240" s="34"/>
+      <c r="Q240" s="34"/>
+      <c r="R240" s="34">
         <v>25</v>
       </c>
-      <c r="S240" s="35">
+      <c r="S240" s="34">
         <v>8</v>
       </c>
       <c r="T240" s="33">
@@ -18332,14 +19535,14 @@
         <f t="shared" si="11"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N241" s="36"/>
+      <c r="N241" s="35"/>
       <c r="O241" s="10"/>
-      <c r="P241" s="35"/>
-      <c r="Q241" s="35"/>
-      <c r="R241" s="35">
+      <c r="P241" s="34"/>
+      <c r="Q241" s="34"/>
+      <c r="R241" s="34">
         <v>26</v>
       </c>
-      <c r="S241" s="35">
+      <c r="S241" s="34">
         <v>8</v>
       </c>
       <c r="T241" s="33">
@@ -18392,14 +19595,14 @@
         <f t="shared" si="11"/>
         <v>7.9861111111106942E-4</v>
       </c>
-      <c r="N242" s="36"/>
+      <c r="N242" s="35"/>
       <c r="O242" s="10"/>
-      <c r="P242" s="35"/>
-      <c r="Q242" s="35"/>
-      <c r="R242" s="35">
+      <c r="P242" s="34"/>
+      <c r="Q242" s="34"/>
+      <c r="R242" s="34">
         <v>27</v>
       </c>
-      <c r="S242" s="35">
+      <c r="S242" s="34">
         <v>8</v>
       </c>
       <c r="T242" s="33">
@@ -18452,14 +19655,14 @@
         <f t="shared" si="11"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N243" s="36"/>
+      <c r="N243" s="35"/>
       <c r="O243" s="10"/>
-      <c r="P243" s="35"/>
-      <c r="Q243" s="35"/>
-      <c r="R243" s="35">
+      <c r="P243" s="34"/>
+      <c r="Q243" s="34"/>
+      <c r="R243" s="34">
         <v>28</v>
       </c>
-      <c r="S243" s="35">
+      <c r="S243" s="34">
         <v>8</v>
       </c>
       <c r="T243" s="33">
@@ -18512,14 +19715,14 @@
         <f t="shared" si="11"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N244" s="36"/>
+      <c r="N244" s="35"/>
       <c r="O244" s="10"/>
-      <c r="P244" s="35"/>
-      <c r="Q244" s="35"/>
-      <c r="R244" s="35">
+      <c r="P244" s="34"/>
+      <c r="Q244" s="34"/>
+      <c r="R244" s="34">
         <v>29</v>
       </c>
-      <c r="S244" s="35">
+      <c r="S244" s="34">
         <v>8</v>
       </c>
       <c r="T244" s="33">
@@ -18572,14 +19775,14 @@
         <f>C246-C245</f>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N245" s="36"/>
+      <c r="N245" s="35"/>
       <c r="O245" s="10"/>
-      <c r="P245" s="35"/>
-      <c r="Q245" s="35"/>
-      <c r="R245" s="35">
+      <c r="P245" s="34"/>
+      <c r="Q245" s="34"/>
+      <c r="R245" s="34">
         <v>30</v>
       </c>
-      <c r="S245" s="35">
+      <c r="S245" s="34">
         <v>8</v>
       </c>
       <c r="T245" s="33">
@@ -18632,14 +19835,14 @@
         <f t="shared" ref="M246:M257" si="13">C247-C246</f>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N246" s="36"/>
+      <c r="N246" s="35"/>
       <c r="O246" s="10"/>
-      <c r="P246" s="35"/>
-      <c r="Q246" s="35"/>
-      <c r="R246" s="35">
+      <c r="P246" s="34"/>
+      <c r="Q246" s="34"/>
+      <c r="R246" s="34">
         <v>31</v>
       </c>
-      <c r="S246" s="35">
+      <c r="S246" s="34">
         <v>8</v>
       </c>
       <c r="T246" s="33">
@@ -18692,14 +19895,14 @@
         <f t="shared" si="13"/>
         <v>7.8703703703708605E-4</v>
       </c>
-      <c r="N247" s="36"/>
+      <c r="N247" s="35"/>
       <c r="O247" s="10"/>
-      <c r="P247" s="35"/>
-      <c r="Q247" s="35"/>
-      <c r="R247" s="35">
+      <c r="P247" s="34"/>
+      <c r="Q247" s="34"/>
+      <c r="R247" s="34">
         <v>1</v>
       </c>
-      <c r="S247" s="35">
+      <c r="S247" s="34">
         <v>9</v>
       </c>
       <c r="T247" s="33">
@@ -18752,14 +19955,14 @@
         <f t="shared" si="13"/>
         <v>7.8703703703697503E-4</v>
       </c>
-      <c r="N248" s="36"/>
+      <c r="N248" s="35"/>
       <c r="O248" s="10"/>
-      <c r="P248" s="35"/>
-      <c r="Q248" s="35"/>
-      <c r="R248" s="35">
+      <c r="P248" s="34"/>
+      <c r="Q248" s="34"/>
+      <c r="R248" s="34">
         <v>2</v>
       </c>
-      <c r="S248" s="35">
+      <c r="S248" s="34">
         <v>9</v>
       </c>
       <c r="T248" s="33">
@@ -18812,14 +20015,14 @@
         <f t="shared" si="13"/>
         <v>7.8703703703708605E-4</v>
       </c>
-      <c r="N249" s="36"/>
+      <c r="N249" s="35"/>
       <c r="O249" s="10"/>
-      <c r="P249" s="35"/>
-      <c r="Q249" s="35"/>
-      <c r="R249" s="35">
+      <c r="P249" s="34"/>
+      <c r="Q249" s="34"/>
+      <c r="R249" s="34">
         <v>3</v>
       </c>
-      <c r="S249" s="35">
+      <c r="S249" s="34">
         <v>9</v>
       </c>
       <c r="T249" s="33">
@@ -18872,14 +20075,14 @@
         <f t="shared" si="13"/>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N250" s="36"/>
+      <c r="N250" s="35"/>
       <c r="O250" s="10"/>
-      <c r="P250" s="35"/>
-      <c r="Q250" s="35"/>
-      <c r="R250" s="35">
+      <c r="P250" s="34"/>
+      <c r="Q250" s="34"/>
+      <c r="R250" s="34">
         <v>4</v>
       </c>
-      <c r="S250" s="35">
+      <c r="S250" s="34">
         <v>9</v>
       </c>
       <c r="T250" s="33">
@@ -18932,14 +20135,14 @@
         <f t="shared" si="13"/>
         <v>7.7546296296293615E-4</v>
       </c>
-      <c r="N251" s="36"/>
+      <c r="N251" s="35"/>
       <c r="O251" s="10"/>
-      <c r="P251" s="35"/>
-      <c r="Q251" s="35"/>
-      <c r="R251" s="35">
+      <c r="P251" s="34"/>
+      <c r="Q251" s="34"/>
+      <c r="R251" s="34">
         <v>5</v>
       </c>
-      <c r="S251" s="35">
+      <c r="S251" s="34">
         <v>9</v>
       </c>
       <c r="T251" s="33">
@@ -18992,14 +20195,14 @@
         <f t="shared" si="13"/>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N252" s="36"/>
+      <c r="N252" s="35"/>
       <c r="O252" s="10"/>
-      <c r="P252" s="35"/>
-      <c r="Q252" s="35"/>
-      <c r="R252" s="35">
+      <c r="P252" s="34"/>
+      <c r="Q252" s="34"/>
+      <c r="R252" s="34">
         <v>6</v>
       </c>
-      <c r="S252" s="35">
+      <c r="S252" s="34">
         <v>9</v>
       </c>
       <c r="T252" s="33">
@@ -19052,14 +20255,14 @@
         <f t="shared" si="13"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N253" s="36"/>
+      <c r="N253" s="35"/>
       <c r="O253" s="10"/>
-      <c r="P253" s="35"/>
-      <c r="Q253" s="35"/>
-      <c r="R253" s="35">
+      <c r="P253" s="34"/>
+      <c r="Q253" s="34"/>
+      <c r="R253" s="34">
         <v>7</v>
       </c>
-      <c r="S253" s="35">
+      <c r="S253" s="34">
         <v>9</v>
       </c>
       <c r="T253" s="33">
@@ -19112,14 +20315,14 @@
         <f t="shared" si="13"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N254" s="36"/>
+      <c r="N254" s="35"/>
       <c r="O254" s="10"/>
-      <c r="P254" s="35"/>
-      <c r="Q254" s="35"/>
-      <c r="R254" s="35">
+      <c r="P254" s="34"/>
+      <c r="Q254" s="34"/>
+      <c r="R254" s="34">
         <v>8</v>
       </c>
-      <c r="S254" s="35">
+      <c r="S254" s="34">
         <v>9</v>
       </c>
       <c r="T254" s="33">
@@ -19172,14 +20375,14 @@
         <f t="shared" si="13"/>
         <v>7.7546296296293615E-4</v>
       </c>
-      <c r="N255" s="36"/>
+      <c r="N255" s="35"/>
       <c r="O255" s="10"/>
-      <c r="P255" s="35"/>
-      <c r="Q255" s="35"/>
-      <c r="R255" s="35">
+      <c r="P255" s="34"/>
+      <c r="Q255" s="34"/>
+      <c r="R255" s="34">
         <v>9</v>
       </c>
-      <c r="S255" s="35">
+      <c r="S255" s="34">
         <v>9</v>
       </c>
       <c r="T255" s="33">
@@ -19232,14 +20435,14 @@
         <f t="shared" si="13"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N256" s="36"/>
+      <c r="N256" s="35"/>
       <c r="O256" s="10"/>
-      <c r="P256" s="35"/>
-      <c r="Q256" s="35"/>
-      <c r="R256" s="35">
+      <c r="P256" s="34"/>
+      <c r="Q256" s="34"/>
+      <c r="R256" s="34">
         <v>10</v>
       </c>
-      <c r="S256" s="35">
+      <c r="S256" s="34">
         <v>9</v>
       </c>
       <c r="T256" s="33">
@@ -19292,14 +20495,14 @@
         <f t="shared" si="13"/>
         <v>7.7546296296293615E-4</v>
       </c>
-      <c r="N257" s="36"/>
+      <c r="N257" s="35"/>
       <c r="O257" s="10"/>
-      <c r="P257" s="35"/>
-      <c r="Q257" s="35"/>
-      <c r="R257" s="35">
+      <c r="P257" s="34"/>
+      <c r="Q257" s="34"/>
+      <c r="R257" s="34">
         <v>11</v>
       </c>
-      <c r="S257" s="35">
+      <c r="S257" s="34">
         <v>9</v>
       </c>
       <c r="T257" s="33">
@@ -19352,14 +20555,14 @@
         <f>C259-C258</f>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N258" s="36"/>
+      <c r="N258" s="35"/>
       <c r="O258" s="10"/>
-      <c r="P258" s="35"/>
-      <c r="Q258" s="35"/>
-      <c r="R258" s="35">
+      <c r="P258" s="34"/>
+      <c r="Q258" s="34"/>
+      <c r="R258" s="34">
         <v>12</v>
       </c>
-      <c r="S258" s="35">
+      <c r="S258" s="34">
         <v>9</v>
       </c>
       <c r="T258" s="33">
@@ -19412,13 +20615,13 @@
         <f>C260-C259</f>
         <v>7.7546296296293615E-4</v>
       </c>
-      <c r="N259" s="36"/>
-      <c r="P259" s="35"/>
-      <c r="Q259" s="35"/>
-      <c r="R259" s="35">
+      <c r="N259" s="35"/>
+      <c r="P259" s="34"/>
+      <c r="Q259" s="34"/>
+      <c r="R259" s="34">
         <v>13</v>
       </c>
-      <c r="S259" s="35">
+      <c r="S259" s="34">
         <v>9</v>
       </c>
       <c r="T259" s="33">
@@ -19471,13 +20674,13 @@
         <f t="shared" ref="M260:M323" si="14">C261-C260</f>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N260" s="36"/>
-      <c r="P260" s="35"/>
-      <c r="Q260" s="35"/>
-      <c r="R260" s="35">
+      <c r="N260" s="35"/>
+      <c r="P260" s="34"/>
+      <c r="Q260" s="34"/>
+      <c r="R260" s="34">
         <v>14</v>
       </c>
-      <c r="S260" s="35">
+      <c r="S260" s="34">
         <v>9</v>
       </c>
       <c r="T260" s="33">
@@ -19530,13 +20733,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N261" s="36"/>
-      <c r="P261" s="35"/>
-      <c r="Q261" s="35"/>
-      <c r="R261" s="35">
+      <c r="N261" s="35"/>
+      <c r="P261" s="34"/>
+      <c r="Q261" s="34"/>
+      <c r="R261" s="34">
         <v>15</v>
       </c>
-      <c r="S261" s="35">
+      <c r="S261" s="34">
         <v>9</v>
       </c>
       <c r="T261" s="33">
@@ -19589,13 +20792,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N262" s="36"/>
-      <c r="P262" s="35"/>
-      <c r="Q262" s="35"/>
-      <c r="R262" s="35">
+      <c r="N262" s="35"/>
+      <c r="P262" s="34"/>
+      <c r="Q262" s="34"/>
+      <c r="R262" s="34">
         <v>16</v>
       </c>
-      <c r="S262" s="35">
+      <c r="S262" s="34">
         <v>9</v>
       </c>
       <c r="T262" s="33">
@@ -19648,13 +20851,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888884177E-4</v>
       </c>
-      <c r="N263" s="36"/>
-      <c r="P263" s="35"/>
-      <c r="Q263" s="35"/>
-      <c r="R263" s="35">
+      <c r="N263" s="35"/>
+      <c r="P263" s="34"/>
+      <c r="Q263" s="34"/>
+      <c r="R263" s="34">
         <v>17</v>
       </c>
-      <c r="S263" s="35">
+      <c r="S263" s="34">
         <v>9</v>
       </c>
       <c r="T263" s="33">
@@ -19707,13 +20910,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N264" s="36"/>
-      <c r="P264" s="35"/>
-      <c r="Q264" s="35"/>
-      <c r="R264" s="35">
+      <c r="N264" s="35"/>
+      <c r="P264" s="34"/>
+      <c r="Q264" s="34"/>
+      <c r="R264" s="34">
         <v>18</v>
       </c>
-      <c r="S264" s="35">
+      <c r="S264" s="34">
         <v>9</v>
       </c>
       <c r="T264" s="33">
@@ -19766,13 +20969,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N265" s="36"/>
-      <c r="P265" s="35"/>
-      <c r="Q265" s="35"/>
-      <c r="R265" s="35">
+      <c r="N265" s="35"/>
+      <c r="P265" s="34"/>
+      <c r="Q265" s="34"/>
+      <c r="R265" s="34">
         <v>19</v>
       </c>
-      <c r="S265" s="35">
+      <c r="S265" s="34">
         <v>9</v>
       </c>
       <c r="T265" s="33">
@@ -19825,13 +21028,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N266" s="36"/>
-      <c r="P266" s="35"/>
-      <c r="Q266" s="35"/>
-      <c r="R266" s="35">
+      <c r="N266" s="35"/>
+      <c r="P266" s="34"/>
+      <c r="Q266" s="34"/>
+      <c r="R266" s="34">
         <v>20</v>
       </c>
-      <c r="S266" s="35">
+      <c r="S266" s="34">
         <v>9</v>
       </c>
       <c r="T266" s="33">
@@ -19884,13 +21087,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N267" s="36"/>
-      <c r="P267" s="35"/>
-      <c r="Q267" s="35"/>
-      <c r="R267" s="35">
+      <c r="N267" s="35"/>
+      <c r="P267" s="34"/>
+      <c r="Q267" s="34"/>
+      <c r="R267" s="34">
         <v>21</v>
       </c>
-      <c r="S267" s="35">
+      <c r="S267" s="34">
         <v>9</v>
       </c>
       <c r="T267" s="33">
@@ -19943,13 +21146,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N268" s="36"/>
-      <c r="P268" s="35"/>
-      <c r="Q268" s="35"/>
-      <c r="R268" s="35">
+      <c r="N268" s="35"/>
+      <c r="P268" s="34"/>
+      <c r="Q268" s="34"/>
+      <c r="R268" s="34">
         <v>22</v>
       </c>
-      <c r="S268" s="35">
+      <c r="S268" s="34">
         <v>9</v>
       </c>
       <c r="T268" s="33">
@@ -20002,13 +21205,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N269" s="36"/>
-      <c r="P269" s="35"/>
-      <c r="Q269" s="35"/>
-      <c r="R269" s="35">
+      <c r="N269" s="35"/>
+      <c r="P269" s="34"/>
+      <c r="Q269" s="34"/>
+      <c r="R269" s="34">
         <v>23</v>
       </c>
-      <c r="S269" s="35">
+      <c r="S269" s="34">
         <v>9</v>
       </c>
       <c r="T269" s="33">
@@ -20061,13 +21264,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N270" s="36"/>
-      <c r="P270" s="35"/>
-      <c r="Q270" s="35"/>
-      <c r="R270" s="35">
+      <c r="N270" s="35"/>
+      <c r="P270" s="34"/>
+      <c r="Q270" s="34"/>
+      <c r="R270" s="34">
         <v>24</v>
       </c>
-      <c r="S270" s="35">
+      <c r="S270" s="34">
         <v>9</v>
       </c>
       <c r="T270" s="33">
@@ -20120,13 +21323,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888884177E-4</v>
       </c>
-      <c r="N271" s="36"/>
-      <c r="P271" s="35"/>
-      <c r="Q271" s="35"/>
-      <c r="R271" s="35">
+      <c r="N271" s="35"/>
+      <c r="P271" s="34"/>
+      <c r="Q271" s="34"/>
+      <c r="R271" s="34">
         <v>25</v>
       </c>
-      <c r="S271" s="35">
+      <c r="S271" s="34">
         <v>9</v>
       </c>
       <c r="T271" s="33">
@@ -20179,13 +21382,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N272" s="36"/>
-      <c r="P272" s="35"/>
-      <c r="Q272" s="35"/>
-      <c r="R272" s="35">
+      <c r="N272" s="35"/>
+      <c r="P272" s="34"/>
+      <c r="Q272" s="34"/>
+      <c r="R272" s="34">
         <v>26</v>
       </c>
-      <c r="S272" s="35">
+      <c r="S272" s="34">
         <v>9</v>
       </c>
       <c r="T272" s="33">
@@ -20238,13 +21441,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N273" s="36"/>
-      <c r="P273" s="35"/>
-      <c r="Q273" s="35"/>
-      <c r="R273" s="35">
+      <c r="N273" s="35"/>
+      <c r="P273" s="34"/>
+      <c r="Q273" s="34"/>
+      <c r="R273" s="34">
         <v>27</v>
       </c>
-      <c r="S273" s="35">
+      <c r="S273" s="34">
         <v>9</v>
       </c>
       <c r="T273" s="33">
@@ -20297,13 +21500,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N274" s="36"/>
-      <c r="P274" s="35"/>
-      <c r="Q274" s="35"/>
-      <c r="R274" s="35">
+      <c r="N274" s="35"/>
+      <c r="P274" s="34"/>
+      <c r="Q274" s="34"/>
+      <c r="R274" s="34">
         <v>28</v>
       </c>
-      <c r="S274" s="35">
+      <c r="S274" s="34">
         <v>9</v>
       </c>
       <c r="T274" s="33">
@@ -20356,13 +21559,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N275" s="36"/>
-      <c r="P275" s="35"/>
-      <c r="Q275" s="35"/>
-      <c r="R275" s="35">
+      <c r="N275" s="35"/>
+      <c r="P275" s="34"/>
+      <c r="Q275" s="34"/>
+      <c r="R275" s="34">
         <v>29</v>
       </c>
-      <c r="S275" s="35">
+      <c r="S275" s="34">
         <v>9</v>
       </c>
       <c r="T275" s="33">
@@ -20415,13 +21618,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296293615E-4</v>
       </c>
-      <c r="N276" s="36"/>
-      <c r="P276" s="35"/>
-      <c r="Q276" s="35"/>
-      <c r="R276" s="35">
+      <c r="N276" s="35"/>
+      <c r="P276" s="34"/>
+      <c r="Q276" s="34"/>
+      <c r="R276" s="34">
         <v>30</v>
       </c>
-      <c r="S276" s="35">
+      <c r="S276" s="34">
         <v>9</v>
       </c>
       <c r="T276" s="33">
@@ -20474,13 +21677,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N277" s="36"/>
-      <c r="P277" s="35"/>
-      <c r="Q277" s="35"/>
-      <c r="R277" s="35">
+      <c r="N277" s="35"/>
+      <c r="P277" s="34"/>
+      <c r="Q277" s="34"/>
+      <c r="R277" s="34">
         <v>1</v>
       </c>
-      <c r="S277" s="35">
+      <c r="S277" s="34">
         <v>10</v>
       </c>
       <c r="T277" s="33">
@@ -20533,13 +21736,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N278" s="36"/>
-      <c r="P278" s="35"/>
-      <c r="Q278" s="35"/>
-      <c r="R278" s="35">
+      <c r="N278" s="35"/>
+      <c r="P278" s="34"/>
+      <c r="Q278" s="34"/>
+      <c r="R278" s="34">
         <v>2</v>
       </c>
-      <c r="S278" s="35">
+      <c r="S278" s="34">
         <v>10</v>
       </c>
       <c r="T278" s="33">
@@ -20592,13 +21795,13 @@
         <f t="shared" si="14"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N279" s="36"/>
-      <c r="P279" s="35"/>
-      <c r="Q279" s="35"/>
-      <c r="R279" s="35">
+      <c r="N279" s="35"/>
+      <c r="P279" s="34"/>
+      <c r="Q279" s="34"/>
+      <c r="R279" s="34">
         <v>3</v>
       </c>
-      <c r="S279" s="35">
+      <c r="S279" s="34">
         <v>10</v>
       </c>
       <c r="T279" s="33">
@@ -20651,13 +21854,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296293615E-4</v>
       </c>
-      <c r="N280" s="36"/>
-      <c r="P280" s="35"/>
-      <c r="Q280" s="35"/>
-      <c r="R280" s="35">
+      <c r="N280" s="35"/>
+      <c r="P280" s="34"/>
+      <c r="Q280" s="34"/>
+      <c r="R280" s="34">
         <v>4</v>
       </c>
-      <c r="S280" s="35">
+      <c r="S280" s="34">
         <v>10</v>
       </c>
       <c r="T280" s="33">
@@ -20710,13 +21913,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296293615E-4</v>
       </c>
-      <c r="N281" s="36"/>
-      <c r="P281" s="35"/>
-      <c r="Q281" s="35"/>
-      <c r="R281" s="35">
+      <c r="N281" s="35"/>
+      <c r="P281" s="34"/>
+      <c r="Q281" s="34"/>
+      <c r="R281" s="34">
         <v>5</v>
       </c>
-      <c r="S281" s="35">
+      <c r="S281" s="34">
         <v>10</v>
       </c>
       <c r="T281" s="33">
@@ -20769,13 +21972,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N282" s="36"/>
-      <c r="P282" s="35"/>
-      <c r="Q282" s="35"/>
-      <c r="R282" s="35">
+      <c r="N282" s="35"/>
+      <c r="P282" s="34"/>
+      <c r="Q282" s="34"/>
+      <c r="R282" s="34">
         <v>6</v>
       </c>
-      <c r="S282" s="35">
+      <c r="S282" s="34">
         <v>10</v>
       </c>
       <c r="T282" s="33">
@@ -20828,13 +22031,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N283" s="36"/>
-      <c r="P283" s="35"/>
-      <c r="Q283" s="35"/>
-      <c r="R283" s="35">
+      <c r="N283" s="35"/>
+      <c r="P283" s="34"/>
+      <c r="Q283" s="34"/>
+      <c r="R283" s="34">
         <v>7</v>
       </c>
-      <c r="S283" s="35">
+      <c r="S283" s="34">
         <v>10</v>
       </c>
       <c r="T283" s="33">
@@ -20887,13 +22090,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296293615E-4</v>
       </c>
-      <c r="N284" s="36"/>
-      <c r="P284" s="35"/>
-      <c r="Q284" s="35"/>
-      <c r="R284" s="35">
+      <c r="N284" s="35"/>
+      <c r="P284" s="34"/>
+      <c r="Q284" s="34"/>
+      <c r="R284" s="34">
         <v>8</v>
       </c>
-      <c r="S284" s="35">
+      <c r="S284" s="34">
         <v>10</v>
       </c>
       <c r="T284" s="33">
@@ -20946,13 +22149,13 @@
         <f t="shared" si="14"/>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N285" s="36"/>
-      <c r="P285" s="35"/>
-      <c r="Q285" s="35"/>
-      <c r="R285" s="35">
+      <c r="N285" s="35"/>
+      <c r="P285" s="34"/>
+      <c r="Q285" s="34"/>
+      <c r="R285" s="34">
         <v>9</v>
       </c>
-      <c r="S285" s="35">
+      <c r="S285" s="34">
         <v>10</v>
       </c>
       <c r="T285" s="33">
@@ -21005,13 +22208,13 @@
         <f t="shared" si="14"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N286" s="36"/>
-      <c r="P286" s="35"/>
-      <c r="Q286" s="35"/>
-      <c r="R286" s="35">
+      <c r="N286" s="35"/>
+      <c r="P286" s="34"/>
+      <c r="Q286" s="34"/>
+      <c r="R286" s="34">
         <v>10</v>
       </c>
-      <c r="S286" s="35">
+      <c r="S286" s="34">
         <v>10</v>
       </c>
       <c r="T286" s="33">
@@ -21064,13 +22267,13 @@
         <f t="shared" si="14"/>
         <v>7.8703703703697503E-4</v>
       </c>
-      <c r="N287" s="36"/>
-      <c r="P287" s="35"/>
-      <c r="Q287" s="35"/>
-      <c r="R287" s="35">
+      <c r="N287" s="35"/>
+      <c r="P287" s="34"/>
+      <c r="Q287" s="34"/>
+      <c r="R287" s="34">
         <v>11</v>
       </c>
-      <c r="S287" s="35">
+      <c r="S287" s="34">
         <v>10</v>
       </c>
       <c r="T287" s="33">
@@ -21123,13 +22326,13 @@
         <f t="shared" si="14"/>
         <v>7.8703703703708605E-4</v>
       </c>
-      <c r="N288" s="36"/>
-      <c r="P288" s="35"/>
-      <c r="Q288" s="35"/>
-      <c r="R288" s="35">
+      <c r="N288" s="35"/>
+      <c r="P288" s="34"/>
+      <c r="Q288" s="34"/>
+      <c r="R288" s="34">
         <v>12</v>
       </c>
-      <c r="S288" s="35">
+      <c r="S288" s="34">
         <v>10</v>
       </c>
       <c r="T288" s="33">
@@ -21182,13 +22385,13 @@
         <f t="shared" si="14"/>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N289" s="36"/>
-      <c r="P289" s="35"/>
-      <c r="Q289" s="35"/>
-      <c r="R289" s="35">
+      <c r="N289" s="35"/>
+      <c r="P289" s="34"/>
+      <c r="Q289" s="34"/>
+      <c r="R289" s="34">
         <v>13</v>
       </c>
-      <c r="S289" s="35">
+      <c r="S289" s="34">
         <v>10</v>
       </c>
       <c r="T289" s="33">
@@ -21241,13 +22444,13 @@
         <f t="shared" si="14"/>
         <v>7.8703703703703054E-4</v>
       </c>
-      <c r="N290" s="36"/>
-      <c r="P290" s="35"/>
-      <c r="Q290" s="35"/>
-      <c r="R290" s="35">
+      <c r="N290" s="35"/>
+      <c r="P290" s="34"/>
+      <c r="Q290" s="34"/>
+      <c r="R290" s="34">
         <v>14</v>
       </c>
-      <c r="S290" s="35">
+      <c r="S290" s="34">
         <v>10</v>
       </c>
       <c r="T290" s="33">
@@ -21300,13 +22503,13 @@
         <f t="shared" si="14"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N291" s="36"/>
-      <c r="P291" s="35"/>
-      <c r="Q291" s="35"/>
-      <c r="R291" s="35">
+      <c r="N291" s="35"/>
+      <c r="P291" s="34"/>
+      <c r="Q291" s="34"/>
+      <c r="R291" s="34">
         <v>15</v>
       </c>
-      <c r="S291" s="35">
+      <c r="S291" s="34">
         <v>10</v>
       </c>
       <c r="T291" s="33">
@@ -21359,13 +22562,13 @@
         <f t="shared" si="14"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N292" s="36"/>
-      <c r="P292" s="35"/>
-      <c r="Q292" s="35"/>
-      <c r="R292" s="35">
+      <c r="N292" s="35"/>
+      <c r="P292" s="34"/>
+      <c r="Q292" s="34"/>
+      <c r="R292" s="34">
         <v>16</v>
       </c>
-      <c r="S292" s="35">
+      <c r="S292" s="34">
         <v>10</v>
       </c>
       <c r="T292" s="33">
@@ -21418,13 +22621,13 @@
         <f t="shared" si="14"/>
         <v>7.8703703703697503E-4</v>
       </c>
-      <c r="N293" s="36"/>
-      <c r="P293" s="35"/>
-      <c r="Q293" s="35"/>
-      <c r="R293" s="35">
+      <c r="N293" s="35"/>
+      <c r="P293" s="34"/>
+      <c r="Q293" s="34"/>
+      <c r="R293" s="34">
         <v>17</v>
       </c>
-      <c r="S293" s="35">
+      <c r="S293" s="34">
         <v>10</v>
       </c>
       <c r="T293" s="33">
@@ -21477,13 +22680,13 @@
         <f t="shared" si="14"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N294" s="36"/>
-      <c r="P294" s="35"/>
-      <c r="Q294" s="35"/>
-      <c r="R294" s="35">
+      <c r="N294" s="35"/>
+      <c r="P294" s="34"/>
+      <c r="Q294" s="34"/>
+      <c r="R294" s="34">
         <v>18</v>
       </c>
-      <c r="S294" s="35">
+      <c r="S294" s="34">
         <v>10</v>
       </c>
       <c r="T294" s="33">
@@ -21536,13 +22739,13 @@
         <f t="shared" si="14"/>
         <v>7.9861111111106942E-4</v>
       </c>
-      <c r="N295" s="36"/>
-      <c r="P295" s="35"/>
-      <c r="Q295" s="35"/>
-      <c r="R295" s="35">
+      <c r="N295" s="35"/>
+      <c r="P295" s="34"/>
+      <c r="Q295" s="34"/>
+      <c r="R295" s="34">
         <v>19</v>
       </c>
-      <c r="S295" s="35">
+      <c r="S295" s="34">
         <v>10</v>
       </c>
       <c r="T295" s="33">
@@ -21595,13 +22798,13 @@
         <f t="shared" si="14"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N296" s="36"/>
-      <c r="P296" s="35"/>
-      <c r="Q296" s="35"/>
-      <c r="R296" s="35">
+      <c r="N296" s="35"/>
+      <c r="P296" s="34"/>
+      <c r="Q296" s="34"/>
+      <c r="R296" s="34">
         <v>20</v>
       </c>
-      <c r="S296" s="35">
+      <c r="S296" s="34">
         <v>10</v>
       </c>
       <c r="T296" s="33">
@@ -21654,13 +22857,13 @@
         <f t="shared" si="14"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N297" s="36"/>
-      <c r="P297" s="35"/>
-      <c r="Q297" s="35"/>
-      <c r="R297" s="35">
+      <c r="N297" s="35"/>
+      <c r="P297" s="34"/>
+      <c r="Q297" s="34"/>
+      <c r="R297" s="34">
         <v>21</v>
       </c>
-      <c r="S297" s="35">
+      <c r="S297" s="34">
         <v>10</v>
       </c>
       <c r="T297" s="33">
@@ -21713,13 +22916,13 @@
         <f t="shared" si="14"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N298" s="36"/>
-      <c r="P298" s="35"/>
-      <c r="Q298" s="35"/>
-      <c r="R298" s="35">
+      <c r="N298" s="35"/>
+      <c r="P298" s="34"/>
+      <c r="Q298" s="34"/>
+      <c r="R298" s="34">
         <v>22</v>
       </c>
-      <c r="S298" s="35">
+      <c r="S298" s="34">
         <v>10</v>
       </c>
       <c r="T298" s="33">
@@ -21772,13 +22975,13 @@
         <f t="shared" si="14"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N299" s="36"/>
-      <c r="P299" s="35"/>
-      <c r="Q299" s="35"/>
-      <c r="R299" s="35">
+      <c r="N299" s="35"/>
+      <c r="P299" s="34"/>
+      <c r="Q299" s="34"/>
+      <c r="R299" s="34">
         <v>23</v>
       </c>
-      <c r="S299" s="35">
+      <c r="S299" s="34">
         <v>10</v>
       </c>
       <c r="T299" s="33">
@@ -21831,13 +23034,13 @@
         <f t="shared" si="14"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N300" s="36"/>
-      <c r="P300" s="35"/>
-      <c r="Q300" s="35"/>
-      <c r="R300" s="35">
+      <c r="N300" s="35"/>
+      <c r="P300" s="34"/>
+      <c r="Q300" s="34"/>
+      <c r="R300" s="34">
         <v>24</v>
       </c>
-      <c r="S300" s="35">
+      <c r="S300" s="34">
         <v>10</v>
       </c>
       <c r="T300" s="33">
@@ -21890,13 +23093,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N301" s="36"/>
-      <c r="P301" s="35"/>
-      <c r="Q301" s="35"/>
-      <c r="R301" s="35">
+      <c r="N301" s="35"/>
+      <c r="P301" s="34"/>
+      <c r="Q301" s="34"/>
+      <c r="R301" s="34">
         <v>25</v>
       </c>
-      <c r="S301" s="35">
+      <c r="S301" s="34">
         <v>10</v>
       </c>
       <c r="T301" s="33">
@@ -21949,13 +23152,13 @@
         <f t="shared" si="14"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N302" s="36"/>
-      <c r="P302" s="35"/>
-      <c r="Q302" s="35"/>
-      <c r="R302" s="35">
+      <c r="N302" s="35"/>
+      <c r="P302" s="34"/>
+      <c r="Q302" s="34"/>
+      <c r="R302" s="34">
         <v>26</v>
       </c>
-      <c r="S302" s="35">
+      <c r="S302" s="34">
         <v>10</v>
       </c>
       <c r="T302" s="33">
@@ -22008,13 +23211,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925920268E-4</v>
       </c>
-      <c r="N303" s="36"/>
-      <c r="P303" s="35"/>
-      <c r="Q303" s="35"/>
-      <c r="R303" s="35">
+      <c r="N303" s="35"/>
+      <c r="P303" s="34"/>
+      <c r="Q303" s="34"/>
+      <c r="R303" s="34">
         <v>27</v>
       </c>
-      <c r="S303" s="35">
+      <c r="S303" s="34">
         <v>10</v>
       </c>
       <c r="T303" s="33">
@@ -22067,13 +23270,13 @@
         <f t="shared" si="14"/>
         <v>8.217592592593137E-4</v>
       </c>
-      <c r="N304" s="36"/>
-      <c r="P304" s="35"/>
-      <c r="Q304" s="35"/>
-      <c r="R304" s="35">
+      <c r="N304" s="35"/>
+      <c r="P304" s="34"/>
+      <c r="Q304" s="34"/>
+      <c r="R304" s="34">
         <v>28</v>
       </c>
-      <c r="S304" s="35">
+      <c r="S304" s="34">
         <v>10</v>
       </c>
       <c r="T304" s="33">
@@ -22126,13 +23329,13 @@
         <f t="shared" si="14"/>
         <v>-4.0844907407407427E-2</v>
       </c>
-      <c r="N305" s="36"/>
-      <c r="P305" s="35"/>
-      <c r="Q305" s="35"/>
-      <c r="R305" s="35">
+      <c r="N305" s="35"/>
+      <c r="P305" s="34"/>
+      <c r="Q305" s="34"/>
+      <c r="R305" s="34">
         <v>29</v>
       </c>
-      <c r="S305" s="35">
+      <c r="S305" s="34">
         <v>10</v>
       </c>
       <c r="T305" s="33">
@@ -22185,14 +23388,14 @@
         <f t="shared" si="14"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N306" s="36"/>
+      <c r="N306" s="35"/>
       <c r="O306" s="20"/>
-      <c r="P306" s="35"/>
-      <c r="Q306" s="35"/>
-      <c r="R306" s="35">
+      <c r="P306" s="34"/>
+      <c r="Q306" s="34"/>
+      <c r="R306" s="34">
         <v>30</v>
       </c>
-      <c r="S306" s="35">
+      <c r="S306" s="34">
         <v>10</v>
       </c>
       <c r="T306" s="32">
@@ -22245,13 +23448,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N307" s="36"/>
-      <c r="P307" s="35"/>
-      <c r="Q307" s="35"/>
-      <c r="R307" s="35">
+      <c r="N307" s="35"/>
+      <c r="P307" s="34"/>
+      <c r="Q307" s="34"/>
+      <c r="R307" s="34">
         <v>31</v>
       </c>
-      <c r="S307" s="35">
+      <c r="S307" s="34">
         <v>10</v>
       </c>
       <c r="T307" s="33">
@@ -22304,13 +23507,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N308" s="36"/>
-      <c r="P308" s="35"/>
-      <c r="Q308" s="35"/>
-      <c r="R308" s="35">
+      <c r="N308" s="35"/>
+      <c r="P308" s="34"/>
+      <c r="Q308" s="34"/>
+      <c r="R308" s="34">
         <v>1</v>
       </c>
-      <c r="S308" s="35">
+      <c r="S308" s="34">
         <v>11</v>
       </c>
       <c r="T308" s="33">
@@ -22363,13 +23566,13 @@
         <f t="shared" si="14"/>
         <v>8.3333333333329707E-4</v>
       </c>
-      <c r="N309" s="36"/>
-      <c r="P309" s="35"/>
-      <c r="Q309" s="35"/>
-      <c r="R309" s="35">
+      <c r="N309" s="35"/>
+      <c r="P309" s="34"/>
+      <c r="Q309" s="34"/>
+      <c r="R309" s="34">
         <v>2</v>
       </c>
-      <c r="S309" s="35">
+      <c r="S309" s="34">
         <v>11</v>
       </c>
       <c r="T309" s="33">
@@ -22422,13 +23625,13 @@
         <f t="shared" si="14"/>
         <v>8.217592592593137E-4</v>
       </c>
-      <c r="N310" s="36"/>
-      <c r="P310" s="35"/>
-      <c r="Q310" s="35"/>
-      <c r="R310" s="35">
+      <c r="N310" s="35"/>
+      <c r="P310" s="34"/>
+      <c r="Q310" s="34"/>
+      <c r="R310" s="34">
         <v>3</v>
       </c>
-      <c r="S310" s="35">
+      <c r="S310" s="34">
         <v>11</v>
       </c>
       <c r="T310" s="33">
@@ -22481,13 +23684,13 @@
         <f t="shared" si="14"/>
         <v>8.3333333333329707E-4</v>
       </c>
-      <c r="N311" s="36"/>
-      <c r="P311" s="35"/>
-      <c r="Q311" s="35"/>
-      <c r="R311" s="35">
+      <c r="N311" s="35"/>
+      <c r="P311" s="34"/>
+      <c r="Q311" s="34"/>
+      <c r="R311" s="34">
         <v>4</v>
       </c>
-      <c r="S311" s="35">
+      <c r="S311" s="34">
         <v>11</v>
       </c>
       <c r="T311" s="33">
@@ -22540,13 +23743,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N312" s="36"/>
-      <c r="P312" s="35"/>
-      <c r="Q312" s="35"/>
-      <c r="R312" s="35">
+      <c r="N312" s="35"/>
+      <c r="P312" s="34"/>
+      <c r="Q312" s="34"/>
+      <c r="R312" s="34">
         <v>5</v>
       </c>
-      <c r="S312" s="35">
+      <c r="S312" s="34">
         <v>11</v>
       </c>
       <c r="T312" s="33">
@@ -22599,13 +23802,13 @@
         <f t="shared" si="14"/>
         <v>8.3333333333335258E-4</v>
       </c>
-      <c r="N313" s="36"/>
-      <c r="P313" s="35"/>
-      <c r="Q313" s="35"/>
-      <c r="R313" s="35">
+      <c r="N313" s="35"/>
+      <c r="P313" s="34"/>
+      <c r="Q313" s="34"/>
+      <c r="R313" s="34">
         <v>6</v>
       </c>
-      <c r="S313" s="35">
+      <c r="S313" s="34">
         <v>11</v>
       </c>
       <c r="T313" s="33">
@@ -22658,13 +23861,13 @@
         <f t="shared" si="14"/>
         <v>8.3333333333335258E-4</v>
       </c>
-      <c r="N314" s="36"/>
-      <c r="P314" s="35"/>
-      <c r="Q314" s="35"/>
-      <c r="R314" s="35">
+      <c r="N314" s="35"/>
+      <c r="P314" s="34"/>
+      <c r="Q314" s="34"/>
+      <c r="R314" s="34">
         <v>7</v>
       </c>
-      <c r="S314" s="35">
+      <c r="S314" s="34">
         <v>11</v>
       </c>
       <c r="T314" s="33">
@@ -22717,13 +23920,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925920268E-4</v>
       </c>
-      <c r="N315" s="36"/>
-      <c r="P315" s="35"/>
-      <c r="Q315" s="35"/>
-      <c r="R315" s="35">
+      <c r="N315" s="35"/>
+      <c r="P315" s="34"/>
+      <c r="Q315" s="34"/>
+      <c r="R315" s="34">
         <v>8</v>
       </c>
-      <c r="S315" s="35">
+      <c r="S315" s="34">
         <v>11</v>
       </c>
       <c r="T315" s="33">
@@ -22776,13 +23979,13 @@
         <f t="shared" si="14"/>
         <v>8.217592592593137E-4</v>
       </c>
-      <c r="N316" s="36"/>
-      <c r="P316" s="35"/>
-      <c r="Q316" s="35"/>
-      <c r="R316" s="35">
+      <c r="N316" s="35"/>
+      <c r="P316" s="34"/>
+      <c r="Q316" s="34"/>
+      <c r="R316" s="34">
         <v>9</v>
       </c>
-      <c r="S316" s="35">
+      <c r="S316" s="34">
         <v>11</v>
       </c>
       <c r="T316" s="33">
@@ -22835,13 +24038,13 @@
         <f t="shared" si="14"/>
         <v>8.3333333333329707E-4</v>
       </c>
-      <c r="N317" s="36"/>
-      <c r="P317" s="35"/>
-      <c r="Q317" s="35"/>
-      <c r="R317" s="35">
+      <c r="N317" s="35"/>
+      <c r="P317" s="34"/>
+      <c r="Q317" s="34"/>
+      <c r="R317" s="34">
         <v>10</v>
       </c>
-      <c r="S317" s="35">
+      <c r="S317" s="34">
         <v>11</v>
       </c>
       <c r="T317" s="33">
@@ -22894,13 +24097,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N318" s="36"/>
-      <c r="P318" s="35"/>
-      <c r="Q318" s="35"/>
-      <c r="R318" s="35">
+      <c r="N318" s="35"/>
+      <c r="P318" s="34"/>
+      <c r="Q318" s="34"/>
+      <c r="R318" s="34">
         <v>11</v>
       </c>
-      <c r="S318" s="35">
+      <c r="S318" s="34">
         <v>11</v>
       </c>
       <c r="T318" s="33">
@@ -22953,13 +24156,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N319" s="36"/>
-      <c r="P319" s="35"/>
-      <c r="Q319" s="35"/>
-      <c r="R319" s="35">
+      <c r="N319" s="35"/>
+      <c r="P319" s="34"/>
+      <c r="Q319" s="34"/>
+      <c r="R319" s="34">
         <v>12</v>
       </c>
-      <c r="S319" s="35">
+      <c r="S319" s="34">
         <v>11</v>
       </c>
       <c r="T319" s="33">
@@ -23012,13 +24215,13 @@
         <f t="shared" si="14"/>
         <v>8.2175925925925819E-4</v>
       </c>
-      <c r="N320" s="36"/>
-      <c r="P320" s="35"/>
-      <c r="Q320" s="35"/>
-      <c r="R320" s="35">
+      <c r="N320" s="35"/>
+      <c r="P320" s="34"/>
+      <c r="Q320" s="34"/>
+      <c r="R320" s="34">
         <v>13</v>
       </c>
-      <c r="S320" s="35">
+      <c r="S320" s="34">
         <v>11</v>
       </c>
       <c r="T320" s="33">
@@ -23071,13 +24274,13 @@
         <f t="shared" si="14"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N321" s="36"/>
-      <c r="P321" s="35"/>
-      <c r="Q321" s="35"/>
-      <c r="R321" s="35">
+      <c r="N321" s="35"/>
+      <c r="P321" s="34"/>
+      <c r="Q321" s="34"/>
+      <c r="R321" s="34">
         <v>14</v>
       </c>
-      <c r="S321" s="35">
+      <c r="S321" s="34">
         <v>11</v>
       </c>
       <c r="T321" s="33">
@@ -23130,13 +24333,13 @@
         <f t="shared" si="14"/>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N322" s="36"/>
-      <c r="P322" s="35"/>
-      <c r="Q322" s="35"/>
-      <c r="R322" s="35">
+      <c r="N322" s="35"/>
+      <c r="P322" s="34"/>
+      <c r="Q322" s="34"/>
+      <c r="R322" s="34">
         <v>15</v>
       </c>
-      <c r="S322" s="35">
+      <c r="S322" s="34">
         <v>11</v>
       </c>
       <c r="T322" s="33">
@@ -23189,13 +24392,13 @@
         <f t="shared" si="14"/>
         <v>8.101851851851638E-4</v>
       </c>
-      <c r="N323" s="36"/>
-      <c r="P323" s="35"/>
-      <c r="Q323" s="35"/>
-      <c r="R323" s="35">
+      <c r="N323" s="35"/>
+      <c r="P323" s="34"/>
+      <c r="Q323" s="34"/>
+      <c r="R323" s="34">
         <v>16</v>
       </c>
-      <c r="S323" s="35">
+      <c r="S323" s="34">
         <v>11</v>
       </c>
       <c r="T323" s="33">
@@ -23248,13 +24451,13 @@
         <f t="shared" ref="M324:M368" si="17">C325-C324</f>
         <v>8.1018518518521931E-4</v>
       </c>
-      <c r="N324" s="36"/>
-      <c r="P324" s="35"/>
-      <c r="Q324" s="35"/>
-      <c r="R324" s="35">
+      <c r="N324" s="35"/>
+      <c r="P324" s="34"/>
+      <c r="Q324" s="34"/>
+      <c r="R324" s="34">
         <v>17</v>
       </c>
-      <c r="S324" s="35">
+      <c r="S324" s="34">
         <v>11</v>
       </c>
       <c r="T324" s="33">
@@ -23307,13 +24510,13 @@
         <f t="shared" si="17"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N325" s="36"/>
-      <c r="P325" s="35"/>
-      <c r="Q325" s="35"/>
-      <c r="R325" s="35">
+      <c r="N325" s="35"/>
+      <c r="P325" s="34"/>
+      <c r="Q325" s="34"/>
+      <c r="R325" s="34">
         <v>18</v>
       </c>
-      <c r="S325" s="35">
+      <c r="S325" s="34">
         <v>11</v>
       </c>
       <c r="T325" s="33">
@@ -23366,13 +24569,13 @@
         <f t="shared" si="17"/>
         <v>7.9861111111106942E-4</v>
       </c>
-      <c r="N326" s="36"/>
-      <c r="P326" s="35"/>
-      <c r="Q326" s="35"/>
-      <c r="R326" s="35">
+      <c r="N326" s="35"/>
+      <c r="P326" s="34"/>
+      <c r="Q326" s="34"/>
+      <c r="R326" s="34">
         <v>19</v>
       </c>
-      <c r="S326" s="35">
+      <c r="S326" s="34">
         <v>11</v>
       </c>
       <c r="T326" s="33">
@@ -23425,13 +24628,13 @@
         <f t="shared" si="17"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="N327" s="36"/>
-      <c r="P327" s="35"/>
-      <c r="Q327" s="35"/>
-      <c r="R327" s="35">
+      <c r="N327" s="35"/>
+      <c r="P327" s="34"/>
+      <c r="Q327" s="34"/>
+      <c r="R327" s="34">
         <v>20</v>
       </c>
-      <c r="S327" s="35">
+      <c r="S327" s="34">
         <v>11</v>
       </c>
       <c r="T327" s="33">
@@ -23484,13 +24687,13 @@
         <f t="shared" si="17"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N328" s="36"/>
-      <c r="P328" s="35"/>
-      <c r="Q328" s="35"/>
-      <c r="R328" s="35">
+      <c r="N328" s="35"/>
+      <c r="P328" s="34"/>
+      <c r="Q328" s="34"/>
+      <c r="R328" s="34">
         <v>21</v>
       </c>
-      <c r="S328" s="35">
+      <c r="S328" s="34">
         <v>11</v>
       </c>
       <c r="T328" s="33">
@@ -23543,13 +24746,13 @@
         <f t="shared" si="17"/>
         <v>7.8703703703697503E-4</v>
       </c>
-      <c r="N329" s="36"/>
-      <c r="P329" s="35"/>
-      <c r="Q329" s="35"/>
-      <c r="R329" s="35">
+      <c r="N329" s="35"/>
+      <c r="P329" s="34"/>
+      <c r="Q329" s="34"/>
+      <c r="R329" s="34">
         <v>22</v>
       </c>
-      <c r="S329" s="35">
+      <c r="S329" s="34">
         <v>11</v>
       </c>
       <c r="T329" s="33">
@@ -23602,13 +24805,13 @@
         <f t="shared" si="17"/>
         <v>7.6388888888889728E-4</v>
       </c>
-      <c r="N330" s="36"/>
-      <c r="P330" s="35"/>
-      <c r="Q330" s="35"/>
-      <c r="R330" s="35">
+      <c r="N330" s="35"/>
+      <c r="P330" s="34"/>
+      <c r="Q330" s="34"/>
+      <c r="R330" s="34">
         <v>23</v>
       </c>
-      <c r="S330" s="35">
+      <c r="S330" s="34">
         <v>11</v>
       </c>
       <c r="T330" s="33">
@@ -23661,13 +24864,13 @@
         <f t="shared" si="17"/>
         <v>7.7546296296299166E-4</v>
       </c>
-      <c r="N331" s="36"/>
-      <c r="P331" s="35"/>
-      <c r="Q331" s="35"/>
-      <c r="R331" s="35">
+      <c r="N331" s="35"/>
+      <c r="P331" s="34"/>
+      <c r="Q331" s="34"/>
+      <c r="R331" s="34">
         <v>24</v>
       </c>
-      <c r="S331" s="35">
+      <c r="S331" s="34">
         <v>11</v>
       </c>
       <c r="T331" s="33">
@@ -23720,13 +24923,13 @@
         <f t="shared" si="17"/>
         <v>7.5231481481480289E-4</v>
       </c>
-      <c r="N332" s="36"/>
-      <c r="P332" s="35"/>
-      <c r="Q332" s="35"/>
-      <c r="R332" s="35">
+      <c r="N332" s="35"/>
+      <c r="P332" s="34"/>
+      <c r="Q332" s="34"/>
+      <c r="R332" s="34">
         <v>25</v>
       </c>
-      <c r="S332" s="35">
+      <c r="S332" s="34">
         <v>11</v>
       </c>
       <c r="T332" s="33">
@@ -23779,13 +24982,13 @@
         <f t="shared" si="17"/>
         <v>7.523148148148584E-4</v>
       </c>
-      <c r="N333" s="36"/>
-      <c r="P333" s="35"/>
-      <c r="Q333" s="35"/>
-      <c r="R333" s="35">
+      <c r="N333" s="35"/>
+      <c r="P333" s="34"/>
+      <c r="Q333" s="34"/>
+      <c r="R333" s="34">
         <v>26</v>
       </c>
-      <c r="S333" s="35">
+      <c r="S333" s="34">
         <v>11</v>
       </c>
       <c r="T333" s="33">
@@ -23838,13 +25041,13 @@
         <f t="shared" si="17"/>
         <v>7.2916666666661412E-4</v>
       </c>
-      <c r="N334" s="36"/>
-      <c r="P334" s="35"/>
-      <c r="Q334" s="35"/>
-      <c r="R334" s="35">
+      <c r="N334" s="35"/>
+      <c r="P334" s="34"/>
+      <c r="Q334" s="34"/>
+      <c r="R334" s="34">
         <v>27</v>
       </c>
-      <c r="S334" s="35">
+      <c r="S334" s="34">
         <v>11</v>
       </c>
       <c r="T334" s="33">
@@ -23897,13 +25100,13 @@
         <f t="shared" si="17"/>
         <v>7.2916666666666963E-4</v>
       </c>
-      <c r="N335" s="36"/>
-      <c r="P335" s="35"/>
-      <c r="Q335" s="35"/>
-      <c r="R335" s="35">
+      <c r="N335" s="35"/>
+      <c r="P335" s="34"/>
+      <c r="Q335" s="34"/>
+      <c r="R335" s="34">
         <v>28</v>
       </c>
-      <c r="S335" s="35">
+      <c r="S335" s="34">
         <v>11</v>
       </c>
       <c r="T335" s="33">
@@ -23956,13 +25159,13 @@
         <f t="shared" si="17"/>
         <v>7.1759259259257524E-4</v>
       </c>
-      <c r="N336" s="36"/>
-      <c r="P336" s="35"/>
-      <c r="Q336" s="35"/>
-      <c r="R336" s="35">
+      <c r="N336" s="35"/>
+      <c r="P336" s="34"/>
+      <c r="Q336" s="34"/>
+      <c r="R336" s="34">
         <v>29</v>
       </c>
-      <c r="S336" s="35">
+      <c r="S336" s="34">
         <v>11</v>
       </c>
       <c r="T336" s="33">
@@ -24015,13 +25218,13 @@
         <f t="shared" si="17"/>
         <v>7.1759259259263075E-4</v>
       </c>
-      <c r="N337" s="36"/>
-      <c r="P337" s="35"/>
-      <c r="Q337" s="35"/>
-      <c r="R337" s="35">
+      <c r="N337" s="35"/>
+      <c r="P337" s="34"/>
+      <c r="Q337" s="34"/>
+      <c r="R337" s="34">
         <v>30</v>
       </c>
-      <c r="S337" s="35">
+      <c r="S337" s="34">
         <v>11</v>
       </c>
       <c r="T337" s="33">
@@ -24074,13 +25277,13 @@
         <f t="shared" si="17"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="N338" s="36"/>
-      <c r="P338" s="35"/>
-      <c r="Q338" s="35"/>
-      <c r="R338" s="35">
+      <c r="N338" s="35"/>
+      <c r="P338" s="34"/>
+      <c r="Q338" s="34"/>
+      <c r="R338" s="34">
         <v>1</v>
       </c>
-      <c r="S338" s="35">
+      <c r="S338" s="34">
         <v>12</v>
       </c>
       <c r="T338" s="33">
@@ -24133,13 +25336,13 @@
         <f t="shared" si="17"/>
         <v>6.828703703704031E-4</v>
       </c>
-      <c r="N339" s="36"/>
-      <c r="P339" s="35"/>
-      <c r="Q339" s="35"/>
-      <c r="R339" s="35">
+      <c r="N339" s="35"/>
+      <c r="P339" s="34"/>
+      <c r="Q339" s="34"/>
+      <c r="R339" s="34">
         <v>2</v>
       </c>
-      <c r="S339" s="35">
+      <c r="S339" s="34">
         <v>12</v>
       </c>
       <c r="T339" s="33">
@@ -24192,13 +25395,13 @@
         <f t="shared" si="17"/>
         <v>6.712962962962532E-4</v>
       </c>
-      <c r="N340" s="36"/>
-      <c r="P340" s="35"/>
-      <c r="Q340" s="35"/>
-      <c r="R340" s="35">
+      <c r="N340" s="35"/>
+      <c r="P340" s="34"/>
+      <c r="Q340" s="34"/>
+      <c r="R340" s="34">
         <v>3</v>
       </c>
-      <c r="S340" s="35">
+      <c r="S340" s="34">
         <v>12</v>
       </c>
       <c r="T340" s="33">
@@ -24251,13 +25454,13 @@
         <f t="shared" si="17"/>
         <v>6.5972222222221433E-4</v>
       </c>
-      <c r="N341" s="36"/>
-      <c r="P341" s="35"/>
-      <c r="Q341" s="35"/>
-      <c r="R341" s="35">
+      <c r="N341" s="35"/>
+      <c r="P341" s="34"/>
+      <c r="Q341" s="34"/>
+      <c r="R341" s="34">
         <v>4</v>
       </c>
-      <c r="S341" s="35">
+      <c r="S341" s="34">
         <v>12</v>
       </c>
       <c r="T341" s="33">
@@ -24310,13 +25513,13 @@
         <f t="shared" si="17"/>
         <v>6.3657407407408106E-4</v>
       </c>
-      <c r="N342" s="36"/>
-      <c r="P342" s="35"/>
-      <c r="Q342" s="35"/>
-      <c r="R342" s="35">
+      <c r="N342" s="35"/>
+      <c r="P342" s="34"/>
+      <c r="Q342" s="34"/>
+      <c r="R342" s="34">
         <v>5</v>
       </c>
-      <c r="S342" s="35">
+      <c r="S342" s="34">
         <v>12</v>
       </c>
       <c r="T342" s="33">
@@ -24369,13 +25572,13 @@
         <f t="shared" si="17"/>
         <v>6.3657407407408106E-4</v>
       </c>
-      <c r="N343" s="36"/>
-      <c r="P343" s="35"/>
-      <c r="Q343" s="35"/>
-      <c r="R343" s="35">
+      <c r="N343" s="35"/>
+      <c r="P343" s="34"/>
+      <c r="Q343" s="34"/>
+      <c r="R343" s="34">
         <v>6</v>
       </c>
-      <c r="S343" s="35">
+      <c r="S343" s="34">
         <v>12</v>
       </c>
       <c r="T343" s="33">
@@ -24428,13 +25631,13 @@
         <f t="shared" si="17"/>
         <v>6.134259259259478E-4</v>
       </c>
-      <c r="N344" s="36"/>
-      <c r="P344" s="35"/>
-      <c r="Q344" s="35"/>
-      <c r="R344" s="35">
+      <c r="N344" s="35"/>
+      <c r="P344" s="34"/>
+      <c r="Q344" s="34"/>
+      <c r="R344" s="34">
         <v>7</v>
       </c>
-      <c r="S344" s="35">
+      <c r="S344" s="34">
         <v>12</v>
       </c>
       <c r="T344" s="33">
@@ -24487,13 +25690,13 @@
         <f t="shared" si="17"/>
         <v>6.018518518517979E-4</v>
       </c>
-      <c r="N345" s="36"/>
-      <c r="P345" s="35"/>
-      <c r="Q345" s="35"/>
-      <c r="R345" s="35">
+      <c r="N345" s="35"/>
+      <c r="P345" s="34"/>
+      <c r="Q345" s="34"/>
+      <c r="R345" s="34">
         <v>8</v>
       </c>
-      <c r="S345" s="35">
+      <c r="S345" s="34">
         <v>12</v>
       </c>
       <c r="T345" s="33">
@@ -24546,13 +25749,13 @@
         <f t="shared" si="17"/>
         <v>5.7870370370372015E-4</v>
       </c>
-      <c r="N346" s="36"/>
-      <c r="P346" s="35"/>
-      <c r="Q346" s="35"/>
-      <c r="R346" s="35">
+      <c r="N346" s="35"/>
+      <c r="P346" s="34"/>
+      <c r="Q346" s="34"/>
+      <c r="R346" s="34">
         <v>9</v>
       </c>
-      <c r="S346" s="35">
+      <c r="S346" s="34">
         <v>12</v>
       </c>
       <c r="T346" s="33">
@@ -24605,13 +25808,13 @@
         <f t="shared" si="17"/>
         <v>5.6712962962968128E-4</v>
       </c>
-      <c r="N347" s="36"/>
-      <c r="P347" s="35"/>
-      <c r="Q347" s="35"/>
-      <c r="R347" s="35">
+      <c r="N347" s="35"/>
+      <c r="P347" s="34"/>
+      <c r="Q347" s="34"/>
+      <c r="R347" s="34">
         <v>10</v>
       </c>
-      <c r="S347" s="35">
+      <c r="S347" s="34">
         <v>12</v>
       </c>
       <c r="T347" s="33">
@@ -24664,13 +25867,13 @@
         <f t="shared" si="17"/>
         <v>5.4398148148143699E-4</v>
       </c>
-      <c r="N348" s="36"/>
-      <c r="P348" s="35"/>
-      <c r="Q348" s="35"/>
-      <c r="R348" s="35">
+      <c r="N348" s="35"/>
+      <c r="P348" s="34"/>
+      <c r="Q348" s="34"/>
+      <c r="R348" s="34">
         <v>11</v>
       </c>
-      <c r="S348" s="35">
+      <c r="S348" s="34">
         <v>12</v>
       </c>
       <c r="T348" s="33">
@@ -24723,13 +25926,13 @@
         <f t="shared" si="17"/>
         <v>5.3240740740739811E-4</v>
       </c>
-      <c r="N349" s="36"/>
-      <c r="P349" s="35"/>
-      <c r="Q349" s="35"/>
-      <c r="R349" s="35">
+      <c r="N349" s="35"/>
+      <c r="P349" s="34"/>
+      <c r="Q349" s="34"/>
+      <c r="R349" s="34">
         <v>12</v>
       </c>
-      <c r="S349" s="35">
+      <c r="S349" s="34">
         <v>12</v>
       </c>
       <c r="T349" s="33">
@@ -24782,13 +25985,13 @@
         <f t="shared" si="17"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="N350" s="36"/>
-      <c r="P350" s="35"/>
-      <c r="Q350" s="35"/>
-      <c r="R350" s="35">
+      <c r="N350" s="35"/>
+      <c r="P350" s="34"/>
+      <c r="Q350" s="34"/>
+      <c r="R350" s="34">
         <v>13</v>
       </c>
-      <c r="S350" s="35">
+      <c r="S350" s="34">
         <v>12</v>
       </c>
       <c r="T350" s="33">
@@ -24841,13 +26044,13 @@
         <f t="shared" si="17"/>
         <v>4.9768518518522598E-4</v>
       </c>
-      <c r="N351" s="36"/>
-      <c r="P351" s="35"/>
-      <c r="Q351" s="35"/>
-      <c r="R351" s="35">
+      <c r="N351" s="35"/>
+      <c r="P351" s="34"/>
+      <c r="Q351" s="34"/>
+      <c r="R351" s="34">
         <v>14</v>
       </c>
-      <c r="S351" s="35">
+      <c r="S351" s="34">
         <v>12</v>
       </c>
       <c r="T351" s="33">
@@ -24900,13 +26103,13 @@
         <f t="shared" si="17"/>
         <v>4.745370370370372E-4</v>
       </c>
-      <c r="N352" s="36"/>
-      <c r="P352" s="35"/>
-      <c r="Q352" s="35"/>
-      <c r="R352" s="35">
+      <c r="N352" s="35"/>
+      <c r="P352" s="34"/>
+      <c r="Q352" s="34"/>
+      <c r="R352" s="34">
         <v>15</v>
       </c>
-      <c r="S352" s="35">
+      <c r="S352" s="34">
         <v>12</v>
       </c>
       <c r="T352" s="33">
@@ -24959,13 +26162,13 @@
         <f t="shared" si="17"/>
         <v>4.5138888888884843E-4</v>
       </c>
-      <c r="N353" s="36"/>
-      <c r="P353" s="35"/>
-      <c r="Q353" s="35"/>
-      <c r="R353" s="35">
+      <c r="N353" s="35"/>
+      <c r="P353" s="34"/>
+      <c r="Q353" s="34"/>
+      <c r="R353" s="34">
         <v>16</v>
       </c>
-      <c r="S353" s="35">
+      <c r="S353" s="34">
         <v>12</v>
       </c>
       <c r="T353" s="33">
@@ -25018,13 +26221,13 @@
         <f t="shared" si="17"/>
         <v>4.2824074074077068E-4</v>
       </c>
-      <c r="N354" s="36"/>
-      <c r="P354" s="35"/>
-      <c r="Q354" s="35"/>
-      <c r="R354" s="35">
+      <c r="N354" s="35"/>
+      <c r="P354" s="34"/>
+      <c r="Q354" s="34"/>
+      <c r="R354" s="34">
         <v>17</v>
       </c>
-      <c r="S354" s="35">
+      <c r="S354" s="34">
         <v>12</v>
       </c>
       <c r="T354" s="33">
@@ -25077,13 +26280,13 @@
         <f t="shared" si="17"/>
         <v>4.1666666666662078E-4</v>
       </c>
-      <c r="N355" s="36"/>
-      <c r="P355" s="35"/>
-      <c r="Q355" s="35"/>
-      <c r="R355" s="35">
+      <c r="N355" s="35"/>
+      <c r="P355" s="34"/>
+      <c r="Q355" s="34"/>
+      <c r="R355" s="34">
         <v>18</v>
       </c>
-      <c r="S355" s="35">
+      <c r="S355" s="34">
         <v>12</v>
       </c>
       <c r="T355" s="33">
@@ -25136,13 +26339,13 @@
         <f t="shared" si="17"/>
         <v>3.8194444444450415E-4</v>
       </c>
-      <c r="N356" s="36"/>
-      <c r="P356" s="35"/>
-      <c r="Q356" s="35"/>
-      <c r="R356" s="35">
+      <c r="N356" s="35"/>
+      <c r="P356" s="34"/>
+      <c r="Q356" s="34"/>
+      <c r="R356" s="34">
         <v>19</v>
       </c>
-      <c r="S356" s="35">
+      <c r="S356" s="34">
         <v>12</v>
       </c>
       <c r="T356" s="33">
@@ -25195,13 +26398,13 @@
         <f t="shared" si="17"/>
         <v>3.7037037037035425E-4</v>
       </c>
-      <c r="N357" s="36"/>
-      <c r="P357" s="35"/>
-      <c r="Q357" s="35"/>
-      <c r="R357" s="35">
+      <c r="N357" s="35"/>
+      <c r="P357" s="34"/>
+      <c r="Q357" s="34"/>
+      <c r="R357" s="34">
         <v>20</v>
       </c>
-      <c r="S357" s="35">
+      <c r="S357" s="34">
         <v>12</v>
       </c>
       <c r="T357" s="33">
@@ -25254,13 +26457,13 @@
         <f t="shared" si="17"/>
         <v>3.4722222222222099E-4</v>
       </c>
-      <c r="N358" s="36"/>
-      <c r="P358" s="35"/>
-      <c r="Q358" s="35"/>
-      <c r="R358" s="35">
+      <c r="N358" s="35"/>
+      <c r="P358" s="34"/>
+      <c r="Q358" s="34"/>
+      <c r="R358" s="34">
         <v>21</v>
       </c>
-      <c r="S358" s="35">
+      <c r="S358" s="34">
         <v>12</v>
       </c>
       <c r="T358" s="33">
@@ -25313,13 +26516,13 @@
         <f t="shared" si="17"/>
         <v>3.1249999999999334E-4</v>
       </c>
-      <c r="N359" s="36"/>
-      <c r="P359" s="35"/>
-      <c r="Q359" s="35"/>
-      <c r="R359" s="35">
+      <c r="N359" s="35"/>
+      <c r="P359" s="34"/>
+      <c r="Q359" s="34"/>
+      <c r="R359" s="34">
         <v>22</v>
       </c>
-      <c r="S359" s="35">
+      <c r="S359" s="34">
         <v>12</v>
       </c>
       <c r="T359" s="33">
@@ -25372,13 +26575,13 @@
         <f t="shared" si="17"/>
         <v>3.0092592592589895E-4</v>
       </c>
-      <c r="N360" s="36"/>
-      <c r="P360" s="35"/>
-      <c r="Q360" s="35"/>
-      <c r="R360" s="35">
+      <c r="N360" s="35"/>
+      <c r="P360" s="34"/>
+      <c r="Q360" s="34"/>
+      <c r="R360" s="34">
         <v>23</v>
       </c>
-      <c r="S360" s="35">
+      <c r="S360" s="34">
         <v>12</v>
       </c>
       <c r="T360" s="33">
@@ -25431,13 +26634,13 @@
         <f t="shared" si="17"/>
         <v>2.777777777778212E-4</v>
       </c>
-      <c r="N361" s="36"/>
-      <c r="P361" s="35"/>
-      <c r="Q361" s="35"/>
-      <c r="R361" s="35">
+      <c r="N361" s="35"/>
+      <c r="P361" s="34"/>
+      <c r="Q361" s="34"/>
+      <c r="R361" s="34">
         <v>24</v>
       </c>
-      <c r="S361" s="35">
+      <c r="S361" s="34">
         <v>12</v>
       </c>
       <c r="T361" s="33">
@@ -25490,13 +26693,13 @@
         <f t="shared" si="17"/>
         <v>2.4305555555553804E-4</v>
       </c>
-      <c r="N362" s="36"/>
-      <c r="P362" s="35"/>
-      <c r="Q362" s="35"/>
-      <c r="R362" s="35">
+      <c r="N362" s="35"/>
+      <c r="P362" s="34"/>
+      <c r="Q362" s="34"/>
+      <c r="R362" s="34">
         <v>25</v>
       </c>
-      <c r="S362" s="35">
+      <c r="S362" s="34">
         <v>12</v>
       </c>
       <c r="T362" s="33">
@@ -25549,13 +26752,13 @@
         <f t="shared" si="17"/>
         <v>2.3148148148149916E-4</v>
       </c>
-      <c r="N363" s="36"/>
-      <c r="P363" s="35"/>
-      <c r="Q363" s="35"/>
-      <c r="R363" s="35">
+      <c r="N363" s="35"/>
+      <c r="P363" s="34"/>
+      <c r="Q363" s="34"/>
+      <c r="R363" s="34">
         <v>26</v>
       </c>
-      <c r="S363" s="35">
+      <c r="S363" s="34">
         <v>12</v>
       </c>
       <c r="T363" s="33">
@@ -25608,13 +26811,13 @@
         <f t="shared" si="17"/>
         <v>1.96759259259216E-4</v>
       </c>
-      <c r="N364" s="36"/>
-      <c r="P364" s="35"/>
-      <c r="Q364" s="35"/>
-      <c r="R364" s="35">
+      <c r="N364" s="35"/>
+      <c r="P364" s="34"/>
+      <c r="Q364" s="34"/>
+      <c r="R364" s="34">
         <v>27</v>
       </c>
-      <c r="S364" s="35">
+      <c r="S364" s="34">
         <v>12</v>
       </c>
       <c r="T364" s="33">
@@ -25667,13 +26870,13 @@
         <f t="shared" si="17"/>
         <v>1.8518518518517713E-4</v>
       </c>
-      <c r="N365" s="36"/>
-      <c r="P365" s="35"/>
-      <c r="Q365" s="35"/>
-      <c r="R365" s="35">
+      <c r="N365" s="35"/>
+      <c r="P365" s="34"/>
+      <c r="Q365" s="34"/>
+      <c r="R365" s="34">
         <v>28</v>
       </c>
-      <c r="S365" s="35">
+      <c r="S365" s="34">
         <v>12</v>
       </c>
       <c r="T365" s="33">
@@ -25726,13 +26929,13 @@
         <f t="shared" si="17"/>
         <v>1.5046296296300499E-4</v>
       </c>
-      <c r="N366" s="36"/>
-      <c r="P366" s="35"/>
-      <c r="Q366" s="35"/>
-      <c r="R366" s="35">
+      <c r="N366" s="35"/>
+      <c r="P366" s="34"/>
+      <c r="Q366" s="34"/>
+      <c r="R366" s="34">
         <v>29</v>
       </c>
-      <c r="S366" s="35">
+      <c r="S366" s="34">
         <v>12</v>
       </c>
       <c r="T366" s="33">
@@ -25785,13 +26988,13 @@
         <f t="shared" si="17"/>
         <v>1.2731481481481621E-4</v>
       </c>
-      <c r="N367" s="36"/>
-      <c r="P367" s="35"/>
-      <c r="Q367" s="35"/>
-      <c r="R367" s="35">
+      <c r="N367" s="35"/>
+      <c r="P367" s="34"/>
+      <c r="Q367" s="34"/>
+      <c r="R367" s="34">
         <v>30</v>
       </c>
-      <c r="S367" s="35">
+      <c r="S367" s="34">
         <v>12</v>
       </c>
       <c r="T367" s="33">
@@ -25844,13 +27047,13 @@
         <f t="shared" si="17"/>
         <v>-0.3089351851851852</v>
       </c>
-      <c r="N368" s="36"/>
-      <c r="P368" s="35"/>
-      <c r="Q368" s="35"/>
-      <c r="R368" s="35">
+      <c r="N368" s="35"/>
+      <c r="P368" s="34"/>
+      <c r="Q368" s="34"/>
+      <c r="R368" s="34">
         <v>31</v>
       </c>
-      <c r="S368" s="35">
+      <c r="S368" s="34">
         <v>12</v>
       </c>
       <c r="T368" s="33">
@@ -30005,4 +31208,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741B0702-5186-4FC0-8C5C-47996DD97BFF}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.48</v>
+      </c>
+      <c r="C4">
+        <v>0.48</v>
+      </c>
+      <c r="D4">
+        <v>0.48</v>
+      </c>
+      <c r="E4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1.29</v>
+      </c>
+      <c r="C5">
+        <v>1.27</v>
+      </c>
+      <c r="D5">
+        <v>1.32</v>
+      </c>
+      <c r="E5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1.97</v>
+      </c>
+      <c r="D6">
+        <v>2.04</v>
+      </c>
+      <c r="E6">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2.68</v>
+      </c>
+      <c r="C7">
+        <v>2.75</v>
+      </c>
+      <c r="D7">
+        <v>2.72</v>
+      </c>
+      <c r="E7">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>3.48</v>
+      </c>
+      <c r="C8">
+        <v>3.49</v>
+      </c>
+      <c r="D8">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4.2</v>
+      </c>
+      <c r="C9">
+        <v>4.18</v>
+      </c>
+      <c r="D9">
+        <v>4.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Schedules.xlsx
+++ b/Schedules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A543F0-C2E8-42D6-90FD-C8638197D633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A8E44-9BC0-48F6-A0FB-57BA3FEB95F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" activeTab="3" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
+    <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Timer schedule" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="1115">
   <si>
     <t>Mon, Aug 1</t>
   </si>
@@ -3348,6 +3348,39 @@
   </si>
   <si>
     <t>80 psi</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>calc(y)</t>
+  </si>
+  <si>
+    <t>calc(a)</t>
+  </si>
+  <si>
+    <t>avg(a)</t>
+  </si>
+  <si>
+    <t>y = a x + b</t>
+  </si>
+  <si>
+    <t>150 - 2</t>
+  </si>
+  <si>
+    <t>150 - 3</t>
+  </si>
+  <si>
+    <t>x (bar)</t>
+  </si>
+  <si>
+    <t>y (V)</t>
+  </si>
+  <si>
+    <t>x = (y - b) / a</t>
   </si>
 </sst>
 </file>
@@ -3463,10 +3496,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3860,6 +3893,12 @@
                 <c:pt idx="3">
                   <c:v>1.74</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.52</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3867,6 +3906,150 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-912B-45CF-B70E-6A7E684BE299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Presure Sensors'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150 - 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DE4-43A9-B6C3-D0EC7D7BEC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Presure Sensors'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150 - 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5DE4-43A9-B6C3-D0EC7D7BEC36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4986,38 +5169,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37">
         <v>3</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37">
         <v>4</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37">
         <v>1</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37">
         <v>2</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37">
         <v>3</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -5202,14 +5385,14 @@
       <c r="H1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="37"/>
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31212,15 +31395,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741B0702-5186-4FC0-8C5C-47996DD97BFF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1103</v>
       </c>
@@ -31234,24 +31417,30 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1099</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>1098</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>1097</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>1096</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="36" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -31267,8 +31456,14 @@
       <c r="E4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.54</v>
+      </c>
+      <c r="G4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -31284,8 +31479,14 @@
       <c r="E5">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.95</v>
+      </c>
+      <c r="G5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -31301,8 +31502,14 @@
       <c r="E6">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1.34</v>
+      </c>
+      <c r="G6">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -31318,8 +31525,14 @@
       <c r="E7">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1.72</v>
+      </c>
+      <c r="G7">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -31332,8 +31545,17 @@
       <c r="D8">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2.11</v>
+      </c>
+      <c r="F8">
+        <v>2.11</v>
+      </c>
+      <c r="G8">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -31346,9 +31568,403 @@
       <c r="D9">
         <v>4.2</v>
       </c>
+      <c r="E9">
+        <v>2.52</v>
+      </c>
+      <c r="F9">
+        <v>2.48</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B14">
+        <f>(B5-B$4)/$A5</f>
+        <v>0.81</v>
+      </c>
+      <c r="C14">
+        <f>(C5-C$4)/$A5</f>
+        <v>0.79</v>
+      </c>
+      <c r="D14">
+        <f>(D5-D$4)/$A5</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="E14">
+        <f>(E5-E$4)/$A5</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:G14" si="0">(F5-F$4)/$A5</f>
+        <v>0.40999999999999992</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B18" si="1">(B6-B$4)/A6</f>
+        <v>0.76</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:G18" si="2">(C6-C$4)/$A6</f>
+        <v>0.745</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.78</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>0.75666666666666671</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>0.75250000000000006</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:G17" si="3">(E8-E$4)/$A8</f>
+        <v>0.39249999999999996</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.39249999999999996</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.39249999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:G18" si="4">(E9-E$4)/$A9</f>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(B14:B18)</f>
+        <v>0.75946666666666673</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" ref="C19:G19" si="5">AVERAGE(C14:C18)</f>
+        <v>0.75683333333333336</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>0.76963333333333339</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>0.40169999999999995</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>0.3967666666666666</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>0.39789999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B21">
+        <f>B$4+$A4*B$19</f>
+        <v>0.48</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:G21" si="6">C$4+$A4*C$19</f>
+        <v>0.48</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:G26" si="7">B$4+$A5*B$19</f>
+        <v>1.2394666666666667</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="7"/>
+        <v>1.2368333333333332</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>1.2496333333333334</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>0.93676666666666664</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>0.93789999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="7"/>
+        <v>1.9989333333333335</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>1.9936666666666667</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>2.0192666666666668</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>1.3433999999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>1.3335333333333332</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>1.3357999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="7"/>
+        <v>2.7584000000000004</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>2.7505000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="7"/>
+        <v>2.7889000000000004</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>1.7450999999999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="7"/>
+        <v>1.7302999999999997</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>1.7336999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="7"/>
+        <v>3.5178666666666669</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>3.5073333333333334</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>3.5585333333333335</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>2.1467999999999998</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="7"/>
+        <v>2.1270666666666664</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>2.1315999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="7"/>
+        <v>4.277333333333333</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>4.2641666666666662</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="7"/>
+        <v>4.3281666666666663</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>2.5484999999999998</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>2.5238333333333332</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>2.5294999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B30">
+        <v>0.75683333333333336</v>
+      </c>
+      <c r="E30">
+        <v>0.3967666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B31">
+        <v>0.48</v>
+      </c>
+      <c r="E31">
+        <v>0.54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Schedules.xlsx
+++ b/Schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A8E44-9BC0-48F6-A0FB-57BA3FEB95F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8662FE2A-5496-4FF8-8CB9-F0D18E5363E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
   </bookViews>

--- a/Schedules.xlsx
+++ b/Schedules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA388A6-04B2-4B19-AD4D-5DCFB64D5D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48300DA6-81F4-414F-BD0D-578362319CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
+    <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Timer schedule" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1116">
   <si>
     <t>Mon, Aug 1</t>
   </si>
@@ -3381,6 +3381,9 @@
   </si>
   <si>
     <t>x = (y - b) / a</t>
+  </si>
+  <si>
+    <t>Factory</t>
   </si>
 </sst>
 </file>
@@ -3389,7 +3392,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="171" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -3500,16 +3503,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3850,7 +3853,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Presure Sensors'!$E$3</c:f>
+              <c:f>'Presure Sensors'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3885,7 +3888,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Presure Sensors'!$E$4:$E$9</c:f>
+              <c:f>'Presure Sensors'!$G$4:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3922,7 +3925,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Presure Sensors'!$F$3</c:f>
+              <c:f>'Presure Sensors'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3957,7 +3960,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Presure Sensors'!$F$4:$F$9</c:f>
+              <c:f>'Presure Sensors'!$H$4:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3994,7 +3997,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Presure Sensors'!$G$3</c:f>
+              <c:f>'Presure Sensors'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4029,7 +4032,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Presure Sensors'!$G$4:$G$9</c:f>
+              <c:f>'Presure Sensors'!$I$4:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4058,6 +4061,162 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5DE4-43A9-B6C3-D0EC7D7BEC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Presure Sensors'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Factory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1363636363636367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5449-4770-9026-6DCF1D0F913C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Presure Sensors'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Factory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Presure Sensors'!$J$4:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88834951456310685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2766990291262137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6650485436893203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0533980582524274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.441747572815534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5449-4770-9026-6DCF1D0F913C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4811,16 +4970,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5177,38 +5336,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44">
         <v>3</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44">
         <v>4</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44">
         <v>1</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44">
         <v>3</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -5349,7 +5508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6A1333-2472-4017-A011-3455D2E105FA}">
   <dimension ref="A1:V383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O338" sqref="O338:Q368"/>
     </sheetView>
@@ -5365,7 +5524,7 @@
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="44" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" style="43" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="19.140625" customWidth="1"/>
@@ -5396,20 +5555,20 @@
       <c r="H1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="44"/>
       <c r="N1" s="7"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="38" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="37" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5428,9 +5587,9 @@
         <v>163</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -5472,7 +5631,7 @@
         <v>6.94444444444553E-5</v>
       </c>
       <c r="N3" s="35"/>
-      <c r="O3" s="43">
+      <c r="O3" s="42">
         <v>1</v>
       </c>
       <c r="P3" s="33">
@@ -5537,7 +5696,7 @@
         <v>4.6296296296266526E-5</v>
       </c>
       <c r="N4" s="35"/>
-      <c r="O4" s="43">
+      <c r="O4" s="42">
         <v>2</v>
       </c>
       <c r="P4" s="33">
@@ -5602,7 +5761,7 @@
         <v>1.1574074074094387E-5</v>
       </c>
       <c r="N5" s="35"/>
-      <c r="O5" s="43">
+      <c r="O5" s="42">
         <v>3</v>
       </c>
       <c r="P5" s="33">
@@ -5667,7 +5826,7 @@
         <v>1.1574074074094387E-5</v>
       </c>
       <c r="N6" s="35"/>
-      <c r="O6" s="43">
+      <c r="O6" s="42">
         <v>4</v>
       </c>
       <c r="P6" s="33">
@@ -5732,7 +5891,7 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="N7" s="35"/>
-      <c r="O7" s="43">
+      <c r="O7" s="42">
         <v>5</v>
       </c>
       <c r="P7" s="33">
@@ -5797,7 +5956,7 @@
         <v>5.7870370370360913E-5</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="43">
+      <c r="O8" s="42">
         <v>6</v>
       </c>
       <c r="P8" s="33">
@@ -5864,7 +6023,7 @@
         <v>9.2592592592588563E-5</v>
       </c>
       <c r="N9" s="35"/>
-      <c r="O9" s="43">
+      <c r="O9" s="42">
         <v>7</v>
       </c>
       <c r="P9" s="33">
@@ -5931,7 +6090,7 @@
         <v>1.0416666666668295E-4</v>
       </c>
       <c r="N10" s="35"/>
-      <c r="O10" s="43">
+      <c r="O10" s="42">
         <v>8</v>
       </c>
       <c r="P10" s="33">
@@ -5998,7 +6157,7 @@
         <v>1.3888888888885509E-4</v>
       </c>
       <c r="N11" s="35"/>
-      <c r="O11" s="43">
+      <c r="O11" s="42">
         <v>9</v>
       </c>
       <c r="P11" s="33">
@@ -6065,7 +6224,7 @@
         <v>1.7361111111108274E-4</v>
       </c>
       <c r="N12" s="35"/>
-      <c r="O12" s="43">
+      <c r="O12" s="42">
         <v>10</v>
       </c>
       <c r="P12" s="33">
@@ -6132,7 +6291,7 @@
         <v>1.8518518518523264E-4</v>
       </c>
       <c r="N13" s="35"/>
-      <c r="O13" s="43">
+      <c r="O13" s="42">
         <v>11</v>
       </c>
       <c r="P13" s="33">
@@ -6199,7 +6358,7 @@
         <v>2.1990740740740478E-4</v>
       </c>
       <c r="N14" s="35"/>
-      <c r="O14" s="43">
+      <c r="O14" s="42">
         <v>12</v>
       </c>
       <c r="P14" s="33">
@@ -6266,7 +6425,7 @@
         <v>2.4305555555553804E-4</v>
       </c>
       <c r="N15" s="35"/>
-      <c r="O15" s="43">
+      <c r="O15" s="42">
         <v>13</v>
       </c>
       <c r="P15" s="33">
@@ -6333,7 +6492,7 @@
         <v>2.7777777777776569E-4</v>
       </c>
       <c r="N16" s="35"/>
-      <c r="O16" s="43">
+      <c r="O16" s="42">
         <v>14</v>
       </c>
       <c r="P16" s="33">
@@ -6400,7 +6559,7 @@
         <v>2.8935185185186008E-4</v>
       </c>
       <c r="N17" s="35"/>
-      <c r="O17" s="43">
+      <c r="O17" s="42">
         <v>15</v>
       </c>
       <c r="P17" s="33">
@@ -6467,7 +6626,7 @@
         <v>3.2407407407408773E-4</v>
       </c>
       <c r="N18" s="35"/>
-      <c r="O18" s="43">
+      <c r="O18" s="42">
         <v>16</v>
       </c>
       <c r="P18" s="33">
@@ -6534,7 +6693,7 @@
         <v>3.4722222222222099E-4</v>
       </c>
       <c r="N19" s="35"/>
-      <c r="O19" s="43">
+      <c r="O19" s="42">
         <v>17</v>
       </c>
       <c r="P19" s="33">
@@ -6601,7 +6760,7 @@
         <v>3.7037037037035425E-4</v>
       </c>
       <c r="N20" s="35"/>
-      <c r="O20" s="43">
+      <c r="O20" s="42">
         <v>18</v>
       </c>
       <c r="P20" s="33">
@@ -6668,7 +6827,7 @@
         <v>3.9351851851854303E-4</v>
       </c>
       <c r="N21" s="35"/>
-      <c r="O21" s="43">
+      <c r="O21" s="42">
         <v>19</v>
       </c>
       <c r="P21" s="33">
@@ -6735,7 +6894,7 @@
         <v>4.1666666666662078E-4</v>
       </c>
       <c r="N22" s="35"/>
-      <c r="O22" s="43">
+      <c r="O22" s="42">
         <v>20</v>
       </c>
       <c r="P22" s="33">
@@ -6802,7 +6961,7 @@
         <v>4.3981481481486506E-4</v>
       </c>
       <c r="N23" s="35"/>
-      <c r="O23" s="43">
+      <c r="O23" s="42">
         <v>21</v>
       </c>
       <c r="P23" s="33">
@@ -6869,7 +7028,7 @@
         <v>4.745370370370372E-4</v>
       </c>
       <c r="N24" s="35"/>
-      <c r="O24" s="43">
+      <c r="O24" s="42">
         <v>22</v>
       </c>
       <c r="P24" s="33">
@@ -6936,7 +7095,7 @@
         <v>4.8611111111113159E-4</v>
       </c>
       <c r="N25" s="35"/>
-      <c r="O25" s="43">
+      <c r="O25" s="42">
         <v>23</v>
       </c>
       <c r="P25" s="33">
@@ -7003,7 +7162,7 @@
         <v>5.2083333333330373E-4</v>
       </c>
       <c r="N26" s="35"/>
-      <c r="O26" s="43">
+      <c r="O26" s="42">
         <v>24</v>
       </c>
       <c r="P26" s="33">
@@ -7070,7 +7229,7 @@
         <v>5.3240740740739811E-4</v>
       </c>
       <c r="N27" s="35"/>
-      <c r="O27" s="43">
+      <c r="O27" s="42">
         <v>25</v>
       </c>
       <c r="P27" s="33">
@@ -7137,7 +7296,7 @@
         <v>5.6712962962962576E-4</v>
       </c>
       <c r="N28" s="35"/>
-      <c r="O28" s="43">
+      <c r="O28" s="42">
         <v>26</v>
       </c>
       <c r="P28" s="33">
@@ -7204,7 +7363,7 @@
         <v>5.7870370370372015E-4</v>
       </c>
       <c r="N29" s="35"/>
-      <c r="O29" s="43">
+      <c r="O29" s="42">
         <v>27</v>
       </c>
       <c r="P29" s="33">
@@ -7271,7 +7430,7 @@
         <v>6.0185185185185341E-4</v>
       </c>
       <c r="N30" s="35"/>
-      <c r="O30" s="43">
+      <c r="O30" s="42">
         <v>28</v>
       </c>
       <c r="P30" s="33">
@@ -7338,7 +7497,7 @@
         <v>6.2499999999998668E-4</v>
       </c>
       <c r="N31" s="35"/>
-      <c r="O31" s="43">
+      <c r="O31" s="42">
         <v>29</v>
       </c>
       <c r="P31" s="33">
@@ -7405,7 +7564,7 @@
         <v>6.4814814814811994E-4</v>
       </c>
       <c r="N32" s="35"/>
-      <c r="O32" s="43">
+      <c r="O32" s="42">
         <v>30</v>
       </c>
       <c r="P32" s="33">
@@ -7472,7 +7631,7 @@
         <v>6.7129629629630871E-4</v>
       </c>
       <c r="N33" s="35"/>
-      <c r="O33" s="43">
+      <c r="O33" s="42">
         <v>31</v>
       </c>
       <c r="P33" s="33">
@@ -7539,7 +7698,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="N34" s="35"/>
-      <c r="O34" s="43">
+      <c r="O34" s="42">
         <v>1</v>
       </c>
       <c r="P34" s="33">
@@ -7606,7 +7765,7 @@
         <v>7.0601851851848085E-4</v>
       </c>
       <c r="N35" s="35"/>
-      <c r="O35" s="43">
+      <c r="O35" s="42">
         <v>2</v>
       </c>
       <c r="P35" s="33">
@@ -7673,7 +7832,7 @@
         <v>7.2916666666666963E-4</v>
       </c>
       <c r="N36" s="35"/>
-      <c r="O36" s="43">
+      <c r="O36" s="42">
         <v>3</v>
       </c>
       <c r="P36" s="33">
@@ -7740,7 +7899,7 @@
         <v>7.5231481481480289E-4</v>
       </c>
       <c r="N37" s="35"/>
-      <c r="O37" s="43">
+      <c r="O37" s="42">
         <v>4</v>
       </c>
       <c r="P37" s="33">
@@ -7807,7 +7966,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N38" s="35"/>
-      <c r="O38" s="43">
+      <c r="O38" s="42">
         <v>5</v>
       </c>
       <c r="P38" s="33">
@@ -7874,7 +8033,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N39" s="35"/>
-      <c r="O39" s="43">
+      <c r="O39" s="42">
         <v>6</v>
       </c>
       <c r="P39" s="33">
@@ -7941,7 +8100,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N40" s="35"/>
-      <c r="O40" s="43">
+      <c r="O40" s="42">
         <v>7</v>
       </c>
       <c r="P40" s="33">
@@ -8008,7 +8167,7 @@
         <v>8.217592592593137E-4</v>
       </c>
       <c r="N41" s="35"/>
-      <c r="O41" s="43">
+      <c r="O41" s="42">
         <v>8</v>
       </c>
       <c r="P41" s="33">
@@ -8075,7 +8234,7 @@
         <v>8.4490740740739145E-4</v>
       </c>
       <c r="N42" s="35"/>
-      <c r="O42" s="43">
+      <c r="O42" s="42">
         <v>9</v>
       </c>
       <c r="P42" s="33">
@@ -8142,7 +8301,7 @@
         <v>8.5648148148148584E-4</v>
       </c>
       <c r="N43" s="35"/>
-      <c r="O43" s="43">
+      <c r="O43" s="42">
         <v>10</v>
       </c>
       <c r="P43" s="33">
@@ -8209,7 +8368,7 @@
         <v>8.796296296296191E-4</v>
       </c>
       <c r="N44" s="35"/>
-      <c r="O44" s="43">
+      <c r="O44" s="42">
         <v>11</v>
       </c>
       <c r="P44" s="33">
@@ -8276,7 +8435,7 @@
         <v>8.9120370370371349E-4</v>
       </c>
       <c r="N45" s="35"/>
-      <c r="O45" s="43">
+      <c r="O45" s="42">
         <v>12</v>
       </c>
       <c r="P45" s="33">
@@ -8343,7 +8502,7 @@
         <v>9.0277777777775237E-4</v>
       </c>
       <c r="N46" s="35"/>
-      <c r="O46" s="43">
+      <c r="O46" s="42">
         <v>13</v>
       </c>
       <c r="P46" s="33">
@@ -8410,7 +8569,7 @@
         <v>9.2592592592594114E-4</v>
       </c>
       <c r="N47" s="35"/>
-      <c r="O47" s="43">
+      <c r="O47" s="42">
         <v>14</v>
       </c>
       <c r="P47" s="33">
@@ -8477,7 +8636,7 @@
         <v>9.3750000000003553E-4</v>
       </c>
       <c r="N48" s="35"/>
-      <c r="O48" s="43">
+      <c r="O48" s="42">
         <v>15</v>
       </c>
       <c r="P48" s="33">
@@ -8544,7 +8703,7 @@
         <v>9.490740740740744E-4</v>
       </c>
       <c r="N49" s="35"/>
-      <c r="O49" s="43">
+      <c r="O49" s="42">
         <v>16</v>
       </c>
       <c r="P49" s="33">
@@ -8611,7 +8770,7 @@
         <v>9.7222222222215215E-4</v>
       </c>
       <c r="N50" s="35"/>
-      <c r="O50" s="43">
+      <c r="O50" s="42">
         <v>17</v>
       </c>
       <c r="P50" s="33">
@@ -8678,7 +8837,7 @@
         <v>9.8379629629630205E-4</v>
       </c>
       <c r="N51" s="35"/>
-      <c r="O51" s="43">
+      <c r="O51" s="42">
         <v>18</v>
       </c>
       <c r="P51" s="33">
@@ -8745,7 +8904,7 @@
         <v>9.9537037037039644E-4</v>
       </c>
       <c r="N52" s="35"/>
-      <c r="O52" s="43">
+      <c r="O52" s="42">
         <v>19</v>
       </c>
       <c r="P52" s="33">
@@ -8812,7 +8971,7 @@
         <v>1.0069444444444353E-3</v>
       </c>
       <c r="N53" s="35"/>
-      <c r="O53" s="43">
+      <c r="O53" s="42">
         <v>20</v>
       </c>
       <c r="P53" s="33">
@@ -8879,7 +9038,7 @@
         <v>1.0300925925926241E-3</v>
       </c>
       <c r="N54" s="35"/>
-      <c r="O54" s="43">
+      <c r="O54" s="42">
         <v>21</v>
       </c>
       <c r="P54" s="33">
@@ -8946,7 +9105,7 @@
         <v>1.0300925925925686E-3</v>
       </c>
       <c r="N55" s="35"/>
-      <c r="O55" s="43">
+      <c r="O55" s="42">
         <v>22</v>
       </c>
       <c r="P55" s="33">
@@ -9013,7 +9172,7 @@
         <v>1.041666666666663E-3</v>
       </c>
       <c r="N56" s="35"/>
-      <c r="O56" s="43">
+      <c r="O56" s="42">
         <v>23</v>
       </c>
       <c r="P56" s="33">
@@ -9080,7 +9239,7 @@
         <v>1.0648148148147962E-3</v>
       </c>
       <c r="N57" s="35"/>
-      <c r="O57" s="43">
+      <c r="O57" s="42">
         <v>24</v>
       </c>
       <c r="P57" s="33">
@@ -9147,7 +9306,7 @@
         <v>1.0648148148148517E-3</v>
       </c>
       <c r="N58" s="35"/>
-      <c r="O58" s="43">
+      <c r="O58" s="42">
         <v>25</v>
       </c>
       <c r="P58" s="33">
@@ -9214,7 +9373,7 @@
         <v>1.0879629629629295E-3</v>
       </c>
       <c r="N59" s="35"/>
-      <c r="O59" s="43">
+      <c r="O59" s="42">
         <v>26</v>
       </c>
       <c r="P59" s="33">
@@ -9281,7 +9440,7 @@
         <v>1.087962962962985E-3</v>
       </c>
       <c r="N60" s="35"/>
-      <c r="O60" s="43">
+      <c r="O60" s="42">
         <v>27</v>
       </c>
       <c r="P60" s="33">
@@ -9348,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="35"/>
-      <c r="O61" s="43">
+      <c r="O61" s="42">
         <v>28</v>
       </c>
       <c r="P61" s="33">
@@ -9413,13 +9572,13 @@
         <v>1.0995370370370239E-3</v>
       </c>
       <c r="N62" s="35"/>
-      <c r="O62" s="43">
+      <c r="O62" s="42">
         <v>29</v>
       </c>
-      <c r="P62" s="39">
+      <c r="P62" s="38">
         <v>0.29340277777777779</v>
       </c>
-      <c r="Q62" s="39">
+      <c r="Q62" s="38">
         <v>0.76107638888888884</v>
       </c>
       <c r="R62" s="34"/>
@@ -9480,7 +9639,7 @@
         <v>1.1226851851852127E-3</v>
       </c>
       <c r="N63" s="35"/>
-      <c r="O63" s="43">
+      <c r="O63" s="42">
         <v>1</v>
       </c>
       <c r="P63" s="33">
@@ -9547,7 +9706,7 @@
         <v>1.1111111111110628E-3</v>
       </c>
       <c r="N64" s="35"/>
-      <c r="O64" s="43">
+      <c r="O64" s="42">
         <v>2</v>
       </c>
       <c r="P64" s="33">
@@ -9614,7 +9773,7 @@
         <v>1.134259259259307E-3</v>
       </c>
       <c r="N65" s="35"/>
-      <c r="O65" s="43">
+      <c r="O65" s="42">
         <v>3</v>
       </c>
       <c r="P65" s="33">
@@ -9681,7 +9840,7 @@
         <v>1.1458333333333459E-3</v>
       </c>
       <c r="N66" s="35"/>
-      <c r="O66" s="43">
+      <c r="O66" s="42">
         <v>4</v>
       </c>
       <c r="P66" s="33">
@@ -9748,7 +9907,7 @@
         <v>1.1458333333332904E-3</v>
       </c>
       <c r="N67" s="35"/>
-      <c r="O67" s="43">
+      <c r="O67" s="42">
         <v>5</v>
       </c>
       <c r="P67" s="33">
@@ -9815,7 +9974,7 @@
         <v>1.1574074074074403E-3</v>
       </c>
       <c r="N68" s="35"/>
-      <c r="O68" s="43">
+      <c r="O68" s="42">
         <v>6</v>
       </c>
       <c r="P68" s="33">
@@ -9882,7 +10041,7 @@
         <v>1.1574074074073848E-3</v>
       </c>
       <c r="N69" s="35"/>
-      <c r="O69" s="43">
+      <c r="O69" s="42">
         <v>7</v>
       </c>
       <c r="P69" s="33">
@@ -9949,7 +10108,7 @@
         <v>1.1689814814814792E-3</v>
       </c>
       <c r="N70" s="35"/>
-      <c r="O70" s="43">
+      <c r="O70" s="42">
         <v>8</v>
       </c>
       <c r="P70" s="33">
@@ -10016,7 +10175,7 @@
         <v>1.1805555555555736E-3</v>
       </c>
       <c r="N71" s="35"/>
-      <c r="O71" s="43">
+      <c r="O71" s="42">
         <v>9</v>
       </c>
       <c r="P71" s="33">
@@ -10083,7 +10242,7 @@
         <v>1.1805555555555181E-3</v>
       </c>
       <c r="N72" s="35"/>
-      <c r="O72" s="43">
+      <c r="O72" s="42">
         <v>10</v>
       </c>
       <c r="P72" s="33">
@@ -10150,7 +10309,7 @@
         <v>1.192129629629668E-3</v>
       </c>
       <c r="N73" s="35"/>
-      <c r="O73" s="43">
+      <c r="O73" s="42">
         <v>11</v>
       </c>
       <c r="P73" s="33">
@@ -10217,7 +10376,7 @@
         <v>1.1921296296296124E-3</v>
       </c>
       <c r="N74" s="35"/>
-      <c r="O74" s="43">
+      <c r="O74" s="42">
         <v>12</v>
       </c>
       <c r="P74" s="33">
@@ -10284,7 +10443,7 @@
         <v>1.2037037037037068E-3</v>
       </c>
       <c r="N75" s="35"/>
-      <c r="O75" s="43">
+      <c r="O75" s="42">
         <v>13</v>
       </c>
       <c r="P75" s="33">
@@ -10351,7 +10510,7 @@
         <v>1.2037037037037068E-3</v>
       </c>
       <c r="N76" s="35"/>
-      <c r="O76" s="43">
+      <c r="O76" s="42">
         <v>14</v>
       </c>
       <c r="P76" s="33">
@@ -10418,7 +10577,7 @@
         <v>1.2152777777778012E-3</v>
       </c>
       <c r="N77" s="35"/>
-      <c r="O77" s="43">
+      <c r="O77" s="42">
         <v>15</v>
       </c>
       <c r="P77" s="33">
@@ -10485,7 +10644,7 @@
         <v>1.2152777777777457E-3</v>
       </c>
       <c r="N78" s="35"/>
-      <c r="O78" s="43">
+      <c r="O78" s="42">
         <v>16</v>
       </c>
       <c r="P78" s="33">
@@ -10552,7 +10711,7 @@
         <v>1.2268518518518956E-3</v>
       </c>
       <c r="N79" s="35"/>
-      <c r="O79" s="43">
+      <c r="O79" s="42">
         <v>17</v>
       </c>
       <c r="P79" s="33">
@@ -10619,7 +10778,7 @@
         <v>1.2152777777777457E-3</v>
       </c>
       <c r="N80" s="35"/>
-      <c r="O80" s="43">
+      <c r="O80" s="42">
         <v>18</v>
       </c>
       <c r="P80" s="33">
@@ -10686,7 +10845,7 @@
         <v>1.2268518518518401E-3</v>
       </c>
       <c r="N81" s="35"/>
-      <c r="O81" s="43">
+      <c r="O81" s="42">
         <v>19</v>
       </c>
       <c r="P81" s="33">
@@ -10753,7 +10912,7 @@
         <v>1.2268518518518401E-3</v>
       </c>
       <c r="N82" s="35"/>
-      <c r="O82" s="43">
+      <c r="O82" s="42">
         <v>20</v>
       </c>
       <c r="P82" s="33">
@@ -10820,7 +10979,7 @@
         <v>1.2384259259259622E-3</v>
       </c>
       <c r="N83" s="35"/>
-      <c r="O83" s="43">
+      <c r="O83" s="42">
         <v>21</v>
       </c>
       <c r="P83" s="33">
@@ -10887,7 +11046,7 @@
         <v>1.238425925925879E-3</v>
       </c>
       <c r="N84" s="35"/>
-      <c r="O84" s="43">
+      <c r="O84" s="42">
         <v>22</v>
       </c>
       <c r="P84" s="33">
@@ -10954,7 +11113,7 @@
         <v>1.2268518518518956E-3</v>
       </c>
       <c r="N85" s="35"/>
-      <c r="O85" s="43">
+      <c r="O85" s="42">
         <v>23</v>
       </c>
       <c r="P85" s="33">
@@ -11021,7 +11180,7 @@
         <v>1.2384259259259067E-3</v>
       </c>
       <c r="N86" s="35"/>
-      <c r="O86" s="43">
+      <c r="O86" s="42">
         <v>24</v>
       </c>
       <c r="P86" s="33">
@@ -11088,7 +11247,7 @@
         <v>1.2384259259259345E-3</v>
       </c>
       <c r="N87" s="35"/>
-      <c r="O87" s="43">
+      <c r="O87" s="42">
         <v>25</v>
       </c>
       <c r="P87" s="33">
@@ -11155,13 +11314,13 @@
         <v>-4.0416666666666656E-2</v>
       </c>
       <c r="N88" s="35"/>
-      <c r="O88" s="43">
+      <c r="O88" s="42">
         <v>26</v>
       </c>
-      <c r="P88" s="40">
+      <c r="P88" s="39">
         <v>0.26246527777777778</v>
       </c>
-      <c r="Q88" s="40">
+      <c r="Q88" s="39">
         <v>0.78252314814814816</v>
       </c>
       <c r="R88" s="34"/>
@@ -11222,7 +11381,7 @@
         <v>1.2384259259259345E-3</v>
       </c>
       <c r="N89" s="35"/>
-      <c r="O89" s="43">
+      <c r="O89" s="42">
         <v>27</v>
       </c>
       <c r="P89" s="33">
@@ -11291,7 +11450,7 @@
         <v>1.238425925925879E-3</v>
       </c>
       <c r="N90" s="35"/>
-      <c r="O90" s="43">
+      <c r="O90" s="42">
         <v>28</v>
       </c>
       <c r="P90" s="33">
@@ -11360,7 +11519,7 @@
         <v>1.2384259259259345E-3</v>
       </c>
       <c r="N91" s="35"/>
-      <c r="O91" s="43">
+      <c r="O91" s="42">
         <v>29</v>
       </c>
       <c r="P91" s="33">
@@ -11429,7 +11588,7 @@
         <v>1.2384259259259345E-3</v>
       </c>
       <c r="N92" s="35"/>
-      <c r="O92" s="43">
+      <c r="O92" s="42">
         <v>30</v>
       </c>
       <c r="P92" s="33">
@@ -11498,7 +11657,7 @@
         <v>1.2384259259259345E-3</v>
       </c>
       <c r="N93" s="35"/>
-      <c r="O93" s="43">
+      <c r="O93" s="42">
         <v>31</v>
       </c>
       <c r="P93" s="33">
@@ -11567,7 +11726,7 @@
         <v>1.2384259259259345E-3</v>
       </c>
       <c r="N94" s="35"/>
-      <c r="O94" s="43">
+      <c r="O94" s="42">
         <v>1</v>
       </c>
       <c r="P94" s="33">
@@ -11636,7 +11795,7 @@
         <v>1.2384259259259345E-3</v>
       </c>
       <c r="N95" s="35"/>
-      <c r="O95" s="43">
+      <c r="O95" s="42">
         <v>2</v>
       </c>
       <c r="P95" s="33">
@@ -11705,7 +11864,7 @@
         <v>1.2268518518518401E-3</v>
       </c>
       <c r="N96" s="35"/>
-      <c r="O96" s="43">
+      <c r="O96" s="42">
         <v>3</v>
       </c>
       <c r="P96" s="33">
@@ -11774,7 +11933,7 @@
         <v>1.2384259259259345E-3</v>
       </c>
       <c r="N97" s="35"/>
-      <c r="O97" s="43">
+      <c r="O97" s="42">
         <v>4</v>
       </c>
       <c r="P97" s="33">
@@ -11843,7 +12002,7 @@
         <v>1.2268518518518401E-3</v>
       </c>
       <c r="N98" s="35"/>
-      <c r="O98" s="43">
+      <c r="O98" s="42">
         <v>5</v>
       </c>
       <c r="P98" s="33">
@@ -11912,7 +12071,7 @@
         <v>1.2268518518518401E-3</v>
       </c>
       <c r="N99" s="35"/>
-      <c r="O99" s="43">
+      <c r="O99" s="42">
         <v>6</v>
       </c>
       <c r="P99" s="33">
@@ -11981,7 +12140,7 @@
         <v>1.2152777777778012E-3</v>
       </c>
       <c r="N100" s="35"/>
-      <c r="O100" s="43">
+      <c r="O100" s="42">
         <v>7</v>
       </c>
       <c r="P100" s="33">
@@ -12050,7 +12209,7 @@
         <v>1.2152777777777457E-3</v>
       </c>
       <c r="N101" s="35"/>
-      <c r="O101" s="43">
+      <c r="O101" s="42">
         <v>8</v>
       </c>
       <c r="P101" s="33">
@@ -12119,7 +12278,7 @@
         <v>1.2152777777778012E-3</v>
       </c>
       <c r="N102" s="35"/>
-      <c r="O102" s="43">
+      <c r="O102" s="42">
         <v>9</v>
       </c>
       <c r="P102" s="33">
@@ -12188,7 +12347,7 @@
         <v>1.2152777777778012E-3</v>
       </c>
       <c r="N103" s="35"/>
-      <c r="O103" s="43">
+      <c r="O103" s="42">
         <v>10</v>
       </c>
       <c r="P103" s="33">
@@ -12257,7 +12416,7 @@
         <v>1.2037037037037068E-3</v>
       </c>
       <c r="N104" s="35"/>
-      <c r="O104" s="43">
+      <c r="O104" s="42">
         <v>11</v>
       </c>
       <c r="P104" s="33">
@@ -12326,7 +12485,7 @@
         <v>1.1921296296296124E-3</v>
       </c>
       <c r="N105" s="35"/>
-      <c r="O105" s="43">
+      <c r="O105" s="42">
         <v>12</v>
       </c>
       <c r="P105" s="33">
@@ -12395,7 +12554,7 @@
         <v>1.1921296296296124E-3</v>
       </c>
       <c r="N106" s="35"/>
-      <c r="O106" s="43">
+      <c r="O106" s="42">
         <v>13</v>
       </c>
       <c r="P106" s="33">
@@ -12464,7 +12623,7 @@
         <v>1.192129629629668E-3</v>
       </c>
       <c r="N107" s="35"/>
-      <c r="O107" s="43">
+      <c r="O107" s="42">
         <v>14</v>
       </c>
       <c r="P107" s="33">
@@ -12533,7 +12692,7 @@
         <v>1.1689814814814792E-3</v>
       </c>
       <c r="N108" s="35"/>
-      <c r="O108" s="43">
+      <c r="O108" s="42">
         <v>15</v>
       </c>
       <c r="P108" s="33">
@@ -12602,7 +12761,7 @@
         <v>1.1805555555555181E-3</v>
       </c>
       <c r="N109" s="35"/>
-      <c r="O109" s="43">
+      <c r="O109" s="42">
         <v>16</v>
       </c>
       <c r="P109" s="33">
@@ -12671,7 +12830,7 @@
         <v>1.1574074074074403E-3</v>
       </c>
       <c r="N110" s="35"/>
-      <c r="O110" s="43">
+      <c r="O110" s="42">
         <v>17</v>
       </c>
       <c r="P110" s="33">
@@ -12740,7 +12899,7 @@
         <v>1.1574074074073848E-3</v>
       </c>
       <c r="N111" s="35"/>
-      <c r="O111" s="43">
+      <c r="O111" s="42">
         <v>18</v>
       </c>
       <c r="P111" s="33">
@@ -12809,7 +12968,7 @@
         <v>1.1574074074073848E-3</v>
       </c>
       <c r="N112" s="35"/>
-      <c r="O112" s="43">
+      <c r="O112" s="42">
         <v>19</v>
       </c>
       <c r="P112" s="33">
@@ -12878,7 +13037,7 @@
         <v>1.1342592592592515E-3</v>
       </c>
       <c r="N113" s="35"/>
-      <c r="O113" s="43">
+      <c r="O113" s="42">
         <v>20</v>
       </c>
       <c r="P113" s="33">
@@ -12947,7 +13106,7 @@
         <v>1.1342592592592515E-3</v>
       </c>
       <c r="N114" s="35"/>
-      <c r="O114" s="43">
+      <c r="O114" s="42">
         <v>21</v>
       </c>
       <c r="P114" s="33">
@@ -13016,7 +13175,7 @@
         <v>1.1226851851852127E-3</v>
       </c>
       <c r="N115" s="35"/>
-      <c r="O115" s="43">
+      <c r="O115" s="42">
         <v>22</v>
       </c>
       <c r="P115" s="33">
@@ -13085,7 +13244,7 @@
         <v>1.1111111111111183E-3</v>
       </c>
       <c r="N116" s="35"/>
-      <c r="O116" s="43">
+      <c r="O116" s="42">
         <v>23</v>
       </c>
       <c r="P116" s="33">
@@ -13154,7 +13313,7 @@
         <v>1.0995370370370239E-3</v>
       </c>
       <c r="N117" s="35"/>
-      <c r="O117" s="43">
+      <c r="O117" s="42">
         <v>24</v>
       </c>
       <c r="P117" s="33">
@@ -13223,7 +13382,7 @@
         <v>1.087962962962985E-3</v>
       </c>
       <c r="N118" s="35"/>
-      <c r="O118" s="43">
+      <c r="O118" s="42">
         <v>25</v>
       </c>
       <c r="P118" s="33">
@@ -13292,7 +13451,7 @@
         <v>1.0763888888888629E-3</v>
       </c>
       <c r="N119" s="35"/>
-      <c r="O119" s="43">
+      <c r="O119" s="42">
         <v>26</v>
       </c>
       <c r="P119" s="33">
@@ -13361,7 +13520,7 @@
         <v>1.0763888888889184E-3</v>
       </c>
       <c r="N120" s="35"/>
-      <c r="O120" s="43">
+      <c r="O120" s="42">
         <v>27</v>
       </c>
       <c r="P120" s="33">
@@ -13430,7 +13589,7 @@
         <v>1.0532407407407296E-3</v>
       </c>
       <c r="N121" s="35"/>
-      <c r="O121" s="43">
+      <c r="O121" s="42">
         <v>28</v>
       </c>
       <c r="P121" s="33">
@@ -13499,7 +13658,7 @@
         <v>1.041666666666663E-3</v>
       </c>
       <c r="N122" s="35"/>
-      <c r="O122" s="43">
+      <c r="O122" s="42">
         <v>29</v>
       </c>
       <c r="P122" s="33">
@@ -13568,7 +13727,7 @@
         <v>1.0300925925925686E-3</v>
       </c>
       <c r="N123" s="35"/>
-      <c r="O123" s="43">
+      <c r="O123" s="42">
         <v>30</v>
       </c>
       <c r="P123" s="33">
@@ -13637,7 +13796,7 @@
         <v>1.0185185185185297E-3</v>
       </c>
       <c r="N124" s="35"/>
-      <c r="O124" s="43">
+      <c r="O124" s="42">
         <v>1</v>
       </c>
       <c r="P124" s="33">
@@ -13706,7 +13865,7 @@
         <v>9.9537037037039644E-4</v>
       </c>
       <c r="N125" s="35"/>
-      <c r="O125" s="43">
+      <c r="O125" s="42">
         <v>2</v>
       </c>
       <c r="P125" s="33">
@@ -13775,7 +13934,7 @@
         <v>9.9537037037036868E-4</v>
       </c>
       <c r="N126" s="35"/>
-      <c r="O126" s="43">
+      <c r="O126" s="42">
         <v>3</v>
       </c>
       <c r="P126" s="33">
@@ -13844,7 +14003,7 @@
         <v>9.7222222222223542E-4</v>
       </c>
       <c r="N127" s="35"/>
-      <c r="O127" s="43">
+      <c r="O127" s="42">
         <v>4</v>
       </c>
       <c r="P127" s="33">
@@ -13913,7 +14072,7 @@
         <v>9.490740740740744E-4</v>
       </c>
       <c r="N128" s="35"/>
-      <c r="O128" s="43">
+      <c r="O128" s="42">
         <v>5</v>
       </c>
       <c r="P128" s="33">
@@ -13982,7 +14141,7 @@
         <v>9.490740740740744E-4</v>
       </c>
       <c r="N129" s="35"/>
-      <c r="O129" s="43">
+      <c r="O129" s="42">
         <v>6</v>
       </c>
       <c r="P129" s="33">
@@ -14051,7 +14210,7 @@
         <v>9.2592592592591338E-4</v>
       </c>
       <c r="N130" s="35"/>
-      <c r="O130" s="43">
+      <c r="O130" s="42">
         <v>7</v>
       </c>
       <c r="P130" s="33">
@@ -14120,7 +14279,7 @@
         <v>9.0277777777778012E-4</v>
       </c>
       <c r="N131" s="35"/>
-      <c r="O131" s="43">
+      <c r="O131" s="42">
         <v>8</v>
       </c>
       <c r="P131" s="33">
@@ -14189,7 +14348,7 @@
         <v>9.0277777777775237E-4</v>
       </c>
       <c r="N132" s="35"/>
-      <c r="O132" s="43">
+      <c r="O132" s="42">
         <v>9</v>
       </c>
       <c r="P132" s="33">
@@ -14258,7 +14417,7 @@
         <v>8.6805555555555247E-4</v>
       </c>
       <c r="N133" s="35"/>
-      <c r="O133" s="43">
+      <c r="O133" s="42">
         <v>10</v>
       </c>
       <c r="P133" s="33">
@@ -14327,7 +14486,7 @@
         <v>8.564814814815136E-4</v>
       </c>
       <c r="N134" s="35"/>
-      <c r="O134" s="43">
+      <c r="O134" s="42">
         <v>11</v>
       </c>
       <c r="P134" s="33">
@@ -14396,7 +14555,7 @@
         <v>8.4490740740739145E-4</v>
       </c>
       <c r="N135" s="35"/>
-      <c r="O135" s="43">
+      <c r="O135" s="42">
         <v>12</v>
       </c>
       <c r="P135" s="33">
@@ -14465,7 +14624,7 @@
         <v>8.1018518518519156E-4</v>
       </c>
       <c r="N136" s="35"/>
-      <c r="O136" s="43">
+      <c r="O136" s="42">
         <v>13</v>
       </c>
       <c r="P136" s="33">
@@ -14534,7 +14693,7 @@
         <v>7.9861111111109717E-4</v>
       </c>
       <c r="N137" s="35"/>
-      <c r="O137" s="43">
+      <c r="O137" s="42">
         <v>14</v>
       </c>
       <c r="P137" s="33">
@@ -14603,7 +14762,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N138" s="35"/>
-      <c r="O138" s="43">
+      <c r="O138" s="42">
         <v>15</v>
       </c>
       <c r="P138" s="33">
@@ -14672,7 +14831,7 @@
         <v>7.5231481481483065E-4</v>
       </c>
       <c r="N139" s="35"/>
-      <c r="O139" s="43">
+      <c r="O139" s="42">
         <v>16</v>
       </c>
       <c r="P139" s="33">
@@ -14741,7 +14900,7 @@
         <v>7.4074074074073626E-4</v>
       </c>
       <c r="N140" s="35"/>
-      <c r="O140" s="43">
+      <c r="O140" s="42">
         <v>17</v>
       </c>
       <c r="P140" s="33">
@@ -14810,7 +14969,7 @@
         <v>7.17592592592603E-4</v>
       </c>
       <c r="N141" s="35"/>
-      <c r="O141" s="43">
+      <c r="O141" s="42">
         <v>18</v>
       </c>
       <c r="P141" s="33">
@@ -14879,7 +15038,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="N142" s="35"/>
-      <c r="O142" s="43">
+      <c r="O142" s="42">
         <v>19</v>
       </c>
       <c r="P142" s="33">
@@ -14948,7 +15107,7 @@
         <v>6.8287037037037535E-4</v>
       </c>
       <c r="N143" s="35"/>
-      <c r="O143" s="43">
+      <c r="O143" s="42">
         <v>20</v>
       </c>
       <c r="P143" s="33">
@@ -15017,7 +15176,7 @@
         <v>6.4814814814811994E-4</v>
       </c>
       <c r="N144" s="35"/>
-      <c r="O144" s="43">
+      <c r="O144" s="42">
         <v>21</v>
       </c>
       <c r="P144" s="33">
@@ -15086,7 +15245,7 @@
         <v>6.2500000000004219E-4</v>
       </c>
       <c r="N145" s="35"/>
-      <c r="O145" s="43">
+      <c r="O145" s="42">
         <v>22</v>
       </c>
       <c r="P145" s="33">
@@ -15155,7 +15314,7 @@
         <v>6.1342592592589229E-4</v>
       </c>
       <c r="N146" s="35"/>
-      <c r="O146" s="43">
+      <c r="O146" s="42">
         <v>23</v>
       </c>
       <c r="P146" s="33">
@@ -15224,7 +15383,7 @@
         <v>5.787037037036924E-4</v>
       </c>
       <c r="N147" s="35"/>
-      <c r="O147" s="43">
+      <c r="O147" s="42">
         <v>24</v>
       </c>
       <c r="P147" s="33">
@@ -15293,7 +15452,7 @@
         <v>5.5555555555555913E-4</v>
       </c>
       <c r="N148" s="35"/>
-      <c r="O148" s="43">
+      <c r="O148" s="42">
         <v>25</v>
       </c>
       <c r="P148" s="33">
@@ -15362,7 +15521,7 @@
         <v>5.3240740740742587E-4</v>
       </c>
       <c r="N149" s="35"/>
-      <c r="O149" s="43">
+      <c r="O149" s="42">
         <v>26</v>
       </c>
       <c r="P149" s="33">
@@ -15431,7 +15590,7 @@
         <v>5.0925925925926485E-4</v>
       </c>
       <c r="N150" s="35"/>
-      <c r="O150" s="43">
+      <c r="O150" s="42">
         <v>27</v>
       </c>
       <c r="P150" s="33">
@@ -15500,7 +15659,7 @@
         <v>4.8611111111110383E-4</v>
       </c>
       <c r="N151" s="35"/>
-      <c r="O151" s="43">
+      <c r="O151" s="42">
         <v>28</v>
       </c>
       <c r="P151" s="33">
@@ -15569,7 +15728,7 @@
         <v>4.5138888888890394E-4</v>
       </c>
       <c r="N152" s="35"/>
-      <c r="O152" s="43">
+      <c r="O152" s="42">
         <v>29</v>
       </c>
       <c r="P152" s="33">
@@ -15638,7 +15797,7 @@
         <v>4.3981481481480955E-4</v>
       </c>
       <c r="N153" s="35"/>
-      <c r="O153" s="43">
+      <c r="O153" s="42">
         <v>30</v>
       </c>
       <c r="P153" s="33">
@@ -15707,7 +15866,7 @@
         <v>4.050925925925819E-4</v>
       </c>
       <c r="N154" s="35"/>
-      <c r="O154" s="43">
+      <c r="O154" s="42">
         <v>31</v>
       </c>
       <c r="P154" s="33">
@@ -15776,7 +15935,7 @@
         <v>3.8194444444444864E-4</v>
       </c>
       <c r="N155" s="35"/>
-      <c r="O155" s="43">
+      <c r="O155" s="42">
         <v>1</v>
       </c>
       <c r="P155" s="33">
@@ -15845,7 +16004,7 @@
         <v>3.4722222222222099E-4</v>
       </c>
       <c r="N156" s="35"/>
-      <c r="O156" s="43">
+      <c r="O156" s="42">
         <v>2</v>
       </c>
       <c r="P156" s="33">
@@ -15914,7 +16073,7 @@
         <v>3.2407407407408773E-4</v>
       </c>
       <c r="N157" s="35"/>
-      <c r="O157" s="43">
+      <c r="O157" s="42">
         <v>3</v>
       </c>
       <c r="P157" s="33">
@@ -15983,7 +16142,7 @@
         <v>3.0092592592589895E-4</v>
       </c>
       <c r="N158" s="35"/>
-      <c r="O158" s="43">
+      <c r="O158" s="42">
         <v>4</v>
       </c>
       <c r="P158" s="33">
@@ -16052,7 +16211,7 @@
         <v>2.7777777777776569E-4</v>
       </c>
       <c r="N159" s="35"/>
-      <c r="O159" s="43">
+      <c r="O159" s="42">
         <v>5</v>
       </c>
       <c r="P159" s="33">
@@ -16121,7 +16280,7 @@
         <v>2.4305555555556579E-4</v>
       </c>
       <c r="N160" s="35"/>
-      <c r="O160" s="43">
+      <c r="O160" s="42">
         <v>6</v>
       </c>
       <c r="P160" s="33">
@@ -16190,7 +16349,7 @@
         <v>2.0833333333333814E-4</v>
       </c>
       <c r="N161" s="35"/>
-      <c r="O161" s="43">
+      <c r="O161" s="42">
         <v>7</v>
       </c>
       <c r="P161" s="33">
@@ -16259,7 +16418,7 @@
         <v>1.9675925925927151E-4</v>
       </c>
       <c r="N162" s="35"/>
-      <c r="O162" s="43">
+      <c r="O162" s="42">
         <v>8</v>
       </c>
       <c r="P162" s="33">
@@ -16328,7 +16487,7 @@
         <v>1.6203703703704386E-4</v>
       </c>
       <c r="N163" s="35"/>
-      <c r="O163" s="43">
+      <c r="O163" s="42">
         <v>9</v>
       </c>
       <c r="P163" s="33">
@@ -16397,7 +16556,7 @@
         <v>1.2731481481478846E-4</v>
       </c>
       <c r="N164" s="35"/>
-      <c r="O164" s="43">
+      <c r="O164" s="42">
         <v>10</v>
       </c>
       <c r="P164" s="33">
@@ -16466,7 +16625,7 @@
         <v>1.1574074074074958E-4</v>
       </c>
       <c r="N165" s="35"/>
-      <c r="O165" s="43">
+      <c r="O165" s="42">
         <v>11</v>
       </c>
       <c r="P165" s="33">
@@ -16535,7 +16694,7 @@
         <v>6.94444444444553E-5</v>
       </c>
       <c r="N166" s="35"/>
-      <c r="O166" s="43">
+      <c r="O166" s="42">
         <v>12</v>
       </c>
       <c r="P166" s="33">
@@ -16604,7 +16763,7 @@
         <v>5.7870370370360913E-5</v>
       </c>
       <c r="N167" s="35"/>
-      <c r="O167" s="43">
+      <c r="O167" s="42">
         <v>13</v>
       </c>
       <c r="P167" s="33">
@@ -16673,7 +16832,7 @@
         <v>2.3148148148133263E-5</v>
       </c>
       <c r="N168" s="35"/>
-      <c r="O168" s="43">
+      <c r="O168" s="42">
         <v>14</v>
       </c>
       <c r="P168" s="33">
@@ -16742,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="N169" s="35"/>
-      <c r="O169" s="43">
+      <c r="O169" s="42">
         <v>15</v>
       </c>
       <c r="P169" s="33">
@@ -16811,7 +16970,7 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="N170" s="35"/>
-      <c r="O170" s="43">
+      <c r="O170" s="42">
         <v>16</v>
       </c>
       <c r="P170" s="33">
@@ -16880,7 +17039,7 @@
         <v>5.7870370370333157E-5</v>
       </c>
       <c r="N171" s="35"/>
-      <c r="O171" s="43">
+      <c r="O171" s="42">
         <v>17</v>
       </c>
       <c r="P171" s="33">
@@ -16949,7 +17108,7 @@
         <v>9.2592592592616318E-5</v>
       </c>
       <c r="N172" s="35"/>
-      <c r="O172" s="43">
+      <c r="O172" s="42">
         <v>18</v>
       </c>
       <c r="P172" s="33">
@@ -17018,7 +17177,7 @@
         <v>1.0416666666668295E-4</v>
       </c>
       <c r="N173" s="35"/>
-      <c r="O173" s="43">
+      <c r="O173" s="42">
         <v>19</v>
       </c>
       <c r="P173" s="33">
@@ -17087,7 +17246,7 @@
         <v>1.3888888888885509E-4</v>
       </c>
       <c r="N174" s="35"/>
-      <c r="O174" s="43">
+      <c r="O174" s="42">
         <v>20</v>
       </c>
       <c r="P174" s="33">
@@ -17156,7 +17315,7 @@
         <v>1.7361111111111049E-4</v>
       </c>
       <c r="N175" s="35"/>
-      <c r="O175" s="43">
+      <c r="O175" s="42">
         <v>21</v>
       </c>
       <c r="P175" s="33">
@@ -17225,7 +17384,7 @@
         <v>1.8518518518517713E-4</v>
       </c>
       <c r="N176" s="35"/>
-      <c r="O176" s="43">
+      <c r="O176" s="42">
         <v>22</v>
       </c>
       <c r="P176" s="33">
@@ -17294,7 +17453,7 @@
         <v>2.1990740740740478E-4</v>
       </c>
       <c r="N177" s="35"/>
-      <c r="O177" s="43">
+      <c r="O177" s="42">
         <v>23</v>
       </c>
       <c r="P177" s="33">
@@ -17363,7 +17522,7 @@
         <v>2.4305555555556579E-4</v>
       </c>
       <c r="N178" s="35"/>
-      <c r="O178" s="43">
+      <c r="O178" s="42">
         <v>24</v>
       </c>
       <c r="P178" s="33">
@@ -17432,7 +17591,7 @@
         <v>2.6620370370369906E-4</v>
       </c>
       <c r="N179" s="35"/>
-      <c r="O179" s="43">
+      <c r="O179" s="42">
         <v>25</v>
       </c>
       <c r="P179" s="33">
@@ -17501,7 +17660,7 @@
         <v>3.0092592592592671E-4</v>
       </c>
       <c r="N180" s="35"/>
-      <c r="O180" s="43">
+      <c r="O180" s="42">
         <v>26</v>
       </c>
       <c r="P180" s="33">
@@ -17570,7 +17729,7 @@
         <v>3.1250000000002109E-4</v>
       </c>
       <c r="N181" s="35"/>
-      <c r="O181" s="43">
+      <c r="O181" s="42">
         <v>27</v>
       </c>
       <c r="P181" s="33">
@@ -17639,7 +17798,7 @@
         <v>3.356481481481266E-4</v>
       </c>
       <c r="N182" s="35"/>
-      <c r="O182" s="43">
+      <c r="O182" s="42">
         <v>28</v>
       </c>
       <c r="P182" s="33">
@@ -17708,7 +17867,7 @@
         <v>3.7037037037038201E-4</v>
       </c>
       <c r="N183" s="35"/>
-      <c r="O183" s="43">
+      <c r="O183" s="42">
         <v>29</v>
       </c>
       <c r="P183" s="33">
@@ -17777,7 +17936,7 @@
         <v>3.8194444444444864E-4</v>
       </c>
       <c r="N184" s="35"/>
-      <c r="O184" s="43">
+      <c r="O184" s="42">
         <v>30</v>
       </c>
       <c r="P184" s="33">
@@ -17846,7 +18005,7 @@
         <v>4.1666666666664853E-4</v>
       </c>
       <c r="N185" s="35"/>
-      <c r="O185" s="43">
+      <c r="O185" s="42">
         <v>1</v>
       </c>
       <c r="P185" s="33">
@@ -17915,7 +18074,7 @@
         <v>4.2824074074077068E-4</v>
       </c>
       <c r="N186" s="35"/>
-      <c r="O186" s="43">
+      <c r="O186" s="42">
         <v>2</v>
       </c>
       <c r="P186" s="33">
@@ -17984,7 +18143,7 @@
         <v>4.5138888888887618E-4</v>
       </c>
       <c r="N187" s="35"/>
-      <c r="O187" s="43">
+      <c r="O187" s="42">
         <v>3</v>
       </c>
       <c r="P187" s="33">
@@ -18053,7 +18212,7 @@
         <v>4.6296296296297057E-4</v>
       </c>
       <c r="N188" s="35"/>
-      <c r="O188" s="43">
+      <c r="O188" s="42">
         <v>4</v>
       </c>
       <c r="P188" s="33">
@@ -18122,7 +18281,7 @@
         <v>4.9768518518519822E-4</v>
       </c>
       <c r="N189" s="35"/>
-      <c r="O189" s="43">
+      <c r="O189" s="42">
         <v>5</v>
       </c>
       <c r="P189" s="33">
@@ -18191,7 +18350,7 @@
         <v>5.0925925925920934E-4</v>
       </c>
       <c r="N190" s="35"/>
-      <c r="O190" s="43">
+      <c r="O190" s="42">
         <v>6</v>
       </c>
       <c r="P190" s="33">
@@ -18260,7 +18419,7 @@
         <v>5.3240740740742587E-4</v>
       </c>
       <c r="N191" s="35"/>
-      <c r="O191" s="43">
+      <c r="O191" s="42">
         <v>7</v>
       </c>
       <c r="P191" s="33">
@@ -18329,7 +18488,7 @@
         <v>5.439814814814925E-4</v>
       </c>
       <c r="N192" s="35"/>
-      <c r="O192" s="43">
+      <c r="O192" s="42">
         <v>8</v>
       </c>
       <c r="P192" s="33">
@@ -18398,7 +18557,7 @@
         <v>5.6712962962965352E-4</v>
       </c>
       <c r="N193" s="35"/>
-      <c r="O193" s="43">
+      <c r="O193" s="42">
         <v>9</v>
       </c>
       <c r="P193" s="33">
@@ -18467,7 +18626,7 @@
         <v>5.7870370370366464E-4</v>
       </c>
       <c r="N194" s="35"/>
-      <c r="O194" s="43">
+      <c r="O194" s="42">
         <v>10</v>
       </c>
       <c r="P194" s="33">
@@ -18536,7 +18695,7 @@
         <v>6.0185185185188117E-4</v>
       </c>
       <c r="N195" s="35"/>
-      <c r="O195" s="43">
+      <c r="O195" s="42">
         <v>11</v>
       </c>
       <c r="P195" s="33">
@@ -18605,7 +18764,7 @@
         <v>6.1342592592592005E-4</v>
       </c>
       <c r="N196" s="35"/>
-      <c r="O196" s="43">
+      <c r="O196" s="42">
         <v>12</v>
       </c>
       <c r="P196" s="33">
@@ -18674,7 +18833,7 @@
         <v>6.2499999999998668E-4</v>
       </c>
       <c r="N197" s="35"/>
-      <c r="O197" s="43">
+      <c r="O197" s="42">
         <v>13</v>
       </c>
       <c r="P197" s="33">
@@ -18743,7 +18902,7 @@
         <v>6.4814814814817545E-4</v>
       </c>
       <c r="N198" s="35"/>
-      <c r="O198" s="43">
+      <c r="O198" s="42">
         <v>14</v>
       </c>
       <c r="P198" s="33">
@@ -18812,7 +18971,7 @@
         <v>6.5972222222221433E-4</v>
       </c>
       <c r="N199" s="35"/>
-      <c r="O199" s="43">
+      <c r="O199" s="42">
         <v>15</v>
       </c>
       <c r="P199" s="33">
@@ -18881,7 +19040,7 @@
         <v>6.7129629629628096E-4</v>
       </c>
       <c r="N200" s="35"/>
-      <c r="O200" s="43">
+      <c r="O200" s="42">
         <v>16</v>
       </c>
       <c r="P200" s="33">
@@ -18950,7 +19109,7 @@
         <v>6.8287037037037535E-4</v>
       </c>
       <c r="N201" s="35"/>
-      <c r="O201" s="43">
+      <c r="O201" s="42">
         <v>17</v>
       </c>
       <c r="P201" s="33">
@@ -19019,7 +19178,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="N202" s="35"/>
-      <c r="O202" s="43">
+      <c r="O202" s="42">
         <v>18</v>
       </c>
       <c r="P202" s="33">
@@ -19088,7 +19247,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="N203" s="35"/>
-      <c r="O203" s="43">
+      <c r="O203" s="42">
         <v>19</v>
       </c>
       <c r="P203" s="33">
@@ -19157,7 +19316,7 @@
         <v>7.1759259259257524E-4</v>
       </c>
       <c r="N204" s="35"/>
-      <c r="O204" s="43">
+      <c r="O204" s="42">
         <v>20</v>
       </c>
       <c r="P204" s="33">
@@ -19226,7 +19385,7 @@
         <v>7.2916666666666963E-4</v>
       </c>
       <c r="N205" s="35"/>
-      <c r="O205" s="43">
+      <c r="O205" s="42">
         <v>21</v>
       </c>
       <c r="P205" s="33">
@@ -19295,7 +19454,7 @@
         <v>7.2916666666666963E-4</v>
       </c>
       <c r="N206" s="35"/>
-      <c r="O206" s="43">
+      <c r="O206" s="42">
         <v>22</v>
       </c>
       <c r="P206" s="33">
@@ -19364,7 +19523,7 @@
         <v>7.5231481481483065E-4</v>
       </c>
       <c r="N207" s="35"/>
-      <c r="O207" s="43">
+      <c r="O207" s="42">
         <v>23</v>
       </c>
       <c r="P207" s="33">
@@ -19433,7 +19592,7 @@
         <v>7.4074074074073626E-4</v>
       </c>
       <c r="N208" s="35"/>
-      <c r="O208" s="43">
+      <c r="O208" s="42">
         <v>24</v>
       </c>
       <c r="P208" s="33">
@@ -19502,7 +19661,7 @@
         <v>7.6388888888886952E-4</v>
       </c>
       <c r="N209" s="35"/>
-      <c r="O209" s="43">
+      <c r="O209" s="42">
         <v>25</v>
       </c>
       <c r="P209" s="33">
@@ -19571,7 +19730,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N210" s="35"/>
-      <c r="O210" s="43">
+      <c r="O210" s="42">
         <v>26</v>
       </c>
       <c r="P210" s="33">
@@ -19640,7 +19799,7 @@
         <v>7.7546296296296391E-4</v>
       </c>
       <c r="N211" s="35"/>
-      <c r="O211" s="43">
+      <c r="O211" s="42">
         <v>27</v>
       </c>
       <c r="P211" s="33">
@@ -19709,7 +19868,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N212" s="35"/>
-      <c r="O212" s="43">
+      <c r="O212" s="42">
         <v>28</v>
       </c>
       <c r="P212" s="33">
@@ -19778,7 +19937,7 @@
         <v>7.8703703703700278E-4</v>
       </c>
       <c r="N213" s="35"/>
-      <c r="O213" s="43">
+      <c r="O213" s="42">
         <v>29</v>
       </c>
       <c r="P213" s="33">
@@ -19847,7 +20006,7 @@
         <v>7.870370370370583E-4</v>
       </c>
       <c r="N214" s="35"/>
-      <c r="O214" s="43">
+      <c r="O214" s="42">
         <v>30</v>
       </c>
       <c r="P214" s="33">
@@ -19916,7 +20075,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N215" s="35"/>
-      <c r="O215" s="43">
+      <c r="O215" s="42">
         <v>31</v>
       </c>
       <c r="P215" s="33">
@@ -19985,7 +20144,7 @@
         <v>7.9861111111109717E-4</v>
       </c>
       <c r="N216" s="35"/>
-      <c r="O216" s="43">
+      <c r="O216" s="42">
         <v>1</v>
       </c>
       <c r="P216" s="33">
@@ -20054,7 +20213,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N217" s="35"/>
-      <c r="O217" s="43">
+      <c r="O217" s="42">
         <v>2</v>
       </c>
       <c r="P217" s="33">
@@ -20123,7 +20282,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N218" s="35"/>
-      <c r="O218" s="43">
+      <c r="O218" s="42">
         <v>3</v>
       </c>
       <c r="P218" s="33">
@@ -20192,7 +20351,7 @@
         <v>8.1018518518519156E-4</v>
       </c>
       <c r="N219" s="35"/>
-      <c r="O219" s="43">
+      <c r="O219" s="42">
         <v>4</v>
       </c>
       <c r="P219" s="33">
@@ -20261,7 +20420,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N220" s="35"/>
-      <c r="O220" s="43">
+      <c r="O220" s="42">
         <v>5</v>
       </c>
       <c r="P220" s="33">
@@ -20330,7 +20489,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N221" s="35"/>
-      <c r="O221" s="43">
+      <c r="O221" s="42">
         <v>6</v>
       </c>
       <c r="P221" s="33">
@@ -20399,7 +20558,7 @@
         <v>8.1018518518519156E-4</v>
       </c>
       <c r="N222" s="35"/>
-      <c r="O222" s="43">
+      <c r="O222" s="42">
         <v>7</v>
       </c>
       <c r="P222" s="33">
@@ -20468,7 +20627,7 @@
         <v>8.1018518518519156E-4</v>
       </c>
       <c r="N223" s="35"/>
-      <c r="O223" s="43">
+      <c r="O223" s="42">
         <v>8</v>
       </c>
       <c r="P223" s="33">
@@ -20537,7 +20696,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N224" s="35"/>
-      <c r="O224" s="43">
+      <c r="O224" s="42">
         <v>9</v>
       </c>
       <c r="P224" s="33">
@@ -20606,7 +20765,7 @@
         <v>8.1018518518519156E-4</v>
       </c>
       <c r="N225" s="35"/>
-      <c r="O225" s="43">
+      <c r="O225" s="42">
         <v>10</v>
       </c>
       <c r="P225" s="33">
@@ -20675,7 +20834,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N226" s="35"/>
-      <c r="O226" s="43">
+      <c r="O226" s="42">
         <v>11</v>
       </c>
       <c r="P226" s="33">
@@ -20744,7 +20903,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N227" s="35"/>
-      <c r="O227" s="43">
+      <c r="O227" s="42">
         <v>12</v>
       </c>
       <c r="P227" s="33">
@@ -20813,7 +20972,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N228" s="35"/>
-      <c r="O228" s="43">
+      <c r="O228" s="42">
         <v>13</v>
       </c>
       <c r="P228" s="33">
@@ -20882,7 +21041,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N229" s="35"/>
-      <c r="O229" s="43">
+      <c r="O229" s="42">
         <v>14</v>
       </c>
       <c r="P229" s="33">
@@ -20951,7 +21110,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N230" s="35"/>
-      <c r="O230" s="43">
+      <c r="O230" s="42">
         <v>15</v>
       </c>
       <c r="P230" s="33">
@@ -21020,7 +21179,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N231" s="35"/>
-      <c r="O231" s="43">
+      <c r="O231" s="42">
         <v>16</v>
       </c>
       <c r="P231" s="33">
@@ -21089,7 +21248,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N232" s="35"/>
-      <c r="O232" s="43">
+      <c r="O232" s="42">
         <v>17</v>
       </c>
       <c r="P232" s="33">
@@ -21158,7 +21317,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N233" s="35"/>
-      <c r="O233" s="43">
+      <c r="O233" s="42">
         <v>18</v>
       </c>
       <c r="P233" s="33">
@@ -21227,7 +21386,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N234" s="35"/>
-      <c r="O234" s="43">
+      <c r="O234" s="42">
         <v>19</v>
       </c>
       <c r="P234" s="33">
@@ -21296,7 +21455,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N235" s="35"/>
-      <c r="O235" s="43">
+      <c r="O235" s="42">
         <v>20</v>
       </c>
       <c r="P235" s="33">
@@ -21365,7 +21524,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N236" s="35"/>
-      <c r="O236" s="43">
+      <c r="O236" s="42">
         <v>21</v>
       </c>
       <c r="P236" s="33">
@@ -21434,7 +21593,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N237" s="35"/>
-      <c r="O237" s="43">
+      <c r="O237" s="42">
         <v>22</v>
       </c>
       <c r="P237" s="33">
@@ -21503,7 +21662,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N238" s="35"/>
-      <c r="O238" s="43">
+      <c r="O238" s="42">
         <v>23</v>
       </c>
       <c r="P238" s="33">
@@ -21572,7 +21731,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N239" s="35"/>
-      <c r="O239" s="43">
+      <c r="O239" s="42">
         <v>24</v>
       </c>
       <c r="P239" s="33">
@@ -21641,7 +21800,7 @@
         <v>7.9861111111106942E-4</v>
       </c>
       <c r="N240" s="35"/>
-      <c r="O240" s="43">
+      <c r="O240" s="42">
         <v>25</v>
       </c>
       <c r="P240" s="33">
@@ -21710,7 +21869,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N241" s="35"/>
-      <c r="O241" s="43">
+      <c r="O241" s="42">
         <v>26</v>
       </c>
       <c r="P241" s="33">
@@ -21779,7 +21938,7 @@
         <v>7.9861111111106942E-4</v>
       </c>
       <c r="N242" s="35"/>
-      <c r="O242" s="43">
+      <c r="O242" s="42">
         <v>27</v>
       </c>
       <c r="P242" s="33">
@@ -21848,7 +22007,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N243" s="35"/>
-      <c r="O243" s="43">
+      <c r="O243" s="42">
         <v>28</v>
       </c>
       <c r="P243" s="33">
@@ -21917,7 +22076,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N244" s="35"/>
-      <c r="O244" s="43">
+      <c r="O244" s="42">
         <v>29</v>
       </c>
       <c r="P244" s="33">
@@ -21986,7 +22145,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N245" s="35"/>
-      <c r="O245" s="43">
+      <c r="O245" s="42">
         <v>30</v>
       </c>
       <c r="P245" s="33">
@@ -22055,7 +22214,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N246" s="35"/>
-      <c r="O246" s="43">
+      <c r="O246" s="42">
         <v>31</v>
       </c>
       <c r="P246" s="33">
@@ -22124,7 +22283,7 @@
         <v>7.8703703703708605E-4</v>
       </c>
       <c r="N247" s="35"/>
-      <c r="O247" s="43">
+      <c r="O247" s="42">
         <v>1</v>
       </c>
       <c r="P247" s="33">
@@ -22193,7 +22352,7 @@
         <v>7.8703703703697503E-4</v>
       </c>
       <c r="N248" s="35"/>
-      <c r="O248" s="43">
+      <c r="O248" s="42">
         <v>2</v>
       </c>
       <c r="P248" s="33">
@@ -22262,7 +22421,7 @@
         <v>7.8703703703708605E-4</v>
       </c>
       <c r="N249" s="35"/>
-      <c r="O249" s="43">
+      <c r="O249" s="42">
         <v>3</v>
       </c>
       <c r="P249" s="33">
@@ -22331,7 +22490,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N250" s="35"/>
-      <c r="O250" s="43">
+      <c r="O250" s="42">
         <v>4</v>
       </c>
       <c r="P250" s="33">
@@ -22400,7 +22559,7 @@
         <v>7.7546296296293615E-4</v>
       </c>
       <c r="N251" s="35"/>
-      <c r="O251" s="43">
+      <c r="O251" s="42">
         <v>5</v>
       </c>
       <c r="P251" s="33">
@@ -22469,7 +22628,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N252" s="35"/>
-      <c r="O252" s="43">
+      <c r="O252" s="42">
         <v>6</v>
       </c>
       <c r="P252" s="33">
@@ -22538,7 +22697,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N253" s="35"/>
-      <c r="O253" s="43">
+      <c r="O253" s="42">
         <v>7</v>
       </c>
       <c r="P253" s="33">
@@ -22607,7 +22766,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N254" s="35"/>
-      <c r="O254" s="43">
+      <c r="O254" s="42">
         <v>8</v>
       </c>
       <c r="P254" s="33">
@@ -22676,7 +22835,7 @@
         <v>7.7546296296293615E-4</v>
       </c>
       <c r="N255" s="35"/>
-      <c r="O255" s="43">
+      <c r="O255" s="42">
         <v>9</v>
       </c>
       <c r="P255" s="33">
@@ -22745,7 +22904,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N256" s="35"/>
-      <c r="O256" s="43">
+      <c r="O256" s="42">
         <v>10</v>
       </c>
       <c r="P256" s="33">
@@ -22814,7 +22973,7 @@
         <v>7.7546296296293615E-4</v>
       </c>
       <c r="N257" s="35"/>
-      <c r="O257" s="43">
+      <c r="O257" s="42">
         <v>11</v>
       </c>
       <c r="P257" s="33">
@@ -22883,7 +23042,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N258" s="35"/>
-      <c r="O258" s="43">
+      <c r="O258" s="42">
         <v>12</v>
       </c>
       <c r="P258" s="33">
@@ -22952,7 +23111,7 @@
         <v>7.7546296296293615E-4</v>
       </c>
       <c r="N259" s="35"/>
-      <c r="O259" s="43">
+      <c r="O259" s="42">
         <v>13</v>
       </c>
       <c r="P259" s="33">
@@ -23021,7 +23180,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N260" s="35"/>
-      <c r="O260" s="43">
+      <c r="O260" s="42">
         <v>14</v>
       </c>
       <c r="P260" s="33">
@@ -23090,7 +23249,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N261" s="35"/>
-      <c r="O261" s="43">
+      <c r="O261" s="42">
         <v>15</v>
       </c>
       <c r="P261" s="33">
@@ -23159,7 +23318,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N262" s="35"/>
-      <c r="O262" s="43">
+      <c r="O262" s="42">
         <v>16</v>
       </c>
       <c r="P262" s="33">
@@ -23228,7 +23387,7 @@
         <v>7.6388888888884177E-4</v>
       </c>
       <c r="N263" s="35"/>
-      <c r="O263" s="43">
+      <c r="O263" s="42">
         <v>17</v>
       </c>
       <c r="P263" s="33">
@@ -23297,7 +23456,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N264" s="35"/>
-      <c r="O264" s="43">
+      <c r="O264" s="42">
         <v>18</v>
       </c>
       <c r="P264" s="33">
@@ -23366,7 +23525,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N265" s="35"/>
-      <c r="O265" s="43">
+      <c r="O265" s="42">
         <v>19</v>
       </c>
       <c r="P265" s="33">
@@ -23435,7 +23594,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N266" s="35"/>
-      <c r="O266" s="43">
+      <c r="O266" s="42">
         <v>20</v>
       </c>
       <c r="P266" s="33">
@@ -23504,7 +23663,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N267" s="35"/>
-      <c r="O267" s="43">
+      <c r="O267" s="42">
         <v>21</v>
       </c>
       <c r="P267" s="33">
@@ -23573,7 +23732,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N268" s="35"/>
-      <c r="O268" s="43">
+      <c r="O268" s="42">
         <v>22</v>
       </c>
       <c r="P268" s="33">
@@ -23642,7 +23801,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N269" s="35"/>
-      <c r="O269" s="43">
+      <c r="O269" s="42">
         <v>23</v>
       </c>
       <c r="P269" s="33">
@@ -23711,7 +23870,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N270" s="35"/>
-      <c r="O270" s="43">
+      <c r="O270" s="42">
         <v>24</v>
       </c>
       <c r="P270" s="33">
@@ -23780,7 +23939,7 @@
         <v>7.6388888888884177E-4</v>
       </c>
       <c r="N271" s="35"/>
-      <c r="O271" s="43">
+      <c r="O271" s="42">
         <v>25</v>
       </c>
       <c r="P271" s="33">
@@ -23849,7 +24008,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N272" s="35"/>
-      <c r="O272" s="43">
+      <c r="O272" s="42">
         <v>26</v>
       </c>
       <c r="P272" s="33">
@@ -23918,7 +24077,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N273" s="35"/>
-      <c r="O273" s="43">
+      <c r="O273" s="42">
         <v>27</v>
       </c>
       <c r="P273" s="33">
@@ -23987,7 +24146,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N274" s="35"/>
-      <c r="O274" s="43">
+      <c r="O274" s="42">
         <v>28</v>
       </c>
       <c r="P274" s="33">
@@ -24056,7 +24215,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N275" s="35"/>
-      <c r="O275" s="43">
+      <c r="O275" s="42">
         <v>29</v>
       </c>
       <c r="P275" s="33">
@@ -24125,7 +24284,7 @@
         <v>7.7546296296293615E-4</v>
       </c>
       <c r="N276" s="35"/>
-      <c r="O276" s="43">
+      <c r="O276" s="42">
         <v>30</v>
       </c>
       <c r="P276" s="33">
@@ -24194,7 +24353,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N277" s="35"/>
-      <c r="O277" s="43">
+      <c r="O277" s="42">
         <v>1</v>
       </c>
       <c r="P277" s="33">
@@ -24263,7 +24422,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N278" s="35"/>
-      <c r="O278" s="43">
+      <c r="O278" s="42">
         <v>2</v>
       </c>
       <c r="P278" s="33">
@@ -24332,7 +24491,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N279" s="35"/>
-      <c r="O279" s="43">
+      <c r="O279" s="42">
         <v>3</v>
       </c>
       <c r="P279" s="33">
@@ -24401,7 +24560,7 @@
         <v>7.7546296296293615E-4</v>
       </c>
       <c r="N280" s="35"/>
-      <c r="O280" s="43">
+      <c r="O280" s="42">
         <v>4</v>
       </c>
       <c r="P280" s="33">
@@ -24470,7 +24629,7 @@
         <v>7.7546296296293615E-4</v>
       </c>
       <c r="N281" s="35"/>
-      <c r="O281" s="43">
+      <c r="O281" s="42">
         <v>5</v>
       </c>
       <c r="P281" s="33">
@@ -24539,7 +24698,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N282" s="35"/>
-      <c r="O282" s="43">
+      <c r="O282" s="42">
         <v>6</v>
       </c>
       <c r="P282" s="33">
@@ -24608,7 +24767,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N283" s="35"/>
-      <c r="O283" s="43">
+      <c r="O283" s="42">
         <v>7</v>
       </c>
       <c r="P283" s="33">
@@ -24677,7 +24836,7 @@
         <v>7.7546296296293615E-4</v>
       </c>
       <c r="N284" s="35"/>
-      <c r="O284" s="43">
+      <c r="O284" s="42">
         <v>8</v>
       </c>
       <c r="P284" s="33">
@@ -24746,7 +24905,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N285" s="35"/>
-      <c r="O285" s="43">
+      <c r="O285" s="42">
         <v>9</v>
       </c>
       <c r="P285" s="33">
@@ -24815,7 +24974,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N286" s="35"/>
-      <c r="O286" s="43">
+      <c r="O286" s="42">
         <v>10</v>
       </c>
       <c r="P286" s="33">
@@ -24884,7 +25043,7 @@
         <v>7.8703703703697503E-4</v>
       </c>
       <c r="N287" s="35"/>
-      <c r="O287" s="43">
+      <c r="O287" s="42">
         <v>11</v>
       </c>
       <c r="P287" s="33">
@@ -24953,7 +25112,7 @@
         <v>7.8703703703708605E-4</v>
       </c>
       <c r="N288" s="35"/>
-      <c r="O288" s="43">
+      <c r="O288" s="42">
         <v>12</v>
       </c>
       <c r="P288" s="33">
@@ -25022,7 +25181,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N289" s="35"/>
-      <c r="O289" s="43">
+      <c r="O289" s="42">
         <v>13</v>
       </c>
       <c r="P289" s="33">
@@ -25091,7 +25250,7 @@
         <v>7.8703703703703054E-4</v>
       </c>
       <c r="N290" s="35"/>
-      <c r="O290" s="43">
+      <c r="O290" s="42">
         <v>14</v>
       </c>
       <c r="P290" s="33">
@@ -25160,7 +25319,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N291" s="35"/>
-      <c r="O291" s="43">
+      <c r="O291" s="42">
         <v>15</v>
       </c>
       <c r="P291" s="33">
@@ -25229,7 +25388,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N292" s="35"/>
-      <c r="O292" s="43">
+      <c r="O292" s="42">
         <v>16</v>
       </c>
       <c r="P292" s="33">
@@ -25298,7 +25457,7 @@
         <v>7.8703703703697503E-4</v>
       </c>
       <c r="N293" s="35"/>
-      <c r="O293" s="43">
+      <c r="O293" s="42">
         <v>17</v>
       </c>
       <c r="P293" s="33">
@@ -25367,7 +25526,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N294" s="35"/>
-      <c r="O294" s="43">
+      <c r="O294" s="42">
         <v>18</v>
       </c>
       <c r="P294" s="33">
@@ -25436,7 +25595,7 @@
         <v>7.9861111111106942E-4</v>
       </c>
       <c r="N295" s="35"/>
-      <c r="O295" s="43">
+      <c r="O295" s="42">
         <v>19</v>
       </c>
       <c r="P295" s="33">
@@ -25505,7 +25664,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N296" s="35"/>
-      <c r="O296" s="43">
+      <c r="O296" s="42">
         <v>20</v>
       </c>
       <c r="P296" s="33">
@@ -25574,7 +25733,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N297" s="35"/>
-      <c r="O297" s="43">
+      <c r="O297" s="42">
         <v>21</v>
       </c>
       <c r="P297" s="33">
@@ -25643,7 +25802,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N298" s="35"/>
-      <c r="O298" s="43">
+      <c r="O298" s="42">
         <v>22</v>
       </c>
       <c r="P298" s="33">
@@ -25712,7 +25871,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N299" s="35"/>
-      <c r="O299" s="43">
+      <c r="O299" s="42">
         <v>23</v>
       </c>
       <c r="P299" s="33">
@@ -25781,7 +25940,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N300" s="35"/>
-      <c r="O300" s="43">
+      <c r="O300" s="42">
         <v>24</v>
       </c>
       <c r="P300" s="33">
@@ -25850,7 +26009,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N301" s="35"/>
-      <c r="O301" s="43">
+      <c r="O301" s="42">
         <v>25</v>
       </c>
       <c r="P301" s="33">
@@ -25919,7 +26078,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N302" s="35"/>
-      <c r="O302" s="43">
+      <c r="O302" s="42">
         <v>26</v>
       </c>
       <c r="P302" s="33">
@@ -25988,7 +26147,7 @@
         <v>8.2175925925920268E-4</v>
       </c>
       <c r="N303" s="35"/>
-      <c r="O303" s="43">
+      <c r="O303" s="42">
         <v>27</v>
       </c>
       <c r="P303" s="33">
@@ -26057,7 +26216,7 @@
         <v>8.217592592593137E-4</v>
       </c>
       <c r="N304" s="35"/>
-      <c r="O304" s="43">
+      <c r="O304" s="42">
         <v>28</v>
       </c>
       <c r="P304" s="33">
@@ -26126,7 +26285,7 @@
         <v>-4.0844907407407427E-2</v>
       </c>
       <c r="N305" s="35"/>
-      <c r="O305" s="43">
+      <c r="O305" s="42">
         <v>29</v>
       </c>
       <c r="P305" s="33">
@@ -26195,13 +26354,13 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N306" s="35"/>
-      <c r="O306" s="43">
+      <c r="O306" s="42">
         <v>30</v>
       </c>
-      <c r="P306" s="41">
+      <c r="P306" s="40">
         <v>0.28931712962962963</v>
       </c>
-      <c r="Q306" s="41">
+      <c r="Q306" s="40">
         <v>0.72508101851851858</v>
       </c>
       <c r="R306" s="34"/>
@@ -26262,7 +26421,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N307" s="35"/>
-      <c r="O307" s="43">
+      <c r="O307" s="42">
         <v>31</v>
       </c>
       <c r="P307" s="24">
@@ -26329,7 +26488,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N308" s="35"/>
-      <c r="O308" s="43">
+      <c r="O308" s="42">
         <v>1</v>
       </c>
       <c r="P308" s="24">
@@ -26396,7 +26555,7 @@
         <v>8.3333333333329707E-4</v>
       </c>
       <c r="N309" s="35"/>
-      <c r="O309" s="43">
+      <c r="O309" s="42">
         <v>2</v>
       </c>
       <c r="P309" s="24">
@@ -26463,7 +26622,7 @@
         <v>8.217592592593137E-4</v>
       </c>
       <c r="N310" s="35"/>
-      <c r="O310" s="43">
+      <c r="O310" s="42">
         <v>3</v>
       </c>
       <c r="P310" s="24">
@@ -26530,7 +26689,7 @@
         <v>8.3333333333329707E-4</v>
       </c>
       <c r="N311" s="35"/>
-      <c r="O311" s="43">
+      <c r="O311" s="42">
         <v>4</v>
       </c>
       <c r="P311" s="24">
@@ -26597,7 +26756,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N312" s="35"/>
-      <c r="O312" s="43">
+      <c r="O312" s="42">
         <v>5</v>
       </c>
       <c r="P312" s="24">
@@ -26664,7 +26823,7 @@
         <v>8.3333333333335258E-4</v>
       </c>
       <c r="N313" s="35"/>
-      <c r="O313" s="43">
+      <c r="O313" s="42">
         <v>6</v>
       </c>
       <c r="P313" s="24">
@@ -26731,7 +26890,7 @@
         <v>8.3333333333335258E-4</v>
       </c>
       <c r="N314" s="35"/>
-      <c r="O314" s="43">
+      <c r="O314" s="42">
         <v>7</v>
       </c>
       <c r="P314" s="24">
@@ -26798,7 +26957,7 @@
         <v>8.2175925925920268E-4</v>
       </c>
       <c r="N315" s="35"/>
-      <c r="O315" s="43">
+      <c r="O315" s="42">
         <v>8</v>
       </c>
       <c r="P315" s="24">
@@ -26865,7 +27024,7 @@
         <v>8.217592592593137E-4</v>
       </c>
       <c r="N316" s="35"/>
-      <c r="O316" s="43">
+      <c r="O316" s="42">
         <v>9</v>
       </c>
       <c r="P316" s="24">
@@ -26932,7 +27091,7 @@
         <v>8.3333333333329707E-4</v>
       </c>
       <c r="N317" s="35"/>
-      <c r="O317" s="43">
+      <c r="O317" s="42">
         <v>10</v>
       </c>
       <c r="P317" s="24">
@@ -26999,7 +27158,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N318" s="35"/>
-      <c r="O318" s="43">
+      <c r="O318" s="42">
         <v>11</v>
       </c>
       <c r="P318" s="24">
@@ -27066,7 +27225,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N319" s="35"/>
-      <c r="O319" s="43">
+      <c r="O319" s="42">
         <v>12</v>
       </c>
       <c r="P319" s="24">
@@ -27133,7 +27292,7 @@
         <v>8.2175925925925819E-4</v>
       </c>
       <c r="N320" s="35"/>
-      <c r="O320" s="43">
+      <c r="O320" s="42">
         <v>13</v>
       </c>
       <c r="P320" s="24">
@@ -27200,7 +27359,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N321" s="35"/>
-      <c r="O321" s="43">
+      <c r="O321" s="42">
         <v>14</v>
       </c>
       <c r="P321" s="24">
@@ -27267,7 +27426,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N322" s="35"/>
-      <c r="O322" s="43">
+      <c r="O322" s="42">
         <v>15</v>
       </c>
       <c r="P322" s="24">
@@ -27334,7 +27493,7 @@
         <v>8.101851851851638E-4</v>
       </c>
       <c r="N323" s="35"/>
-      <c r="O323" s="43">
+      <c r="O323" s="42">
         <v>16</v>
       </c>
       <c r="P323" s="24">
@@ -27401,7 +27560,7 @@
         <v>8.1018518518521931E-4</v>
       </c>
       <c r="N324" s="35"/>
-      <c r="O324" s="43">
+      <c r="O324" s="42">
         <v>17</v>
       </c>
       <c r="P324" s="24">
@@ -27468,7 +27627,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N325" s="35"/>
-      <c r="O325" s="43">
+      <c r="O325" s="42">
         <v>18</v>
       </c>
       <c r="P325" s="24">
@@ -27535,7 +27694,7 @@
         <v>7.9861111111106942E-4</v>
       </c>
       <c r="N326" s="35"/>
-      <c r="O326" s="43">
+      <c r="O326" s="42">
         <v>19</v>
       </c>
       <c r="P326" s="24">
@@ -27602,7 +27761,7 @@
         <v>7.9861111111112493E-4</v>
       </c>
       <c r="N327" s="35"/>
-      <c r="O327" s="43">
+      <c r="O327" s="42">
         <v>20</v>
       </c>
       <c r="P327" s="24">
@@ -27669,7 +27828,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N328" s="35"/>
-      <c r="O328" s="43">
+      <c r="O328" s="42">
         <v>21</v>
       </c>
       <c r="P328" s="24">
@@ -27736,7 +27895,7 @@
         <v>7.8703703703697503E-4</v>
       </c>
       <c r="N329" s="35"/>
-      <c r="O329" s="43">
+      <c r="O329" s="42">
         <v>22</v>
       </c>
       <c r="P329" s="24">
@@ -27803,7 +27962,7 @@
         <v>7.6388888888889728E-4</v>
       </c>
       <c r="N330" s="35"/>
-      <c r="O330" s="43">
+      <c r="O330" s="42">
         <v>23</v>
       </c>
       <c r="P330" s="24">
@@ -27870,7 +28029,7 @@
         <v>7.7546296296299166E-4</v>
       </c>
       <c r="N331" s="35"/>
-      <c r="O331" s="43">
+      <c r="O331" s="42">
         <v>24</v>
       </c>
       <c r="P331" s="24">
@@ -27937,7 +28096,7 @@
         <v>7.5231481481480289E-4</v>
       </c>
       <c r="N332" s="35"/>
-      <c r="O332" s="43">
+      <c r="O332" s="42">
         <v>25</v>
       </c>
       <c r="P332" s="24">
@@ -28004,7 +28163,7 @@
         <v>7.523148148148584E-4</v>
       </c>
       <c r="N333" s="35"/>
-      <c r="O333" s="43">
+      <c r="O333" s="42">
         <v>26</v>
       </c>
       <c r="P333" s="24">
@@ -28071,7 +28230,7 @@
         <v>7.2916666666661412E-4</v>
       </c>
       <c r="N334" s="35"/>
-      <c r="O334" s="43">
+      <c r="O334" s="42">
         <v>27</v>
       </c>
       <c r="P334" s="24">
@@ -28138,7 +28297,7 @@
         <v>7.2916666666666963E-4</v>
       </c>
       <c r="N335" s="35"/>
-      <c r="O335" s="43">
+      <c r="O335" s="42">
         <v>28</v>
       </c>
       <c r="P335" s="24">
@@ -28205,7 +28364,7 @@
         <v>7.1759259259257524E-4</v>
       </c>
       <c r="N336" s="35"/>
-      <c r="O336" s="43">
+      <c r="O336" s="42">
         <v>29</v>
       </c>
       <c r="P336" s="24">
@@ -28272,7 +28431,7 @@
         <v>7.1759259259263075E-4</v>
       </c>
       <c r="N337" s="35"/>
-      <c r="O337" s="43">
+      <c r="O337" s="42">
         <v>30</v>
       </c>
       <c r="P337" s="24">
@@ -28339,7 +28498,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="N338" s="35"/>
-      <c r="O338" s="43">
+      <c r="O338" s="42">
         <v>1</v>
       </c>
       <c r="P338" s="24">
@@ -28406,7 +28565,7 @@
         <v>6.828703703704031E-4</v>
       </c>
       <c r="N339" s="35"/>
-      <c r="O339" s="43">
+      <c r="O339" s="42">
         <v>2</v>
       </c>
       <c r="P339" s="24">
@@ -28473,7 +28632,7 @@
         <v>6.712962962962532E-4</v>
       </c>
       <c r="N340" s="35"/>
-      <c r="O340" s="43">
+      <c r="O340" s="42">
         <v>3</v>
       </c>
       <c r="P340" s="24">
@@ -28540,7 +28699,7 @@
         <v>6.5972222222221433E-4</v>
       </c>
       <c r="N341" s="35"/>
-      <c r="O341" s="43">
+      <c r="O341" s="42">
         <v>4</v>
       </c>
       <c r="P341" s="24">
@@ -28607,7 +28766,7 @@
         <v>6.3657407407408106E-4</v>
       </c>
       <c r="N342" s="35"/>
-      <c r="O342" s="43">
+      <c r="O342" s="42">
         <v>5</v>
       </c>
       <c r="P342" s="24">
@@ -28674,7 +28833,7 @@
         <v>6.3657407407408106E-4</v>
       </c>
       <c r="N343" s="35"/>
-      <c r="O343" s="43">
+      <c r="O343" s="42">
         <v>6</v>
       </c>
       <c r="P343" s="24">
@@ -28741,7 +28900,7 @@
         <v>6.134259259259478E-4</v>
       </c>
       <c r="N344" s="35"/>
-      <c r="O344" s="43">
+      <c r="O344" s="42">
         <v>7</v>
       </c>
       <c r="P344" s="24">
@@ -28808,7 +28967,7 @@
         <v>6.018518518517979E-4</v>
       </c>
       <c r="N345" s="35"/>
-      <c r="O345" s="43">
+      <c r="O345" s="42">
         <v>8</v>
       </c>
       <c r="P345" s="24">
@@ -28875,7 +29034,7 @@
         <v>5.7870370370372015E-4</v>
       </c>
       <c r="N346" s="35"/>
-      <c r="O346" s="43">
+      <c r="O346" s="42">
         <v>9</v>
       </c>
       <c r="P346" s="24">
@@ -28942,7 +29101,7 @@
         <v>5.6712962962968128E-4</v>
       </c>
       <c r="N347" s="35"/>
-      <c r="O347" s="43">
+      <c r="O347" s="42">
         <v>10</v>
       </c>
       <c r="P347" s="24">
@@ -29009,7 +29168,7 @@
         <v>5.4398148148143699E-4</v>
       </c>
       <c r="N348" s="35"/>
-      <c r="O348" s="43">
+      <c r="O348" s="42">
         <v>11</v>
       </c>
       <c r="P348" s="24">
@@ -29076,7 +29235,7 @@
         <v>5.3240740740739811E-4</v>
       </c>
       <c r="N349" s="35"/>
-      <c r="O349" s="43">
+      <c r="O349" s="42">
         <v>12</v>
       </c>
       <c r="P349" s="24">
@@ -29143,7 +29302,7 @@
         <v>5.0925925925926485E-4</v>
       </c>
       <c r="N350" s="35"/>
-      <c r="O350" s="43">
+      <c r="O350" s="42">
         <v>13</v>
       </c>
       <c r="P350" s="24">
@@ -29210,7 +29369,7 @@
         <v>4.9768518518522598E-4</v>
       </c>
       <c r="N351" s="35"/>
-      <c r="O351" s="43">
+      <c r="O351" s="42">
         <v>14</v>
       </c>
       <c r="P351" s="24">
@@ -29277,7 +29436,7 @@
         <v>4.745370370370372E-4</v>
       </c>
       <c r="N352" s="35"/>
-      <c r="O352" s="43">
+      <c r="O352" s="42">
         <v>15</v>
       </c>
       <c r="P352" s="24">
@@ -29344,7 +29503,7 @@
         <v>4.5138888888884843E-4</v>
       </c>
       <c r="N353" s="35"/>
-      <c r="O353" s="43">
+      <c r="O353" s="42">
         <v>16</v>
       </c>
       <c r="P353" s="24">
@@ -29411,7 +29570,7 @@
         <v>4.2824074074077068E-4</v>
       </c>
       <c r="N354" s="35"/>
-      <c r="O354" s="43">
+      <c r="O354" s="42">
         <v>17</v>
       </c>
       <c r="P354" s="24">
@@ -29478,7 +29637,7 @@
         <v>4.1666666666662078E-4</v>
       </c>
       <c r="N355" s="35"/>
-      <c r="O355" s="43">
+      <c r="O355" s="42">
         <v>18</v>
       </c>
       <c r="P355" s="24">
@@ -29545,7 +29704,7 @@
         <v>3.8194444444450415E-4</v>
       </c>
       <c r="N356" s="35"/>
-      <c r="O356" s="43">
+      <c r="O356" s="42">
         <v>19</v>
       </c>
       <c r="P356" s="24">
@@ -29612,7 +29771,7 @@
         <v>3.7037037037035425E-4</v>
       </c>
       <c r="N357" s="35"/>
-      <c r="O357" s="43">
+      <c r="O357" s="42">
         <v>20</v>
       </c>
       <c r="P357" s="24">
@@ -29679,7 +29838,7 @@
         <v>3.4722222222222099E-4</v>
       </c>
       <c r="N358" s="35"/>
-      <c r="O358" s="43">
+      <c r="O358" s="42">
         <v>21</v>
       </c>
       <c r="P358" s="24">
@@ -29746,7 +29905,7 @@
         <v>3.1249999999999334E-4</v>
       </c>
       <c r="N359" s="35"/>
-      <c r="O359" s="43">
+      <c r="O359" s="42">
         <v>22</v>
       </c>
       <c r="P359" s="24">
@@ -29813,7 +29972,7 @@
         <v>3.0092592592589895E-4</v>
       </c>
       <c r="N360" s="35"/>
-      <c r="O360" s="43">
+      <c r="O360" s="42">
         <v>23</v>
       </c>
       <c r="P360" s="24">
@@ -29880,7 +30039,7 @@
         <v>2.777777777778212E-4</v>
       </c>
       <c r="N361" s="35"/>
-      <c r="O361" s="43">
+      <c r="O361" s="42">
         <v>24</v>
       </c>
       <c r="P361" s="24">
@@ -29947,7 +30106,7 @@
         <v>2.4305555555553804E-4</v>
       </c>
       <c r="N362" s="35"/>
-      <c r="O362" s="43">
+      <c r="O362" s="42">
         <v>25</v>
       </c>
       <c r="P362" s="24">
@@ -30014,7 +30173,7 @@
         <v>2.3148148148149916E-4</v>
       </c>
       <c r="N363" s="35"/>
-      <c r="O363" s="43">
+      <c r="O363" s="42">
         <v>26</v>
       </c>
       <c r="P363" s="24">
@@ -30081,7 +30240,7 @@
         <v>1.96759259259216E-4</v>
       </c>
       <c r="N364" s="35"/>
-      <c r="O364" s="43">
+      <c r="O364" s="42">
         <v>27</v>
       </c>
       <c r="P364" s="24">
@@ -30148,7 +30307,7 @@
         <v>1.8518518518517713E-4</v>
       </c>
       <c r="N365" s="35"/>
-      <c r="O365" s="43">
+      <c r="O365" s="42">
         <v>28</v>
       </c>
       <c r="P365" s="24">
@@ -30215,7 +30374,7 @@
         <v>1.5046296296300499E-4</v>
       </c>
       <c r="N366" s="35"/>
-      <c r="O366" s="43">
+      <c r="O366" s="42">
         <v>29</v>
       </c>
       <c r="P366" s="24">
@@ -30282,7 +30441,7 @@
         <v>1.2731481481481621E-4</v>
       </c>
       <c r="N367" s="35"/>
-      <c r="O367" s="43">
+      <c r="O367" s="42">
         <v>30</v>
       </c>
       <c r="P367" s="24">
@@ -30349,7 +30508,7 @@
         <v>-0.3089351851851852</v>
       </c>
       <c r="N368" s="35"/>
-      <c r="O368" s="43">
+      <c r="O368" s="42">
         <v>31</v>
       </c>
       <c r="P368" s="24">
@@ -34521,29 +34680,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741B0702-5186-4FC0-8C5C-47996DD97BFF}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1103</v>
       </c>
       <c r="C1" t="s">
         <v>1102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1101</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1099</v>
       </c>
@@ -34556,17 +34715,24 @@
       <c r="D3" s="36" t="s">
         <v>1096</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36" t="s">
         <v>1095</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="H3" s="36" t="s">
         <v>1110</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -34580,16 +34746,24 @@
         <v>0.48</v>
       </c>
       <c r="E4">
-        <v>0.54</v>
-      </c>
-      <c r="F4">
-        <v>0.54</v>
+        <f t="shared" ref="E4:E7" si="0">E$30*$A4+E$31</f>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.54</v>
+      </c>
+      <c r="I4">
+        <v>0.54</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="1">J$30*$A4+J$31</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -34603,16 +34777,24 @@
         <v>1.32</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.2272727272727273</v>
+      </c>
+      <c r="G5">
         <v>0.96</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.95</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.88834951456310685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -34626,16 +34808,24 @@
         <v>2.04</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.9545454545454546</v>
+      </c>
+      <c r="G6">
         <v>1.34</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.34</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.2766990291262137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -34649,16 +34839,24 @@
         <v>2.72</v>
       </c>
       <c r="E7">
-        <v>1.74</v>
-      </c>
-      <c r="F7">
-        <v>1.72</v>
+        <f t="shared" si="0"/>
+        <v>2.6818181818181817</v>
       </c>
       <c r="G7">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1.72</v>
+      </c>
+      <c r="I7">
+        <v>1.74</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.6650485436893203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -34672,16 +34870,24 @@
         <v>3.43</v>
       </c>
       <c r="E8">
-        <v>2.11</v>
-      </c>
-      <c r="F8">
-        <v>2.11</v>
+        <f>E$30*$A8+E$31</f>
+        <v>3.4090909090909092</v>
       </c>
       <c r="G8">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>2.11</v>
+      </c>
+      <c r="I8">
+        <v>2.11</v>
+      </c>
+      <c r="J8">
+        <f>J$30*$A8+J$31</f>
+        <v>2.0533980582524274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -34695,16 +34901,24 @@
         <v>4.2</v>
       </c>
       <c r="E9">
+        <f>E$30*$A9+E$31</f>
+        <v>4.1363636363636367</v>
+      </c>
+      <c r="G9">
         <v>2.52</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>2.48</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>J$30*$A9+J$31</f>
+        <v>2.441747572815534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1107</v>
       </c>
@@ -34720,136 +34934,136 @@
         <f>(D5-D$4)/$A5</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="E14">
-        <f>(E5-E$4)/$A5</f>
+      <c r="G14">
+        <f>(G5-G$4)/$A5</f>
         <v>0.41999999999999993</v>
       </c>
-      <c r="F14">
-        <f t="shared" ref="F14:G14" si="0">(F5-F$4)/$A5</f>
+      <c r="H14">
+        <f t="shared" ref="H14:I14" si="2">(H5-H$4)/$A5</f>
         <v>0.40999999999999992</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="I14">
+        <f t="shared" si="2"/>
         <v>0.39999999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1107</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B18" si="1">(B6-B$4)/A6</f>
+        <f t="shared" ref="B15:B18" si="3">(B6-B$4)/A6</f>
         <v>0.76</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:G18" si="2">(C6-C$4)/$A6</f>
+        <f t="shared" ref="C15:I18" si="4">(C6-C$4)/$A6</f>
         <v>0.745</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
+      <c r="G15">
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
+      <c r="H15">
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
+      <c r="I15">
+        <f t="shared" si="4"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1107</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.75666666666666671</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.7466666666666667</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
+      <c r="G16">
+        <f t="shared" si="4"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
+      <c r="H16">
+        <f t="shared" si="4"/>
         <v>0.39333333333333331</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
+      <c r="I16">
+        <f t="shared" si="4"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1107</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.75250000000000006</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.73750000000000004</v>
       </c>
-      <c r="E17">
-        <f t="shared" ref="E17:G17" si="3">(E8-E$4)/$A8</f>
+      <c r="G17">
+        <f t="shared" ref="G17:I17" si="5">(G8-G$4)/$A8</f>
         <v>0.39249999999999996</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
+      <c r="H17">
+        <f t="shared" si="5"/>
         <v>0.39249999999999996</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
+      <c r="I17">
+        <f t="shared" si="5"/>
         <v>0.39249999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1107</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.74399999999999999</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74399999999999999</v>
       </c>
-      <c r="E18">
-        <f t="shared" ref="E18:G18" si="4">(E9-E$4)/$A9</f>
+      <c r="G18">
+        <f t="shared" ref="G18:I18" si="6">(G9-G$4)/$A9</f>
         <v>0.39600000000000002</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
+      <c r="H18">
+        <f t="shared" si="6"/>
         <v>0.38800000000000001</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
+      <c r="I18">
+        <f t="shared" si="6"/>
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1108</v>
       </c>
@@ -34858,27 +35072,27 @@
         <v>0.75946666666666673</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:G19" si="5">AVERAGE(C14:C18)</f>
+        <f t="shared" ref="C19:I19" si="7">AVERAGE(C14:C18)</f>
         <v>0.75683333333333336</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76963333333333339</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
+      <c r="G19">
+        <f t="shared" si="7"/>
         <v>0.40169999999999995</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="5"/>
+      <c r="H19">
+        <f t="shared" si="7"/>
         <v>0.3967666666666666</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="5"/>
+      <c r="I19">
+        <f t="shared" si="7"/>
         <v>0.39789999999999992</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1106</v>
       </c>
@@ -34887,172 +35101,172 @@
         <v>0.48</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:G21" si="6">C$4+$A4*C$19</f>
+        <f t="shared" ref="C21:I21" si="8">C$4+$A4*C$19</f>
         <v>0.48</v>
       </c>
       <c r="D21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.48</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="6"/>
+      <c r="G21">
+        <f t="shared" si="8"/>
         <v>0.54</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="6"/>
+      <c r="H21">
+        <f t="shared" si="8"/>
         <v>0.54</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
+      <c r="I21">
+        <f t="shared" si="8"/>
         <v>0.54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1106</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:G26" si="7">B$4+$A5*B$19</f>
+        <f t="shared" ref="B22:I26" si="9">B$4+$A5*B$19</f>
         <v>1.2394666666666667</v>
       </c>
       <c r="C22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2368333333333332</v>
       </c>
       <c r="D22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2496333333333334</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="7"/>
+      <c r="G22">
+        <f t="shared" si="9"/>
         <v>0.94169999999999998</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="7"/>
+      <c r="H22">
+        <f t="shared" si="9"/>
         <v>0.93676666666666664</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="7"/>
+      <c r="I22">
+        <f t="shared" si="9"/>
         <v>0.93789999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1106</v>
       </c>
       <c r="B23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9989333333333335</v>
       </c>
       <c r="C23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9936666666666667</v>
       </c>
       <c r="D23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0192666666666668</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="7"/>
+      <c r="G23">
+        <f t="shared" si="9"/>
         <v>1.3433999999999999</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="7"/>
+      <c r="H23">
+        <f t="shared" si="9"/>
         <v>1.3335333333333332</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="7"/>
+      <c r="I23">
+        <f t="shared" si="9"/>
         <v>1.3357999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1106</v>
       </c>
       <c r="B24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7584000000000004</v>
       </c>
       <c r="C24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7505000000000002</v>
       </c>
       <c r="D24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7889000000000004</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="7"/>
+      <c r="G24">
+        <f t="shared" si="9"/>
         <v>1.7450999999999999</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="7"/>
+      <c r="H24">
+        <f t="shared" si="9"/>
         <v>1.7302999999999997</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="7"/>
+      <c r="I24">
+        <f t="shared" si="9"/>
         <v>1.7336999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1106</v>
       </c>
       <c r="B25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5178666666666669</v>
       </c>
       <c r="C25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5073333333333334</v>
       </c>
       <c r="D25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5585333333333335</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="7"/>
+      <c r="G25">
+        <f t="shared" si="9"/>
         <v>2.1467999999999998</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="7"/>
+      <c r="H25">
+        <f t="shared" si="9"/>
         <v>2.1270666666666664</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="7"/>
+      <c r="I25">
+        <f t="shared" si="9"/>
         <v>2.1315999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1106</v>
       </c>
       <c r="B26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.277333333333333</v>
       </c>
       <c r="C26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.2641666666666662</v>
       </c>
       <c r="D26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3281666666666663</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="7"/>
+      <c r="G26">
+        <f t="shared" si="9"/>
         <v>2.5484999999999998</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="7"/>
+      <c r="H26">
+        <f t="shared" si="9"/>
         <v>2.5238333333333332</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="7"/>
+      <c r="I26">
+        <f t="shared" si="9"/>
         <v>2.5294999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1109</v>
       </c>
@@ -35062,11 +35276,11 @@
       <c r="C28" t="s">
         <v>1112</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1104</v>
       </c>
@@ -35074,10 +35288,18 @@
         <v>0.75683333333333336</v>
       </c>
       <c r="E30">
+        <f>(4.5-0.5)/5.5</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G30">
         <v>0.3967666666666666</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f>(4.5-0.5)/10.3</f>
+        <v>0.38834951456310679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1105</v>
       </c>
@@ -35085,7 +35307,13 @@
         <v>0.48</v>
       </c>
       <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
         <v>0.54</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Schedules.xlsx
+++ b/Schedules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48300DA6-81F4-414F-BD0D-578362319CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F951D7-9076-4CB8-95FB-2F5E87B30805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" activeTab="3" xr2:uid="{BC55A6CB-6D2E-44AC-924D-E6CB2B85EFF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Timer schedule" sheetId="1" r:id="rId1"/>
@@ -5500,7 +5500,7 @@
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34674,7 +34674,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34683,7 +34683,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35318,7 +35318,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>